--- a/AI_Literacy_ILT_Materials/Lesson_Plan_AI_Literacy.xlsx
+++ b/AI_Literacy_ILT_Materials/Lesson_Plan_AI_Literacy.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simplilearnsolution-my.sharepoint.com/personal/pistorage_simplilearn_com/Documents/Simplilearn Project Backup/Data and AI/AI and ML/Advanced Gen AI Modules (AGS)/AGS_Updated_2025/0.1 AI Literacy/0.1_Lesson_Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2c4e04267d3dad2/Documents/OutoftheNormAi/Simplilearn/simplilearn-AGS/AI_Literacy_ILT_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{6F28CC9D-6B07-4777-A594-03FB25EB5460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAD27AEF-BB79-4FAE-8584-2AF581094A7F}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{6F28CC9D-6B07-4777-A594-03FB25EB5460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{497177FB-3C06-4CA3-9AE7-E0240749EC0F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LP- Tool" sheetId="2" r:id="rId1"/>
     <sheet name="Lesson Plan" sheetId="4" r:id="rId2"/>
+    <sheet name="Class Structure" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="214">
   <si>
     <t>Use this tool to plan the duration of the lesson.</t>
   </si>
@@ -564,13 +566,144 @@
   </si>
   <si>
     <t>CEA</t>
+  </si>
+  <si>
+    <t>Component/Slide Title</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Activity Type</t>
+  </si>
+  <si>
+    <t>Delivery Flexibility</t>
+  </si>
+  <si>
+    <t>Role of the Instructor</t>
+  </si>
+  <si>
+    <t>Estimated Duration</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Display this slide as participants join the Zoom call.</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Announce the lesson name.</t>
+  </si>
+  <si>
+    <t>Quick Recap (lesson two onwards)</t>
+  </si>
+  <si>
+    <t>Synchronous (In-class)</t>
+  </si>
+  <si>
+    <t>Instructor-led</t>
+  </si>
+  <si>
+    <t>Flexible</t>
+  </si>
+  <si>
+    <t>Quickly recap the previous lesson before starting the lesson. Ask the learners if they have any questions from the previous lesson.</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>Instructor-led whole group discussion</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
+    <t>Learning Objectives</t>
+  </si>
+  <si>
+    <t>Clearly state the learning objectives at the start.</t>
+  </si>
+  <si>
+    <t>2 minutes</t>
+  </si>
+  <si>
+    <t>Lecture Topics and Demo</t>
+  </si>
+  <si>
+    <t>Explain the key concepts of the lesson during the lecture.</t>
+  </si>
+  <si>
+    <t>90 minutes*</t>
+  </si>
+  <si>
+    <t>Poll Question</t>
+  </si>
+  <si>
+    <t>Conduct poll questions and, if necessary, reteach key points based on the results. If you are short on time, skip a maximum of 1 or 2.</t>
+  </si>
+  <si>
+    <t>30 minutes* (5 minutes per quick check)</t>
+  </si>
+  <si>
+    <t>Small-Group Activity/Individual Activity</t>
+  </si>
+  <si>
+    <t>30 minutes*</t>
+  </si>
+  <si>
+    <t>Summarize the lesson's key takeaways.</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>Asynchronous (Out of the class)</t>
+  </si>
+  <si>
+    <t>Address learners' questions during the Q &amp; A session, time permitting. If time is limited, you can skip this.</t>
+  </si>
+  <si>
+    <t>5 to 10 minutes</t>
+  </si>
+  <si>
+    <t>Facilitate a whole group discussion to kick off today's lesson.</t>
+  </si>
+  <si>
+    <t>As you transition into the guided practice, explain to the students how a guided practice works. The answers are provided, but the point is to try it on their own FIRST and then check the response. Encourage them to make it worth their time.
+Facilitate the guided practice exercise.
+Monitor breakout rooms. (in case of small-group activity)</t>
+  </si>
+  <si>
+    <t>Practice Project</t>
+  </si>
+  <si>
+    <t>Individual Assignment</t>
+  </si>
+  <si>
+    <t>You may or may not come across this slide. If present, inform the learners about the assignment, advising them to complete it after class. You can start the project in the live class if time permits.</t>
+  </si>
+  <si>
+    <t>You may or may not come across this slide. If present, share the additional resources in the class study. Mention that these are not mandatory for the learners to complete. If time is limited, you can skip this.</t>
+  </si>
+  <si>
+    <t>What's Next? (Optional)</t>
+  </si>
+  <si>
+    <t>You may or may not come across this slide. If present, inform learners about the topics scheduled for the next class. In case of time constraints, feel free to skip this slide.</t>
+  </si>
+  <si>
+    <t>1 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -627,6 +760,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="8">
@@ -707,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -762,9 +900,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -772,17 +907,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -793,15 +930,36 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,28 +1177,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="123" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1052,7 +1210,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1064,7 +1222,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1076,7 +1234,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1088,7 +1246,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -1100,7 +1258,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -1112,7 +1270,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -1124,7 +1282,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -1136,7 +1294,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -1148,7 +1306,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1</v>
       </c>
@@ -1160,7 +1318,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>1</v>
       </c>
@@ -1172,7 +1330,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13">
@@ -1182,7 +1340,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -1194,7 +1352,7 @@
       </c>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -1206,7 +1364,7 @@
       </c>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>2</v>
       </c>
@@ -1218,7 +1376,7 @@
       </c>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>2</v>
       </c>
@@ -1230,7 +1388,7 @@
       </c>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>2</v>
       </c>
@@ -1242,7 +1400,7 @@
       </c>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -1254,7 +1412,7 @@
       </c>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>2</v>
       </c>
@@ -1266,7 +1424,7 @@
       </c>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>2</v>
       </c>
@@ -1278,7 +1436,7 @@
       </c>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>2</v>
       </c>
@@ -1290,7 +1448,7 @@
       </c>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>13</v>
@@ -1300,7 +1458,7 @@
       </c>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13">
@@ -1310,7 +1468,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>3</v>
       </c>
@@ -1322,7 +1480,7 @@
       </c>
       <c r="D25" s="16"/>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>3</v>
       </c>
@@ -1334,7 +1492,7 @@
       </c>
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>3</v>
       </c>
@@ -1346,7 +1504,7 @@
       </c>
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>3</v>
       </c>
@@ -1358,7 +1516,7 @@
       </c>
       <c r="D28" s="16"/>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
@@ -1370,7 +1528,7 @@
       </c>
       <c r="D29" s="16"/>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>3</v>
       </c>
@@ -1382,7 +1540,7 @@
       </c>
       <c r="D30" s="16"/>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>3</v>
       </c>
@@ -1394,7 +1552,7 @@
       </c>
       <c r="D31" s="16"/>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>3</v>
       </c>
@@ -1406,7 +1564,7 @@
       </c>
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>3</v>
       </c>
@@ -1418,7 +1576,7 @@
       </c>
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>3</v>
       </c>
@@ -1430,7 +1588,7 @@
       </c>
       <c r="D34" s="16"/>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="13">
@@ -1441,7 +1599,7 @@
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>4</v>
       </c>
@@ -1453,7 +1611,7 @@
       </c>
       <c r="D36" s="16"/>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>4</v>
       </c>
@@ -1465,7 +1623,7 @@
       </c>
       <c r="D37" s="16"/>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>4</v>
       </c>
@@ -1477,7 +1635,7 @@
       </c>
       <c r="D38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>4</v>
       </c>
@@ -1489,7 +1647,7 @@
       </c>
       <c r="D39" s="16"/>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>4</v>
       </c>
@@ -1501,7 +1659,7 @@
       </c>
       <c r="D40" s="16"/>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>4</v>
       </c>
@@ -1513,7 +1671,7 @@
       </c>
       <c r="D41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1">
+    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>4</v>
       </c>
@@ -1525,7 +1683,7 @@
       </c>
       <c r="D42" s="16"/>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1">
+    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>4</v>
       </c>
@@ -1537,7 +1695,7 @@
       </c>
       <c r="D43" s="16"/>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1">
+    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>4</v>
       </c>
@@ -1549,7 +1707,7 @@
       </c>
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1">
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>4</v>
       </c>
@@ -1561,7 +1719,7 @@
       </c>
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1">
+    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="13">
@@ -1571,7 +1729,7 @@
         <v>2.9166666669999999</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1">
+    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>5</v>
       </c>
@@ -1583,7 +1741,7 @@
       </c>
       <c r="D47" s="16"/>
     </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1">
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>5</v>
       </c>
@@ -1595,7 +1753,7 @@
       </c>
       <c r="D48" s="16"/>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>5</v>
       </c>
@@ -1607,7 +1765,7 @@
       </c>
       <c r="D49" s="16"/>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>5</v>
       </c>
@@ -1619,7 +1777,7 @@
       </c>
       <c r="D50" s="16"/>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>5</v>
       </c>
@@ -1631,7 +1789,7 @@
       </c>
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>5</v>
       </c>
@@ -1643,7 +1801,7 @@
       </c>
       <c r="D52" s="16"/>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>5</v>
       </c>
@@ -1655,7 +1813,7 @@
       </c>
       <c r="D53" s="16"/>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>5</v>
       </c>
@@ -1667,7 +1825,7 @@
       </c>
       <c r="D54" s="16"/>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>5</v>
       </c>
@@ -1679,7 +1837,7 @@
       </c>
       <c r="D55" s="16"/>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="9" t="s">
         <v>13</v>
@@ -1689,7 +1847,7 @@
       </c>
       <c r="D56" s="16"/>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="13">
@@ -1699,3771 +1857,3771 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" ht="12.75" customHeight="1">
+    <row r="65" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" ht="12.75" customHeight="1">
+    <row r="66" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" ht="12.75" customHeight="1">
+    <row r="67" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" ht="12.75" customHeight="1">
+    <row r="68" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" ht="12.75" customHeight="1">
+    <row r="69" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" ht="12.75" customHeight="1">
+    <row r="70" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" ht="12.75" customHeight="1">
+    <row r="71" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" ht="12.75" customHeight="1">
+    <row r="72" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" ht="12.75" customHeight="1">
+    <row r="73" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" ht="12.75" customHeight="1">
+    <row r="74" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" ht="12.75" customHeight="1">
+    <row r="75" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" ht="12.75" customHeight="1">
+    <row r="76" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" ht="12.75" customHeight="1">
+    <row r="77" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" ht="12.75" customHeight="1">
+    <row r="78" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" ht="12.75" customHeight="1">
+    <row r="79" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" ht="12.75" customHeight="1">
+    <row r="80" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" ht="12.75" customHeight="1">
+    <row r="81" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" ht="12.75" customHeight="1">
+    <row r="82" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" ht="12.75" customHeight="1">
+    <row r="83" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" ht="12.75" customHeight="1">
+    <row r="84" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" ht="12.75" customHeight="1">
+    <row r="85" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" ht="12.75" customHeight="1">
+    <row r="86" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" ht="12.75" customHeight="1">
+    <row r="87" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" ht="12.75" customHeight="1">
+    <row r="88" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" ht="12.75" customHeight="1">
+    <row r="89" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" ht="12.75" customHeight="1">
+    <row r="90" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" ht="12.75" customHeight="1">
+    <row r="91" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" ht="12.75" customHeight="1">
+    <row r="92" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" ht="12.75" customHeight="1">
+    <row r="93" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" ht="12.75" customHeight="1">
+    <row r="94" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" ht="12.75" customHeight="1">
+    <row r="95" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" ht="12.75" customHeight="1">
+    <row r="96" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" ht="12.75" customHeight="1">
+    <row r="97" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" ht="12.75" customHeight="1">
+    <row r="98" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" ht="12.75" customHeight="1">
+    <row r="99" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" ht="12.75" customHeight="1">
+    <row r="100" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" ht="12.75" customHeight="1">
+    <row r="101" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" ht="12.75" customHeight="1">
+    <row r="102" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" ht="12.75" customHeight="1">
+    <row r="103" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" ht="12.75" customHeight="1">
+    <row r="104" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" ht="12.75" customHeight="1">
+    <row r="105" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" ht="12.75" customHeight="1">
+    <row r="106" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" ht="12.75" customHeight="1">
+    <row r="107" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" ht="12.75" customHeight="1">
+    <row r="108" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" ht="12.75" customHeight="1">
+    <row r="109" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" ht="12.75" customHeight="1">
+    <row r="110" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" ht="12.75" customHeight="1">
+    <row r="111" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" ht="12.75" customHeight="1">
+    <row r="112" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" ht="12.75" customHeight="1">
+    <row r="113" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" ht="12.75" customHeight="1">
+    <row r="114" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" ht="12.75" customHeight="1">
+    <row r="115" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" ht="12.75" customHeight="1">
+    <row r="116" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" ht="12.75" customHeight="1">
+    <row r="117" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" ht="12.75" customHeight="1">
+    <row r="118" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" ht="12.75" customHeight="1">
+    <row r="119" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" ht="12.75" customHeight="1">
+    <row r="120" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" ht="12.75" customHeight="1">
+    <row r="121" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" ht="12.75" customHeight="1">
+    <row r="122" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" ht="12.75" customHeight="1">
+    <row r="123" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" ht="12.75" customHeight="1">
+    <row r="124" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" ht="12.75" customHeight="1">
+    <row r="125" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" ht="12.75" customHeight="1">
+    <row r="126" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" ht="12.75" customHeight="1">
+    <row r="127" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" ht="12.75" customHeight="1">
+    <row r="128" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" ht="12.75" customHeight="1">
+    <row r="129" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" ht="12.75" customHeight="1">
+    <row r="130" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" ht="12.75" customHeight="1">
+    <row r="131" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" ht="12.75" customHeight="1">
+    <row r="132" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" ht="12.75" customHeight="1">
+    <row r="133" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" ht="12.75" customHeight="1">
+    <row r="134" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="12.75" customHeight="1">
+    <row r="135" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" ht="12.75" customHeight="1">
+    <row r="136" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" ht="12.75" customHeight="1">
+    <row r="137" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" ht="12.75" customHeight="1">
+    <row r="138" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" ht="12.75" customHeight="1">
+    <row r="139" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" ht="12.75" customHeight="1">
+    <row r="140" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" ht="12.75" customHeight="1">
+    <row r="141" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" ht="12.75" customHeight="1">
+    <row r="142" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" ht="12.75" customHeight="1">
+    <row r="143" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" ht="12.75" customHeight="1">
+    <row r="144" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" ht="12.75" customHeight="1">
+    <row r="145" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" ht="12.75" customHeight="1">
+    <row r="146" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" ht="12.75" customHeight="1">
+    <row r="147" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" ht="12.75" customHeight="1">
+    <row r="148" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" ht="12.75" customHeight="1">
+    <row r="149" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" ht="12.75" customHeight="1">
+    <row r="150" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:2" ht="12.75" customHeight="1">
+    <row r="151" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:2" ht="12.75" customHeight="1">
+    <row r="152" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" ht="12.75" customHeight="1">
+    <row r="153" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:2" ht="12.75" customHeight="1">
+    <row r="154" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:2" ht="12.75" customHeight="1">
+    <row r="155" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" ht="12.75" customHeight="1">
+    <row r="156" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:2" ht="12.75" customHeight="1">
+    <row r="157" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" ht="12.75" customHeight="1">
+    <row r="158" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" ht="12.75" customHeight="1">
+    <row r="159" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:2" ht="12.75" customHeight="1">
+    <row r="160" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" ht="12.75" customHeight="1">
+    <row r="161" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" ht="12.75" customHeight="1">
+    <row r="162" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:2" ht="12.75" customHeight="1">
+    <row r="163" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:2" ht="12.75" customHeight="1">
+    <row r="164" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" ht="12.75" customHeight="1">
+    <row r="165" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="1:2" ht="12.75" customHeight="1">
+    <row r="166" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" ht="12.75" customHeight="1">
+    <row r="167" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" ht="12.75" customHeight="1">
+    <row r="168" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" ht="12.75" customHeight="1">
+    <row r="169" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" spans="1:2" ht="12.75" customHeight="1">
+    <row r="170" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" ht="12.75" customHeight="1">
+    <row r="171" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="1:2" ht="12.75" customHeight="1">
+    <row r="172" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="1:2" ht="12.75" customHeight="1">
+    <row r="173" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" ht="12.75" customHeight="1">
+    <row r="174" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:2" ht="12.75" customHeight="1">
+    <row r="175" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:2" ht="12.75" customHeight="1">
+    <row r="176" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:2" ht="12.75" customHeight="1">
+    <row r="177" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="1:2" ht="12.75" customHeight="1">
+    <row r="178" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:2" ht="12.75" customHeight="1">
+    <row r="179" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:2" ht="12.75" customHeight="1">
+    <row r="180" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:2" ht="12.75" customHeight="1">
+    <row r="181" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="1:2" ht="12.75" customHeight="1">
+    <row r="182" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" ht="12.75" customHeight="1">
+    <row r="183" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="1:2" ht="12.75" customHeight="1">
+    <row r="184" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:2" ht="12.75" customHeight="1">
+    <row r="185" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" ht="12.75" customHeight="1">
+    <row r="186" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" spans="1:2" ht="12.75" customHeight="1">
+    <row r="187" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:2" ht="12.75" customHeight="1">
+    <row r="188" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:2" ht="12.75" customHeight="1">
+    <row r="189" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" spans="1:2" ht="12.75" customHeight="1">
+    <row r="190" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" spans="1:2" ht="12.75" customHeight="1">
+    <row r="191" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:2" ht="12.75" customHeight="1">
+    <row r="192" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="1:2" ht="12.75" customHeight="1">
+    <row r="193" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" spans="1:2" ht="12.75" customHeight="1">
+    <row r="194" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="1:2" ht="12.75" customHeight="1">
+    <row r="195" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:2" ht="12.75" customHeight="1">
+    <row r="196" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" spans="1:2" ht="12.75" customHeight="1">
+    <row r="197" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:2" ht="12.75" customHeight="1">
+    <row r="198" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" spans="1:2" ht="12.75" customHeight="1">
+    <row r="199" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
     </row>
-    <row r="200" spans="1:2" ht="12.75" customHeight="1">
+    <row r="200" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" spans="1:2" ht="12.75" customHeight="1">
+    <row r="201" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:2" ht="12.75" customHeight="1">
+    <row r="202" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
     </row>
-    <row r="203" spans="1:2" ht="12.75" customHeight="1">
+    <row r="203" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:2" ht="12.75" customHeight="1">
+    <row r="204" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" spans="1:2" ht="12.75" customHeight="1">
+    <row r="205" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" spans="1:2" ht="12.75" customHeight="1">
+    <row r="206" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
     </row>
-    <row r="207" spans="1:2" ht="12.75" customHeight="1">
+    <row r="207" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
     </row>
-    <row r="208" spans="1:2" ht="12.75" customHeight="1">
+    <row r="208" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
     </row>
-    <row r="209" spans="1:2" ht="12.75" customHeight="1">
+    <row r="209" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" spans="1:2" ht="12.75" customHeight="1">
+    <row r="210" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
     </row>
-    <row r="211" spans="1:2" ht="12.75" customHeight="1">
+    <row r="211" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
     </row>
-    <row r="212" spans="1:2" ht="12.75" customHeight="1">
+    <row r="212" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" spans="1:2" ht="12.75" customHeight="1">
+    <row r="213" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
     </row>
-    <row r="214" spans="1:2" ht="12.75" customHeight="1">
+    <row r="214" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
     </row>
-    <row r="215" spans="1:2" ht="12.75" customHeight="1">
+    <row r="215" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" spans="1:2" ht="12.75" customHeight="1">
+    <row r="216" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" spans="1:2" ht="12.75" customHeight="1">
+    <row r="217" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
     </row>
-    <row r="218" spans="1:2" ht="12.75" customHeight="1">
+    <row r="218" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
     </row>
-    <row r="219" spans="1:2" ht="12.75" customHeight="1">
+    <row r="219" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
     </row>
-    <row r="220" spans="1:2" ht="12.75" customHeight="1">
+    <row r="220" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
     </row>
-    <row r="221" spans="1:2" ht="12.75" customHeight="1">
+    <row r="221" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" spans="1:2" ht="12.75" customHeight="1">
+    <row r="222" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" spans="1:2" ht="12.75" customHeight="1">
+    <row r="223" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
     </row>
-    <row r="224" spans="1:2" ht="12.75" customHeight="1">
+    <row r="224" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
     </row>
-    <row r="225" spans="1:2" ht="12.75" customHeight="1">
+    <row r="225" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" ht="12.75" customHeight="1">
+    <row r="226" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
     </row>
-    <row r="227" spans="1:2" ht="12.75" customHeight="1">
+    <row r="227" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
     </row>
-    <row r="228" spans="1:2" ht="12.75" customHeight="1">
+    <row r="228" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
     </row>
-    <row r="229" spans="1:2" ht="12.75" customHeight="1">
+    <row r="229" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
     </row>
-    <row r="230" spans="1:2" ht="12.75" customHeight="1">
+    <row r="230" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
     </row>
-    <row r="231" spans="1:2" ht="12.75" customHeight="1">
+    <row r="231" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
     </row>
-    <row r="232" spans="1:2" ht="12.75" customHeight="1">
+    <row r="232" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
     </row>
-    <row r="233" spans="1:2" ht="12.75" customHeight="1">
+    <row r="233" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" spans="1:2" ht="12.75" customHeight="1">
+    <row r="234" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
     </row>
-    <row r="235" spans="1:2" ht="12.75" customHeight="1">
+    <row r="235" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
     </row>
-    <row r="236" spans="1:2" ht="12.75" customHeight="1">
+    <row r="236" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
     </row>
-    <row r="237" spans="1:2" ht="12.75" customHeight="1">
+    <row r="237" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
     </row>
-    <row r="238" spans="1:2" ht="12.75" customHeight="1">
+    <row r="238" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
     </row>
-    <row r="239" spans="1:2" ht="12.75" customHeight="1">
+    <row r="239" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
     </row>
-    <row r="240" spans="1:2" ht="12.75" customHeight="1">
+    <row r="240" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
     </row>
-    <row r="241" spans="1:2" ht="12.75" customHeight="1">
+    <row r="241" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
     </row>
-    <row r="242" spans="1:2" ht="12.75" customHeight="1">
+    <row r="242" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
     </row>
-    <row r="243" spans="1:2" ht="12.75" customHeight="1">
+    <row r="243" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
     </row>
-    <row r="244" spans="1:2" ht="12.75" customHeight="1">
+    <row r="244" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
     </row>
-    <row r="245" spans="1:2" ht="12.75" customHeight="1">
+    <row r="245" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
     </row>
-    <row r="246" spans="1:2" ht="12.75" customHeight="1">
+    <row r="246" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:2" ht="12.75" customHeight="1">
+    <row r="247" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
     </row>
-    <row r="248" spans="1:2" ht="12.75" customHeight="1">
+    <row r="248" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
     </row>
-    <row r="249" spans="1:2" ht="12.75" customHeight="1">
+    <row r="249" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
     </row>
-    <row r="250" spans="1:2" ht="12.75" customHeight="1">
+    <row r="250" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
     </row>
-    <row r="251" spans="1:2" ht="12.75" customHeight="1">
+    <row r="251" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
     </row>
-    <row r="252" spans="1:2" ht="12.75" customHeight="1">
+    <row r="252" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
     </row>
-    <row r="253" spans="1:2" ht="12.75" customHeight="1">
+    <row r="253" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
     </row>
-    <row r="254" spans="1:2" ht="12.75" customHeight="1">
+    <row r="254" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
     </row>
-    <row r="255" spans="1:2" ht="12.75" customHeight="1">
+    <row r="255" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
     </row>
-    <row r="256" spans="1:2" ht="12.75" customHeight="1">
+    <row r="256" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
     </row>
-    <row r="257" spans="1:2" ht="12.75" customHeight="1">
+    <row r="257" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="258" spans="1:2" ht="12.75" customHeight="1">
+    <row r="258" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
     </row>
-    <row r="259" spans="1:2" ht="12.75" customHeight="1">
+    <row r="259" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
     </row>
-    <row r="260" spans="1:2" ht="12.75" customHeight="1">
+    <row r="260" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
     </row>
-    <row r="261" spans="1:2" ht="12.75" customHeight="1">
+    <row r="261" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
     </row>
-    <row r="262" spans="1:2" ht="12.75" customHeight="1">
+    <row r="262" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="263" spans="1:2" ht="12.75" customHeight="1">
+    <row r="263" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
     </row>
-    <row r="264" spans="1:2" ht="12.75" customHeight="1">
+    <row r="264" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
     </row>
-    <row r="265" spans="1:2" ht="12.75" customHeight="1">
+    <row r="265" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
     </row>
-    <row r="266" spans="1:2" ht="12.75" customHeight="1">
+    <row r="266" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
     </row>
-    <row r="267" spans="1:2" ht="12.75" customHeight="1">
+    <row r="267" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
     </row>
-    <row r="268" spans="1:2" ht="12.75" customHeight="1">
+    <row r="268" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
     </row>
-    <row r="269" spans="1:2" ht="12.75" customHeight="1">
+    <row r="269" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" ht="12.75" customHeight="1">
+    <row r="270" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
     </row>
-    <row r="271" spans="1:2" ht="12.75" customHeight="1">
+    <row r="271" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
     </row>
-    <row r="272" spans="1:2" ht="12.75" customHeight="1">
+    <row r="272" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
     </row>
-    <row r="273" spans="1:2" ht="12.75" customHeight="1">
+    <row r="273" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="274" spans="1:2" ht="12.75" customHeight="1">
+    <row r="274" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
     </row>
-    <row r="275" spans="1:2" ht="12.75" customHeight="1">
+    <row r="275" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
     </row>
-    <row r="276" spans="1:2" ht="12.75" customHeight="1">
+    <row r="276" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="1:2" ht="12.75" customHeight="1">
+    <row r="277" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="1:2" ht="12.75" customHeight="1">
+    <row r="278" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
     </row>
-    <row r="279" spans="1:2" ht="12.75" customHeight="1">
+    <row r="279" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
     </row>
-    <row r="280" spans="1:2" ht="12.75" customHeight="1">
+    <row r="280" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
     </row>
-    <row r="281" spans="1:2" ht="12.75" customHeight="1">
+    <row r="281" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="1:2" ht="12.75" customHeight="1">
+    <row r="282" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="1:2" ht="12.75" customHeight="1">
+    <row r="283" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="1:2" ht="12.75" customHeight="1">
+    <row r="284" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="1:2" ht="12.75" customHeight="1">
+    <row r="285" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="1:2" ht="12.75" customHeight="1">
+    <row r="286" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="1:2" ht="12.75" customHeight="1">
+    <row r="287" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="1:2" ht="12.75" customHeight="1">
+    <row r="288" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="1:2" ht="12.75" customHeight="1">
+    <row r="289" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
     </row>
-    <row r="290" spans="1:2" ht="12.75" customHeight="1">
+    <row r="290" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
     </row>
-    <row r="291" spans="1:2" ht="12.75" customHeight="1">
+    <row r="291" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
     </row>
-    <row r="292" spans="1:2" ht="12.75" customHeight="1">
+    <row r="292" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="293" spans="1:2" ht="12.75" customHeight="1">
+    <row r="293" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="12.75" customHeight="1">
+    <row r="294" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
     </row>
-    <row r="295" spans="1:2" ht="12.75" customHeight="1">
+    <row r="295" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
     </row>
-    <row r="296" spans="1:2" ht="12.75" customHeight="1">
+    <row r="296" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="297" spans="1:2" ht="12.75" customHeight="1">
+    <row r="297" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
     </row>
-    <row r="298" spans="1:2" ht="12.75" customHeight="1">
+    <row r="298" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
     </row>
-    <row r="299" spans="1:2" ht="12.75" customHeight="1">
+    <row r="299" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
     </row>
-    <row r="300" spans="1:2" ht="12.75" customHeight="1">
+    <row r="300" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
     </row>
-    <row r="301" spans="1:2" ht="12.75" customHeight="1">
+    <row r="301" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
     </row>
-    <row r="302" spans="1:2" ht="12.75" customHeight="1">
+    <row r="302" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
     </row>
-    <row r="303" spans="1:2" ht="12.75" customHeight="1">
+    <row r="303" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="304" spans="1:2" ht="12.75" customHeight="1">
+    <row r="304" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
     </row>
-    <row r="305" spans="1:2" ht="12.75" customHeight="1">
+    <row r="305" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
     </row>
-    <row r="306" spans="1:2" ht="12.75" customHeight="1">
+    <row r="306" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
     </row>
-    <row r="307" spans="1:2" ht="12.75" customHeight="1">
+    <row r="307" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
     </row>
-    <row r="308" spans="1:2" ht="12.75" customHeight="1">
+    <row r="308" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="309" spans="1:2" ht="12.75" customHeight="1">
+    <row r="309" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
     </row>
-    <row r="310" spans="1:2" ht="12.75" customHeight="1">
+    <row r="310" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
     </row>
-    <row r="311" spans="1:2" ht="12.75" customHeight="1">
+    <row r="311" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
     </row>
-    <row r="312" spans="1:2" ht="12.75" customHeight="1">
+    <row r="312" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="313" spans="1:2" ht="12.75" customHeight="1">
+    <row r="313" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
     </row>
-    <row r="314" spans="1:2" ht="12.75" customHeight="1">
+    <row r="314" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
     </row>
-    <row r="315" spans="1:2" ht="12.75" customHeight="1">
+    <row r="315" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
     </row>
-    <row r="316" spans="1:2" ht="12.75" customHeight="1">
+    <row r="316" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
     </row>
-    <row r="317" spans="1:2" ht="12.75" customHeight="1">
+    <row r="317" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
     </row>
-    <row r="318" spans="1:2" ht="12.75" customHeight="1">
+    <row r="318" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
     </row>
-    <row r="319" spans="1:2" ht="12.75" customHeight="1">
+    <row r="319" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="320" spans="1:2" ht="12.75" customHeight="1">
+    <row r="320" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
     </row>
-    <row r="321" spans="1:2" ht="12.75" customHeight="1">
+    <row r="321" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
     </row>
-    <row r="322" spans="1:2" ht="12.75" customHeight="1">
+    <row r="322" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
     </row>
-    <row r="323" spans="1:2" ht="12.75" customHeight="1">
+    <row r="323" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
     </row>
-    <row r="324" spans="1:2" ht="12.75" customHeight="1">
+    <row r="324" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
     </row>
-    <row r="325" spans="1:2" ht="12.75" customHeight="1">
+    <row r="325" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
     </row>
-    <row r="326" spans="1:2" ht="12.75" customHeight="1">
+    <row r="326" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="327" spans="1:2" ht="12.75" customHeight="1">
+    <row r="327" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
     </row>
-    <row r="328" spans="1:2" ht="12.75" customHeight="1">
+    <row r="328" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
     </row>
-    <row r="329" spans="1:2" ht="12.75" customHeight="1">
+    <row r="329" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
     </row>
-    <row r="330" spans="1:2" ht="12.75" customHeight="1">
+    <row r="330" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
     </row>
-    <row r="331" spans="1:2" ht="12.75" customHeight="1">
+    <row r="331" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
     </row>
-    <row r="332" spans="1:2" ht="12.75" customHeight="1">
+    <row r="332" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
     </row>
-    <row r="333" spans="1:2" ht="12.75" customHeight="1">
+    <row r="333" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="334" spans="1:2" ht="12.75" customHeight="1">
+    <row r="334" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
     </row>
-    <row r="335" spans="1:2" ht="12.75" customHeight="1">
+    <row r="335" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
     </row>
-    <row r="336" spans="1:2" ht="12.75" customHeight="1">
+    <row r="336" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
     </row>
-    <row r="337" spans="1:2" ht="12.75" customHeight="1">
+    <row r="337" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
     </row>
-    <row r="338" spans="1:2" ht="12.75" customHeight="1">
+    <row r="338" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
     </row>
-    <row r="339" spans="1:2" ht="12.75" customHeight="1">
+    <row r="339" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="12.75" customHeight="1">
+    <row r="340" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
     </row>
-    <row r="341" spans="1:2" ht="12.75" customHeight="1">
+    <row r="341" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
     </row>
-    <row r="342" spans="1:2" ht="12.75" customHeight="1">
+    <row r="342" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="343" spans="1:2" ht="12.75" customHeight="1">
+    <row r="343" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
     </row>
-    <row r="344" spans="1:2" ht="12.75" customHeight="1">
+    <row r="344" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
     </row>
-    <row r="345" spans="1:2" ht="12.75" customHeight="1">
+    <row r="345" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
     </row>
-    <row r="346" spans="1:2" ht="12.75" customHeight="1">
+    <row r="346" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
     </row>
-    <row r="347" spans="1:2" ht="12.75" customHeight="1">
+    <row r="347" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
     </row>
-    <row r="348" spans="1:2" ht="12.75" customHeight="1">
+    <row r="348" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
     </row>
-    <row r="349" spans="1:2" ht="12.75" customHeight="1">
+    <row r="349" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="350" spans="1:2" ht="12.75" customHeight="1">
+    <row r="350" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
     </row>
-    <row r="351" spans="1:2" ht="12.75" customHeight="1">
+    <row r="351" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
     </row>
-    <row r="352" spans="1:2" ht="12.75" customHeight="1">
+    <row r="352" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
     </row>
-    <row r="353" spans="1:2" ht="12.75" customHeight="1">
+    <row r="353" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
     </row>
-    <row r="354" spans="1:2" ht="12.75" customHeight="1">
+    <row r="354" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
     </row>
-    <row r="355" spans="1:2" ht="12.75" customHeight="1">
+    <row r="355" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
     </row>
-    <row r="356" spans="1:2" ht="12.75" customHeight="1">
+    <row r="356" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
     </row>
-    <row r="357" spans="1:2" ht="12.75" customHeight="1">
+    <row r="357" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
     </row>
-    <row r="358" spans="1:2" ht="12.75" customHeight="1">
+    <row r="358" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="359" spans="1:2" ht="12.75" customHeight="1">
+    <row r="359" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
     </row>
-    <row r="360" spans="1:2" ht="12.75" customHeight="1">
+    <row r="360" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
     </row>
-    <row r="361" spans="1:2" ht="12.75" customHeight="1">
+    <row r="361" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
     </row>
-    <row r="362" spans="1:2" ht="12.75" customHeight="1">
+    <row r="362" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
     </row>
-    <row r="363" spans="1:2" ht="12.75" customHeight="1">
+    <row r="363" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
     </row>
-    <row r="364" spans="1:2" ht="12.75" customHeight="1">
+    <row r="364" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
     </row>
-    <row r="365" spans="1:2" ht="12.75" customHeight="1">
+    <row r="365" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="1:2" ht="12.75" customHeight="1">
+    <row r="366" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
     </row>
-    <row r="367" spans="1:2" ht="12.75" customHeight="1">
+    <row r="367" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
     </row>
-    <row r="368" spans="1:2" ht="12.75" customHeight="1">
+    <row r="368" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
     </row>
-    <row r="369" spans="1:2" ht="12.75" customHeight="1">
+    <row r="369" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
     </row>
-    <row r="370" spans="1:2" ht="12.75" customHeight="1">
+    <row r="370" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
     </row>
-    <row r="371" spans="1:2" ht="12.75" customHeight="1">
+    <row r="371" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
     </row>
-    <row r="372" spans="1:2" ht="12.75" customHeight="1">
+    <row r="372" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="373" spans="1:2" ht="12.75" customHeight="1">
+    <row r="373" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
     </row>
-    <row r="374" spans="1:2" ht="12.75" customHeight="1">
+    <row r="374" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
     </row>
-    <row r="375" spans="1:2" ht="12.75" customHeight="1">
+    <row r="375" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
     </row>
-    <row r="376" spans="1:2" ht="12.75" customHeight="1">
+    <row r="376" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
     </row>
-    <row r="377" spans="1:2" ht="12.75" customHeight="1">
+    <row r="377" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
     </row>
-    <row r="378" spans="1:2" ht="12.75" customHeight="1">
+    <row r="378" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
     </row>
-    <row r="379" spans="1:2" ht="12.75" customHeight="1">
+    <row r="379" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="380" spans="1:2" ht="12.75" customHeight="1">
+    <row r="380" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
     </row>
-    <row r="381" spans="1:2" ht="12.75" customHeight="1">
+    <row r="381" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
     </row>
-    <row r="382" spans="1:2" ht="12.75" customHeight="1">
+    <row r="382" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
     </row>
-    <row r="383" spans="1:2" ht="12.75" customHeight="1">
+    <row r="383" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
     </row>
-    <row r="384" spans="1:2" ht="12.75" customHeight="1">
+    <row r="384" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
     </row>
-    <row r="385" spans="1:2" ht="12.75" customHeight="1">
+    <row r="385" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="12.75" customHeight="1">
+    <row r="386" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
     </row>
-    <row r="387" spans="1:2" ht="12.75" customHeight="1">
+    <row r="387" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
     </row>
-    <row r="388" spans="1:2" ht="12.75" customHeight="1">
+    <row r="388" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="389" spans="1:2" ht="12.75" customHeight="1">
+    <row r="389" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
     </row>
-    <row r="390" spans="1:2" ht="12.75" customHeight="1">
+    <row r="390" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
     </row>
-    <row r="391" spans="1:2" ht="12.75" customHeight="1">
+    <row r="391" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
     </row>
-    <row r="392" spans="1:2" ht="12.75" customHeight="1">
+    <row r="392" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
     </row>
-    <row r="393" spans="1:2" ht="12.75" customHeight="1">
+    <row r="393" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
     </row>
-    <row r="394" spans="1:2" ht="12.75" customHeight="1">
+    <row r="394" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
     </row>
-    <row r="395" spans="1:2" ht="12.75" customHeight="1">
+    <row r="395" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="396" spans="1:2" ht="12.75" customHeight="1">
+    <row r="396" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
     </row>
-    <row r="397" spans="1:2" ht="12.75" customHeight="1">
+    <row r="397" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
     </row>
-    <row r="398" spans="1:2" ht="12.75" customHeight="1">
+    <row r="398" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
     </row>
-    <row r="399" spans="1:2" ht="12.75" customHeight="1">
+    <row r="399" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
     </row>
-    <row r="400" spans="1:2" ht="12.75" customHeight="1">
+    <row r="400" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
     </row>
-    <row r="401" spans="1:2" ht="12.75" customHeight="1">
+    <row r="401" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
     </row>
-    <row r="402" spans="1:2" ht="12.75" customHeight="1">
+    <row r="402" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
     </row>
-    <row r="403" spans="1:2" ht="12.75" customHeight="1">
+    <row r="403" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
     </row>
-    <row r="404" spans="1:2" ht="12.75" customHeight="1">
+    <row r="404" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="405" spans="1:2" ht="12.75" customHeight="1">
+    <row r="405" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="2"/>
     </row>
-    <row r="406" spans="1:2" ht="12.75" customHeight="1">
+    <row r="406" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="2"/>
     </row>
-    <row r="407" spans="1:2" ht="12.75" customHeight="1">
+    <row r="407" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="2"/>
     </row>
-    <row r="408" spans="1:2" ht="12.75" customHeight="1">
+    <row r="408" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="2"/>
     </row>
-    <row r="409" spans="1:2" ht="12.75" customHeight="1">
+    <row r="409" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="2"/>
     </row>
-    <row r="410" spans="1:2" ht="12.75" customHeight="1">
+    <row r="410" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="2"/>
     </row>
-    <row r="411" spans="1:2" ht="12.75" customHeight="1">
+    <row r="411" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="412" spans="1:2" ht="12.75" customHeight="1">
+    <row r="412" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="2"/>
     </row>
-    <row r="413" spans="1:2" ht="12.75" customHeight="1">
+    <row r="413" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="2"/>
     </row>
-    <row r="414" spans="1:2" ht="12.75" customHeight="1">
+    <row r="414" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
     </row>
-    <row r="415" spans="1:2" ht="12.75" customHeight="1">
+    <row r="415" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
     </row>
-    <row r="416" spans="1:2" ht="12.75" customHeight="1">
+    <row r="416" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
     </row>
-    <row r="417" spans="1:2" ht="12.75" customHeight="1">
+    <row r="417" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
     </row>
-    <row r="418" spans="1:2" ht="12.75" customHeight="1">
+    <row r="418" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="419" spans="1:2" ht="12.75" customHeight="1">
+    <row r="419" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
     </row>
-    <row r="420" spans="1:2" ht="12.75" customHeight="1">
+    <row r="420" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="2"/>
     </row>
-    <row r="421" spans="1:2" ht="12.75" customHeight="1">
+    <row r="421" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="2"/>
     </row>
-    <row r="422" spans="1:2" ht="12.75" customHeight="1">
+    <row r="422" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
     </row>
-    <row r="423" spans="1:2" ht="12.75" customHeight="1">
+    <row r="423" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
     </row>
-    <row r="424" spans="1:2" ht="12.75" customHeight="1">
+    <row r="424" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="2"/>
     </row>
-    <row r="425" spans="1:2" ht="12.75" customHeight="1">
+    <row r="425" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="426" spans="1:2" ht="12.75" customHeight="1">
+    <row r="426" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="2"/>
     </row>
-    <row r="427" spans="1:2" ht="12.75" customHeight="1">
+    <row r="427" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
     </row>
-    <row r="428" spans="1:2" ht="12.75" customHeight="1">
+    <row r="428" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="2"/>
     </row>
-    <row r="429" spans="1:2" ht="12.75" customHeight="1">
+    <row r="429" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
     </row>
-    <row r="430" spans="1:2" ht="12.75" customHeight="1">
+    <row r="430" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
     </row>
-    <row r="431" spans="1:2" ht="12.75" customHeight="1">
+    <row r="431" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
     </row>
-    <row r="432" spans="1:2" ht="12.75" customHeight="1">
+    <row r="432" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
     </row>
-    <row r="433" spans="1:2" ht="12.75" customHeight="1">
+    <row r="433" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
     </row>
-    <row r="434" spans="1:2" ht="12.75" customHeight="1">
+    <row r="434" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="435" spans="1:2" ht="12.75" customHeight="1">
+    <row r="435" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
     </row>
-    <row r="436" spans="1:2" ht="12.75" customHeight="1">
+    <row r="436" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
     </row>
-    <row r="437" spans="1:2" ht="12.75" customHeight="1">
+    <row r="437" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
     </row>
-    <row r="438" spans="1:2" ht="12.75" customHeight="1">
+    <row r="438" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
     </row>
-    <row r="439" spans="1:2" ht="12.75" customHeight="1">
+    <row r="439" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
     </row>
-    <row r="440" spans="1:2" ht="12.75" customHeight="1">
+    <row r="440" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="2"/>
     </row>
-    <row r="441" spans="1:2" ht="12.75" customHeight="1">
+    <row r="441" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="442" spans="1:2" ht="12.75" customHeight="1">
+    <row r="442" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="2"/>
     </row>
-    <row r="443" spans="1:2" ht="12.75" customHeight="1">
+    <row r="443" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
     </row>
-    <row r="444" spans="1:2" ht="12.75" customHeight="1">
+    <row r="444" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="2"/>
     </row>
-    <row r="445" spans="1:2" ht="12.75" customHeight="1">
+    <row r="445" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="2"/>
     </row>
-    <row r="446" spans="1:2" ht="12.75" customHeight="1">
+    <row r="446" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
     </row>
-    <row r="447" spans="1:2" ht="12.75" customHeight="1">
+    <row r="447" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="12.75" customHeight="1">
+    <row r="448" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="2"/>
     </row>
-    <row r="449" spans="1:2" ht="12.75" customHeight="1">
+    <row r="449" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
     </row>
-    <row r="450" spans="1:2" ht="12.75" customHeight="1">
+    <row r="450" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="451" spans="1:2" ht="12.75" customHeight="1">
+    <row r="451" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
     </row>
-    <row r="452" spans="1:2" ht="12.75" customHeight="1">
+    <row r="452" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="2"/>
     </row>
-    <row r="453" spans="1:2" ht="12.75" customHeight="1">
+    <row r="453" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="2"/>
     </row>
-    <row r="454" spans="1:2" ht="12.75" customHeight="1">
+    <row r="454" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
     </row>
-    <row r="455" spans="1:2" ht="12.75" customHeight="1">
+    <row r="455" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
     </row>
-    <row r="456" spans="1:2" ht="12.75" customHeight="1">
+    <row r="456" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="2"/>
     </row>
-    <row r="457" spans="1:2" ht="12.75" customHeight="1">
+    <row r="457" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="458" spans="1:2" ht="12.75" customHeight="1">
+    <row r="458" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
     </row>
-    <row r="459" spans="1:2" ht="12.75" customHeight="1">
+    <row r="459" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
     </row>
-    <row r="460" spans="1:2" ht="12.75" customHeight="1">
+    <row r="460" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="2"/>
     </row>
-    <row r="461" spans="1:2" ht="12.75" customHeight="1">
+    <row r="461" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="2"/>
     </row>
-    <row r="462" spans="1:2" ht="12.75" customHeight="1">
+    <row r="462" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="2"/>
     </row>
-    <row r="463" spans="1:2" ht="12.75" customHeight="1">
+    <row r="463" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="2"/>
     </row>
-    <row r="464" spans="1:2" ht="12.75" customHeight="1">
+    <row r="464" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="465" spans="1:2" ht="12.75" customHeight="1">
+    <row r="465" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="2"/>
     </row>
-    <row r="466" spans="1:2" ht="12.75" customHeight="1">
+    <row r="466" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="2"/>
     </row>
-    <row r="467" spans="1:2" ht="12.75" customHeight="1">
+    <row r="467" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
     </row>
-    <row r="468" spans="1:2" ht="12.75" customHeight="1">
+    <row r="468" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="2"/>
     </row>
-    <row r="469" spans="1:2" ht="12.75" customHeight="1">
+    <row r="469" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="2"/>
     </row>
-    <row r="470" spans="1:2" ht="12.75" customHeight="1">
+    <row r="470" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="471" spans="1:2" ht="12.75" customHeight="1">
+    <row r="471" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
     </row>
-    <row r="472" spans="1:2" ht="12.75" customHeight="1">
+    <row r="472" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="2"/>
     </row>
-    <row r="473" spans="1:2" ht="12.75" customHeight="1">
+    <row r="473" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
     </row>
-    <row r="474" spans="1:2" ht="12.75" customHeight="1">
+    <row r="474" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="2"/>
     </row>
-    <row r="475" spans="1:2" ht="12.75" customHeight="1">
+    <row r="475" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
     </row>
-    <row r="476" spans="1:2" ht="12.75" customHeight="1">
+    <row r="476" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="2"/>
     </row>
-    <row r="477" spans="1:2" ht="12.75" customHeight="1">
+    <row r="477" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="2"/>
     </row>
-    <row r="478" spans="1:2" ht="12.75" customHeight="1">
+    <row r="478" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="2"/>
     </row>
-    <row r="479" spans="1:2" ht="12.75" customHeight="1">
+    <row r="479" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="2"/>
     </row>
-    <row r="480" spans="1:2" ht="12.75" customHeight="1">
+    <row r="480" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="481" spans="1:2" ht="12.75" customHeight="1">
+    <row r="481" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="2"/>
     </row>
-    <row r="482" spans="1:2" ht="12.75" customHeight="1">
+    <row r="482" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="2"/>
     </row>
-    <row r="483" spans="1:2" ht="12.75" customHeight="1">
+    <row r="483" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
     </row>
-    <row r="484" spans="1:2" ht="12.75" customHeight="1">
+    <row r="484" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="2"/>
     </row>
-    <row r="485" spans="1:2" ht="12.75" customHeight="1">
+    <row r="485" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
     </row>
-    <row r="486" spans="1:2" ht="12.75" customHeight="1">
+    <row r="486" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="487" spans="1:2" ht="12.75" customHeight="1">
+    <row r="487" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="2"/>
     </row>
-    <row r="488" spans="1:2" ht="12.75" customHeight="1">
+    <row r="488" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
     </row>
-    <row r="489" spans="1:2" ht="12.75" customHeight="1">
+    <row r="489" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
     </row>
-    <row r="490" spans="1:2" ht="12.75" customHeight="1">
+    <row r="490" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
     </row>
-    <row r="491" spans="1:2" ht="12.75" customHeight="1">
+    <row r="491" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="492" spans="1:2" ht="12.75" customHeight="1">
+    <row r="492" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="2"/>
     </row>
-    <row r="493" spans="1:2" ht="12.75" customHeight="1">
+    <row r="493" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="2"/>
     </row>
-    <row r="494" spans="1:2" ht="12.75" customHeight="1">
+    <row r="494" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="2"/>
     </row>
-    <row r="495" spans="1:2" ht="12.75" customHeight="1">
+    <row r="495" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="2"/>
     </row>
-    <row r="496" spans="1:2" ht="12.75" customHeight="1">
+    <row r="496" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="497" spans="1:2" ht="12.75" customHeight="1">
+    <row r="497" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
     </row>
-    <row r="498" spans="1:2" ht="12.75" customHeight="1">
+    <row r="498" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
     </row>
-    <row r="499" spans="1:2" ht="12.75" customHeight="1">
+    <row r="499" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
     </row>
-    <row r="500" spans="1:2" ht="12.75" customHeight="1">
+    <row r="500" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
     </row>
-    <row r="501" spans="1:2" ht="12.75" customHeight="1">
+    <row r="501" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
     </row>
-    <row r="502" spans="1:2" ht="12.75" customHeight="1">
+    <row r="502" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="503" spans="1:2" ht="12.75" customHeight="1">
+    <row r="503" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
     </row>
-    <row r="504" spans="1:2" ht="12.75" customHeight="1">
+    <row r="504" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="2"/>
     </row>
-    <row r="505" spans="1:2" ht="12.75" customHeight="1">
+    <row r="505" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
     </row>
-    <row r="506" spans="1:2" ht="12.75" customHeight="1">
+    <row r="506" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="2"/>
     </row>
-    <row r="507" spans="1:2" ht="12.75" customHeight="1">
+    <row r="507" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="2"/>
     </row>
-    <row r="508" spans="1:2" ht="12.75" customHeight="1">
+    <row r="508" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="2"/>
     </row>
-    <row r="509" spans="1:2" ht="12.75" customHeight="1">
+    <row r="509" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="510" spans="1:2" ht="12.75" customHeight="1">
+    <row r="510" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="2"/>
     </row>
-    <row r="511" spans="1:2" ht="12.75" customHeight="1">
+    <row r="511" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="2"/>
     </row>
-    <row r="512" spans="1:2" ht="12.75" customHeight="1">
+    <row r="512" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="2"/>
     </row>
-    <row r="513" spans="1:2" ht="12.75" customHeight="1">
+    <row r="513" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="2"/>
     </row>
-    <row r="514" spans="1:2" ht="12.75" customHeight="1">
+    <row r="514" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="2"/>
     </row>
-    <row r="515" spans="1:2" ht="12.75" customHeight="1">
+    <row r="515" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="2"/>
     </row>
-    <row r="516" spans="1:2" ht="12.75" customHeight="1">
+    <row r="516" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="517" spans="1:2" ht="12.75" customHeight="1">
+    <row r="517" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="2"/>
     </row>
-    <row r="518" spans="1:2" ht="12.75" customHeight="1">
+    <row r="518" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="2"/>
     </row>
-    <row r="519" spans="1:2" ht="12.75" customHeight="1">
+    <row r="519" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="2"/>
     </row>
-    <row r="520" spans="1:2" ht="12.75" customHeight="1">
+    <row r="520" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="2"/>
     </row>
-    <row r="521" spans="1:2" ht="12.75" customHeight="1">
+    <row r="521" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
     </row>
-    <row r="522" spans="1:2" ht="12.75" customHeight="1">
+    <row r="522" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="2"/>
     </row>
-    <row r="523" spans="1:2" ht="12.75" customHeight="1">
+    <row r="523" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="2"/>
     </row>
-    <row r="524" spans="1:2" ht="12.75" customHeight="1">
+    <row r="524" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="2"/>
     </row>
-    <row r="525" spans="1:2" ht="12.75" customHeight="1">
+    <row r="525" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="526" spans="1:2" ht="12.75" customHeight="1">
+    <row r="526" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="2"/>
     </row>
-    <row r="527" spans="1:2" ht="12.75" customHeight="1">
+    <row r="527" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="2"/>
     </row>
-    <row r="528" spans="1:2" ht="12.75" customHeight="1">
+    <row r="528" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="2"/>
     </row>
-    <row r="529" spans="1:2" ht="12.75" customHeight="1">
+    <row r="529" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="2"/>
     </row>
-    <row r="530" spans="1:2" ht="12.75" customHeight="1">
+    <row r="530" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="2"/>
     </row>
-    <row r="531" spans="1:2" ht="12.75" customHeight="1">
+    <row r="531" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="2"/>
     </row>
-    <row r="532" spans="1:2" ht="12.75" customHeight="1">
+    <row r="532" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="533" spans="1:2" ht="12.75" customHeight="1">
+    <row r="533" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="2"/>
     </row>
-    <row r="534" spans="1:2" ht="12.75" customHeight="1">
+    <row r="534" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="2"/>
     </row>
-    <row r="535" spans="1:2" ht="12.75" customHeight="1">
+    <row r="535" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="2"/>
     </row>
-    <row r="536" spans="1:2" ht="12.75" customHeight="1">
+    <row r="536" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="2"/>
     </row>
-    <row r="537" spans="1:2" ht="12.75" customHeight="1">
+    <row r="537" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
     </row>
-    <row r="538" spans="1:2" ht="12.75" customHeight="1">
+    <row r="538" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="2"/>
     </row>
-    <row r="539" spans="1:2" ht="12.75" customHeight="1">
+    <row r="539" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="2"/>
     </row>
-    <row r="540" spans="1:2" ht="12.75" customHeight="1">
+    <row r="540" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="2"/>
     </row>
-    <row r="541" spans="1:2" ht="12.75" customHeight="1">
+    <row r="541" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="542" spans="1:2" ht="12.75" customHeight="1">
+    <row r="542" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="2"/>
     </row>
-    <row r="543" spans="1:2" ht="12.75" customHeight="1">
+    <row r="543" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="2"/>
     </row>
-    <row r="544" spans="1:2" ht="12.75" customHeight="1">
+    <row r="544" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="2"/>
     </row>
-    <row r="545" spans="1:2" ht="12.75" customHeight="1">
+    <row r="545" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="2"/>
     </row>
-    <row r="546" spans="1:2" ht="12.75" customHeight="1">
+    <row r="546" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="2"/>
     </row>
-    <row r="547" spans="1:2" ht="12.75" customHeight="1">
+    <row r="547" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="2"/>
     </row>
-    <row r="548" spans="1:2" ht="12.75" customHeight="1">
+    <row r="548" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="549" spans="1:2" ht="12.75" customHeight="1">
+    <row r="549" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="2"/>
     </row>
-    <row r="550" spans="1:2" ht="12.75" customHeight="1">
+    <row r="550" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
     </row>
-    <row r="551" spans="1:2" ht="12.75" customHeight="1">
+    <row r="551" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="2"/>
     </row>
-    <row r="552" spans="1:2" ht="12.75" customHeight="1">
+    <row r="552" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="2"/>
     </row>
-    <row r="553" spans="1:2" ht="12.75" customHeight="1">
+    <row r="553" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="2"/>
     </row>
-    <row r="554" spans="1:2" ht="12.75" customHeight="1">
+    <row r="554" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="2"/>
     </row>
-    <row r="555" spans="1:2" ht="12.75" customHeight="1">
+    <row r="555" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="556" spans="1:2" ht="12.75" customHeight="1">
+    <row r="556" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="2"/>
     </row>
-    <row r="557" spans="1:2" ht="12.75" customHeight="1">
+    <row r="557" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="2"/>
     </row>
-    <row r="558" spans="1:2" ht="12.75" customHeight="1">
+    <row r="558" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="2"/>
     </row>
-    <row r="559" spans="1:2" ht="12.75" customHeight="1">
+    <row r="559" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="2"/>
     </row>
-    <row r="560" spans="1:2" ht="12.75" customHeight="1">
+    <row r="560" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="2"/>
     </row>
-    <row r="561" spans="1:2" ht="12.75" customHeight="1">
+    <row r="561" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="562" spans="1:2" ht="12.75" customHeight="1">
+    <row r="562" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="2"/>
     </row>
-    <row r="563" spans="1:2" ht="12.75" customHeight="1">
+    <row r="563" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="2"/>
     </row>
-    <row r="564" spans="1:2" ht="12.75" customHeight="1">
+    <row r="564" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="2"/>
     </row>
-    <row r="565" spans="1:2" ht="12.75" customHeight="1">
+    <row r="565" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="2"/>
     </row>
-    <row r="566" spans="1:2" ht="12.75" customHeight="1">
+    <row r="566" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="12.75" customHeight="1">
+    <row r="567" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="2"/>
     </row>
-    <row r="568" spans="1:2" ht="12.75" customHeight="1">
+    <row r="568" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="2"/>
     </row>
-    <row r="569" spans="1:2" ht="12.75" customHeight="1">
+    <row r="569" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="2"/>
     </row>
-    <row r="570" spans="1:2" ht="12.75" customHeight="1">
+    <row r="570" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="2"/>
     </row>
-    <row r="571" spans="1:2" ht="12.75" customHeight="1">
+    <row r="571" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="572" spans="1:2" ht="12.75" customHeight="1">
+    <row r="572" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="573" spans="1:2" ht="12.75" customHeight="1">
+    <row r="573" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="2"/>
     </row>
-    <row r="574" spans="1:2" ht="12.75" customHeight="1">
+    <row r="574" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="2"/>
     </row>
-    <row r="575" spans="1:2" ht="12.75" customHeight="1">
+    <row r="575" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="2"/>
     </row>
-    <row r="576" spans="1:2" ht="12.75" customHeight="1">
+    <row r="576" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="2"/>
     </row>
-    <row r="577" spans="1:2" ht="12.75" customHeight="1">
+    <row r="577" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="2"/>
     </row>
-    <row r="578" spans="1:2" ht="12.75" customHeight="1">
+    <row r="578" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="2"/>
     </row>
-    <row r="579" spans="1:2" ht="12.75" customHeight="1">
+    <row r="579" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="2"/>
     </row>
-    <row r="580" spans="1:2" ht="12.75" customHeight="1">
+    <row r="580" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="2"/>
     </row>
-    <row r="581" spans="1:2" ht="12.75" customHeight="1">
+    <row r="581" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="2"/>
     </row>
-    <row r="582" spans="1:2" ht="12.75" customHeight="1">
+    <row r="582" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="2"/>
     </row>
-    <row r="583" spans="1:2" ht="12.75" customHeight="1">
+    <row r="583" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="2"/>
     </row>
-    <row r="584" spans="1:2" ht="12.75" customHeight="1">
+    <row r="584" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="2"/>
     </row>
-    <row r="585" spans="1:2" ht="12.75" customHeight="1">
+    <row r="585" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="2"/>
     </row>
-    <row r="586" spans="1:2" ht="12.75" customHeight="1">
+    <row r="586" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="2"/>
     </row>
-    <row r="587" spans="1:2" ht="12.75" customHeight="1">
+    <row r="587" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="588" spans="1:2" ht="12.75" customHeight="1">
+    <row r="588" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="2"/>
     </row>
-    <row r="589" spans="1:2" ht="12.75" customHeight="1">
+    <row r="589" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="2"/>
     </row>
-    <row r="590" spans="1:2" ht="12.75" customHeight="1">
+    <row r="590" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="2"/>
     </row>
-    <row r="591" spans="1:2" ht="12.75" customHeight="1">
+    <row r="591" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="2"/>
     </row>
-    <row r="592" spans="1:2" ht="12.75" customHeight="1">
+    <row r="592" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="2"/>
     </row>
-    <row r="593" spans="1:2" ht="12.75" customHeight="1">
+    <row r="593" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="2"/>
     </row>
-    <row r="594" spans="1:2" ht="12.75" customHeight="1">
+    <row r="594" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="2"/>
     </row>
-    <row r="595" spans="1:2" ht="12.75" customHeight="1">
+    <row r="595" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="2"/>
     </row>
-    <row r="596" spans="1:2" ht="12.75" customHeight="1">
+    <row r="596" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="2"/>
     </row>
-    <row r="597" spans="1:2" ht="12.75" customHeight="1">
+    <row r="597" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="2"/>
     </row>
-    <row r="598" spans="1:2" ht="12.75" customHeight="1">
+    <row r="598" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="2"/>
     </row>
-    <row r="599" spans="1:2" ht="12.75" customHeight="1">
+    <row r="599" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="2"/>
     </row>
-    <row r="600" spans="1:2" ht="12.75" customHeight="1">
+    <row r="600" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="601" spans="1:2" ht="12.75" customHeight="1">
+    <row r="601" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="2"/>
     </row>
-    <row r="602" spans="1:2" ht="12.75" customHeight="1">
+    <row r="602" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="2"/>
     </row>
-    <row r="603" spans="1:2" ht="12.75" customHeight="1">
+    <row r="603" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="2"/>
     </row>
-    <row r="604" spans="1:2" ht="12.75" customHeight="1">
+    <row r="604" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="2"/>
     </row>
-    <row r="605" spans="1:2" ht="12.75" customHeight="1">
+    <row r="605" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="2"/>
     </row>
-    <row r="606" spans="1:2" ht="12.75" customHeight="1">
+    <row r="606" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="2"/>
     </row>
-    <row r="607" spans="1:2" ht="12.75" customHeight="1">
+    <row r="607" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="2"/>
     </row>
-    <row r="608" spans="1:2" ht="12.75" customHeight="1">
+    <row r="608" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="2"/>
     </row>
-    <row r="609" spans="1:2" ht="12.75" customHeight="1">
+    <row r="609" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="2"/>
     </row>
-    <row r="610" spans="1:2" ht="12.75" customHeight="1">
+    <row r="610" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="2"/>
     </row>
-    <row r="611" spans="1:2" ht="12.75" customHeight="1">
+    <row r="611" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="612" spans="1:2" ht="12.75" customHeight="1">
+    <row r="612" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="2"/>
     </row>
-    <row r="613" spans="1:2" ht="12.75" customHeight="1">
+    <row r="613" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="2"/>
     </row>
-    <row r="614" spans="1:2" ht="12.75" customHeight="1">
+    <row r="614" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="2"/>
     </row>
-    <row r="615" spans="1:2" ht="12.75" customHeight="1">
+    <row r="615" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="2"/>
     </row>
-    <row r="616" spans="1:2" ht="12.75" customHeight="1">
+    <row r="616" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="2"/>
     </row>
-    <row r="617" spans="1:2" ht="12.75" customHeight="1">
+    <row r="617" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="2"/>
     </row>
-    <row r="618" spans="1:2" ht="12.75" customHeight="1">
+    <row r="618" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="2"/>
     </row>
-    <row r="619" spans="1:2" ht="12.75" customHeight="1">
+    <row r="619" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="2"/>
     </row>
-    <row r="620" spans="1:2" ht="12.75" customHeight="1">
+    <row r="620" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="2"/>
     </row>
-    <row r="621" spans="1:2" ht="12.75" customHeight="1">
+    <row r="621" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="2"/>
     </row>
-    <row r="622" spans="1:2" ht="12.75" customHeight="1">
+    <row r="622" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="2"/>
     </row>
-    <row r="623" spans="1:2" ht="12.75" customHeight="1">
+    <row r="623" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="2"/>
     </row>
-    <row r="624" spans="1:2" ht="12.75" customHeight="1">
+    <row r="624" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="2"/>
     </row>
-    <row r="625" spans="1:2" ht="12.75" customHeight="1">
+    <row r="625" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="2"/>
     </row>
-    <row r="626" spans="1:2" ht="12.75" customHeight="1">
+    <row r="626" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="2"/>
     </row>
-    <row r="627" spans="1:2" ht="12.75" customHeight="1">
+    <row r="627" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="2"/>
     </row>
-    <row r="628" spans="1:2" ht="12.75" customHeight="1">
+    <row r="628" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="2"/>
     </row>
-    <row r="629" spans="1:2" ht="12.75" customHeight="1">
+    <row r="629" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="2"/>
     </row>
-    <row r="630" spans="1:2" ht="12.75" customHeight="1">
+    <row r="630" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="2"/>
     </row>
-    <row r="631" spans="1:2" ht="12.75" customHeight="1">
+    <row r="631" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="2"/>
     </row>
-    <row r="632" spans="1:2" ht="12.75" customHeight="1">
+    <row r="632" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="2"/>
     </row>
-    <row r="633" spans="1:2" ht="12.75" customHeight="1">
+    <row r="633" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="2"/>
     </row>
-    <row r="634" spans="1:2" ht="12.75" customHeight="1">
+    <row r="634" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="2"/>
     </row>
-    <row r="635" spans="1:2" ht="12.75" customHeight="1">
+    <row r="635" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="2"/>
     </row>
-    <row r="636" spans="1:2" ht="12.75" customHeight="1">
+    <row r="636" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="2"/>
     </row>
-    <row r="637" spans="1:2" ht="12.75" customHeight="1">
+    <row r="637" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="2"/>
     </row>
-    <row r="638" spans="1:2" ht="12.75" customHeight="1">
+    <row r="638" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="2"/>
     </row>
-    <row r="639" spans="1:2" ht="12.75" customHeight="1">
+    <row r="639" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="2"/>
     </row>
-    <row r="640" spans="1:2" ht="12.75" customHeight="1">
+    <row r="640" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="2"/>
     </row>
-    <row r="641" spans="1:2" ht="12.75" customHeight="1">
+    <row r="641" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="2"/>
     </row>
-    <row r="642" spans="1:2" ht="12.75" customHeight="1">
+    <row r="642" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="2"/>
     </row>
-    <row r="643" spans="1:2" ht="12.75" customHeight="1">
+    <row r="643" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="2"/>
     </row>
-    <row r="644" spans="1:2" ht="12.75" customHeight="1">
+    <row r="644" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="2"/>
     </row>
-    <row r="645" spans="1:2" ht="12.75" customHeight="1">
+    <row r="645" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="2"/>
     </row>
-    <row r="646" spans="1:2" ht="12.75" customHeight="1">
+    <row r="646" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="2"/>
     </row>
-    <row r="647" spans="1:2" ht="12.75" customHeight="1">
+    <row r="647" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="2"/>
     </row>
-    <row r="648" spans="1:2" ht="12.75" customHeight="1">
+    <row r="648" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="2"/>
     </row>
-    <row r="649" spans="1:2" ht="12.75" customHeight="1">
+    <row r="649" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="2"/>
     </row>
-    <row r="650" spans="1:2" ht="12.75" customHeight="1">
+    <row r="650" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="2"/>
     </row>
-    <row r="651" spans="1:2" ht="12.75" customHeight="1">
+    <row r="651" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="2"/>
     </row>
-    <row r="652" spans="1:2" ht="12.75" customHeight="1">
+    <row r="652" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="2"/>
     </row>
-    <row r="653" spans="1:2" ht="12.75" customHeight="1">
+    <row r="653" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="2"/>
     </row>
-    <row r="654" spans="1:2" ht="12.75" customHeight="1">
+    <row r="654" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="2"/>
     </row>
-    <row r="655" spans="1:2" ht="12.75" customHeight="1">
+    <row r="655" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="2"/>
     </row>
-    <row r="656" spans="1:2" ht="12.75" customHeight="1">
+    <row r="656" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="2"/>
     </row>
-    <row r="657" spans="1:2" ht="12.75" customHeight="1">
+    <row r="657" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="2"/>
     </row>
-    <row r="658" spans="1:2" ht="12.75" customHeight="1">
+    <row r="658" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="2"/>
     </row>
-    <row r="659" spans="1:2" ht="12.75" customHeight="1">
+    <row r="659" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="2"/>
     </row>
-    <row r="660" spans="1:2" ht="12.75" customHeight="1">
+    <row r="660" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="2"/>
     </row>
-    <row r="661" spans="1:2" ht="12.75" customHeight="1">
+    <row r="661" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="2"/>
     </row>
-    <row r="662" spans="1:2" ht="12.75" customHeight="1">
+    <row r="662" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="2"/>
     </row>
-    <row r="663" spans="1:2" ht="12.75" customHeight="1">
+    <row r="663" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="2"/>
     </row>
-    <row r="664" spans="1:2" ht="12.75" customHeight="1">
+    <row r="664" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="2"/>
     </row>
-    <row r="665" spans="1:2" ht="12.75" customHeight="1">
+    <row r="665" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="2"/>
     </row>
-    <row r="666" spans="1:2" ht="12.75" customHeight="1">
+    <row r="666" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="2"/>
     </row>
-    <row r="667" spans="1:2" ht="12.75" customHeight="1">
+    <row r="667" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="2"/>
     </row>
-    <row r="668" spans="1:2" ht="12.75" customHeight="1">
+    <row r="668" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="2"/>
     </row>
-    <row r="669" spans="1:2" ht="12.75" customHeight="1">
+    <row r="669" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="2"/>
     </row>
-    <row r="670" spans="1:2" ht="12.75" customHeight="1">
+    <row r="670" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="2"/>
     </row>
-    <row r="671" spans="1:2" ht="12.75" customHeight="1">
+    <row r="671" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="2"/>
     </row>
-    <row r="672" spans="1:2" ht="12.75" customHeight="1">
+    <row r="672" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="2"/>
     </row>
-    <row r="673" spans="1:2" ht="12.75" customHeight="1">
+    <row r="673" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="2"/>
     </row>
-    <row r="674" spans="1:2" ht="12.75" customHeight="1">
+    <row r="674" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="2"/>
     </row>
-    <row r="675" spans="1:2" ht="12.75" customHeight="1">
+    <row r="675" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="2"/>
     </row>
-    <row r="676" spans="1:2" ht="12.75" customHeight="1">
+    <row r="676" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="2"/>
     </row>
-    <row r="677" spans="1:2" ht="12.75" customHeight="1">
+    <row r="677" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="2"/>
     </row>
-    <row r="678" spans="1:2" ht="12.75" customHeight="1">
+    <row r="678" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="2"/>
     </row>
-    <row r="679" spans="1:2" ht="12.75" customHeight="1">
+    <row r="679" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="2"/>
     </row>
-    <row r="680" spans="1:2" ht="12.75" customHeight="1">
+    <row r="680" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="2"/>
     </row>
-    <row r="681" spans="1:2" ht="12.75" customHeight="1">
+    <row r="681" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="2"/>
     </row>
-    <row r="682" spans="1:2" ht="12.75" customHeight="1">
+    <row r="682" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="2"/>
     </row>
-    <row r="683" spans="1:2" ht="12.75" customHeight="1">
+    <row r="683" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="2"/>
     </row>
-    <row r="684" spans="1:2" ht="12.75" customHeight="1">
+    <row r="684" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="2"/>
     </row>
-    <row r="685" spans="1:2" ht="12.75" customHeight="1">
+    <row r="685" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="2"/>
     </row>
-    <row r="686" spans="1:2" ht="12.75" customHeight="1">
+    <row r="686" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="2"/>
     </row>
-    <row r="687" spans="1:2" ht="12.75" customHeight="1">
+    <row r="687" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="2"/>
     </row>
-    <row r="688" spans="1:2" ht="12.75" customHeight="1">
+    <row r="688" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="2"/>
     </row>
-    <row r="689" spans="1:2" ht="12.75" customHeight="1">
+    <row r="689" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="2"/>
     </row>
-    <row r="690" spans="1:2" ht="12.75" customHeight="1">
+    <row r="690" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="2"/>
     </row>
-    <row r="691" spans="1:2" ht="12.75" customHeight="1">
+    <row r="691" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="2"/>
     </row>
-    <row r="692" spans="1:2" ht="12.75" customHeight="1">
+    <row r="692" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="2"/>
     </row>
-    <row r="693" spans="1:2" ht="12.75" customHeight="1">
+    <row r="693" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="2"/>
     </row>
-    <row r="694" spans="1:2" ht="12.75" customHeight="1">
+    <row r="694" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="2"/>
     </row>
-    <row r="695" spans="1:2" ht="12.75" customHeight="1">
+    <row r="695" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="2"/>
     </row>
-    <row r="696" spans="1:2" ht="12.75" customHeight="1">
+    <row r="696" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="2"/>
     </row>
-    <row r="697" spans="1:2" ht="12.75" customHeight="1">
+    <row r="697" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="2"/>
     </row>
-    <row r="698" spans="1:2" ht="12.75" customHeight="1">
+    <row r="698" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="2"/>
     </row>
-    <row r="699" spans="1:2" ht="12.75" customHeight="1">
+    <row r="699" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="2"/>
     </row>
-    <row r="700" spans="1:2" ht="12.75" customHeight="1">
+    <row r="700" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="2"/>
     </row>
-    <row r="701" spans="1:2" ht="12.75" customHeight="1">
+    <row r="701" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="2"/>
     </row>
-    <row r="702" spans="1:2" ht="12.75" customHeight="1">
+    <row r="702" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="2"/>
     </row>
-    <row r="703" spans="1:2" ht="12.75" customHeight="1">
+    <row r="703" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="2"/>
     </row>
-    <row r="704" spans="1:2" ht="12.75" customHeight="1">
+    <row r="704" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="2"/>
     </row>
-    <row r="705" spans="1:2" ht="12.75" customHeight="1">
+    <row r="705" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="2"/>
     </row>
-    <row r="706" spans="1:2" ht="12.75" customHeight="1">
+    <row r="706" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="2"/>
     </row>
-    <row r="707" spans="1:2" ht="12.75" customHeight="1">
+    <row r="707" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="2"/>
     </row>
-    <row r="708" spans="1:2" ht="12.75" customHeight="1">
+    <row r="708" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="2"/>
     </row>
-    <row r="709" spans="1:2" ht="12.75" customHeight="1">
+    <row r="709" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="2"/>
     </row>
-    <row r="710" spans="1:2" ht="12.75" customHeight="1">
+    <row r="710" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="2"/>
     </row>
-    <row r="711" spans="1:2" ht="12.75" customHeight="1">
+    <row r="711" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="2"/>
     </row>
-    <row r="712" spans="1:2" ht="12.75" customHeight="1">
+    <row r="712" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="2"/>
     </row>
-    <row r="713" spans="1:2" ht="12.75" customHeight="1">
+    <row r="713" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="2"/>
     </row>
-    <row r="714" spans="1:2" ht="12.75" customHeight="1">
+    <row r="714" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="2"/>
     </row>
-    <row r="715" spans="1:2" ht="12.75" customHeight="1">
+    <row r="715" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="2"/>
     </row>
-    <row r="716" spans="1:2" ht="12.75" customHeight="1">
+    <row r="716" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="2"/>
     </row>
-    <row r="717" spans="1:2" ht="12.75" customHeight="1">
+    <row r="717" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="2"/>
     </row>
-    <row r="718" spans="1:2" ht="12.75" customHeight="1">
+    <row r="718" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="2"/>
     </row>
-    <row r="719" spans="1:2" ht="12.75" customHeight="1">
+    <row r="719" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="2"/>
     </row>
-    <row r="720" spans="1:2" ht="12.75" customHeight="1">
+    <row r="720" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="2"/>
     </row>
-    <row r="721" spans="1:2" ht="12.75" customHeight="1">
+    <row r="721" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="2"/>
     </row>
-    <row r="722" spans="1:2" ht="12.75" customHeight="1">
+    <row r="722" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="2"/>
     </row>
-    <row r="723" spans="1:2" ht="12.75" customHeight="1">
+    <row r="723" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="2"/>
     </row>
-    <row r="724" spans="1:2" ht="12.75" customHeight="1">
+    <row r="724" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="2"/>
     </row>
-    <row r="725" spans="1:2" ht="12.75" customHeight="1">
+    <row r="725" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="2"/>
     </row>
-    <row r="726" spans="1:2" ht="12.75" customHeight="1">
+    <row r="726" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="2"/>
     </row>
-    <row r="727" spans="1:2" ht="12.75" customHeight="1">
+    <row r="727" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="2"/>
     </row>
-    <row r="728" spans="1:2" ht="12.75" customHeight="1">
+    <row r="728" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="2"/>
     </row>
-    <row r="729" spans="1:2" ht="12.75" customHeight="1">
+    <row r="729" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="2"/>
     </row>
-    <row r="730" spans="1:2" ht="12.75" customHeight="1">
+    <row r="730" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="2"/>
     </row>
-    <row r="731" spans="1:2" ht="12.75" customHeight="1">
+    <row r="731" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="2"/>
     </row>
-    <row r="732" spans="1:2" ht="12.75" customHeight="1">
+    <row r="732" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="2"/>
     </row>
-    <row r="733" spans="1:2" ht="12.75" customHeight="1">
+    <row r="733" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="2"/>
     </row>
-    <row r="734" spans="1:2" ht="12.75" customHeight="1">
+    <row r="734" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="2"/>
     </row>
-    <row r="735" spans="1:2" ht="12.75" customHeight="1">
+    <row r="735" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="2"/>
     </row>
-    <row r="736" spans="1:2" ht="12.75" customHeight="1">
+    <row r="736" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="2"/>
     </row>
-    <row r="737" spans="1:2" ht="12.75" customHeight="1">
+    <row r="737" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="2"/>
     </row>
-    <row r="738" spans="1:2" ht="12.75" customHeight="1">
+    <row r="738" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="2"/>
     </row>
-    <row r="739" spans="1:2" ht="12.75" customHeight="1">
+    <row r="739" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="2"/>
     </row>
-    <row r="740" spans="1:2" ht="12.75" customHeight="1">
+    <row r="740" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="2"/>
     </row>
-    <row r="741" spans="1:2" ht="12.75" customHeight="1">
+    <row r="741" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="2"/>
     </row>
-    <row r="742" spans="1:2" ht="12.75" customHeight="1">
+    <row r="742" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="2"/>
     </row>
-    <row r="743" spans="1:2" ht="12.75" customHeight="1">
+    <row r="743" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="2"/>
     </row>
-    <row r="744" spans="1:2" ht="12.75" customHeight="1">
+    <row r="744" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="2"/>
     </row>
-    <row r="745" spans="1:2" ht="12.75" customHeight="1">
+    <row r="745" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="2"/>
     </row>
-    <row r="746" spans="1:2" ht="12.75" customHeight="1">
+    <row r="746" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="2"/>
     </row>
-    <row r="747" spans="1:2" ht="12.75" customHeight="1">
+    <row r="747" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="2"/>
     </row>
-    <row r="748" spans="1:2" ht="12.75" customHeight="1">
+    <row r="748" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="2"/>
     </row>
-    <row r="749" spans="1:2" ht="12.75" customHeight="1">
+    <row r="749" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="2"/>
     </row>
-    <row r="750" spans="1:2" ht="12.75" customHeight="1">
+    <row r="750" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="2"/>
     </row>
-    <row r="751" spans="1:2" ht="12.75" customHeight="1">
+    <row r="751" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="2"/>
     </row>
-    <row r="752" spans="1:2" ht="12.75" customHeight="1">
+    <row r="752" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="2"/>
     </row>
-    <row r="753" spans="1:2" ht="12.75" customHeight="1">
+    <row r="753" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="2"/>
     </row>
-    <row r="754" spans="1:2" ht="12.75" customHeight="1">
+    <row r="754" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="2"/>
     </row>
-    <row r="755" spans="1:2" ht="12.75" customHeight="1">
+    <row r="755" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="2"/>
     </row>
-    <row r="756" spans="1:2" ht="12.75" customHeight="1">
+    <row r="756" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="2"/>
     </row>
-    <row r="757" spans="1:2" ht="12.75" customHeight="1">
+    <row r="757" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="2"/>
     </row>
-    <row r="758" spans="1:2" ht="12.75" customHeight="1">
+    <row r="758" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="2"/>
     </row>
-    <row r="759" spans="1:2" ht="12.75" customHeight="1">
+    <row r="759" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="2"/>
     </row>
-    <row r="760" spans="1:2" ht="12.75" customHeight="1">
+    <row r="760" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="2"/>
     </row>
-    <row r="761" spans="1:2" ht="12.75" customHeight="1">
+    <row r="761" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="2"/>
     </row>
-    <row r="762" spans="1:2" ht="12.75" customHeight="1">
+    <row r="762" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="2"/>
     </row>
-    <row r="763" spans="1:2" ht="12.75" customHeight="1">
+    <row r="763" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="2"/>
     </row>
-    <row r="764" spans="1:2" ht="12.75" customHeight="1">
+    <row r="764" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="2"/>
     </row>
-    <row r="765" spans="1:2" ht="12.75" customHeight="1">
+    <row r="765" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="2"/>
     </row>
-    <row r="766" spans="1:2" ht="12.75" customHeight="1">
+    <row r="766" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="2"/>
     </row>
-    <row r="767" spans="1:2" ht="12.75" customHeight="1">
+    <row r="767" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="2"/>
     </row>
-    <row r="768" spans="1:2" ht="12.75" customHeight="1">
+    <row r="768" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="2"/>
     </row>
-    <row r="769" spans="1:2" ht="12.75" customHeight="1">
+    <row r="769" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="2"/>
     </row>
-    <row r="770" spans="1:2" ht="12.75" customHeight="1">
+    <row r="770" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="2"/>
     </row>
-    <row r="771" spans="1:2" ht="12.75" customHeight="1">
+    <row r="771" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="2"/>
     </row>
-    <row r="772" spans="1:2" ht="12.75" customHeight="1">
+    <row r="772" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="2"/>
     </row>
-    <row r="773" spans="1:2" ht="12.75" customHeight="1">
+    <row r="773" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="2"/>
     </row>
-    <row r="774" spans="1:2" ht="12.75" customHeight="1">
+    <row r="774" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="2"/>
     </row>
-    <row r="775" spans="1:2" ht="12.75" customHeight="1">
+    <row r="775" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="2"/>
     </row>
-    <row r="776" spans="1:2" ht="12.75" customHeight="1">
+    <row r="776" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="2"/>
     </row>
-    <row r="777" spans="1:2" ht="12.75" customHeight="1">
+    <row r="777" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="2"/>
     </row>
-    <row r="778" spans="1:2" ht="12.75" customHeight="1">
+    <row r="778" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="2"/>
     </row>
-    <row r="779" spans="1:2" ht="12.75" customHeight="1">
+    <row r="779" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="2"/>
     </row>
-    <row r="780" spans="1:2" ht="12.75" customHeight="1">
+    <row r="780" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="2"/>
     </row>
-    <row r="781" spans="1:2" ht="12.75" customHeight="1">
+    <row r="781" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="2"/>
     </row>
-    <row r="782" spans="1:2" ht="12.75" customHeight="1">
+    <row r="782" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="2"/>
     </row>
-    <row r="783" spans="1:2" ht="12.75" customHeight="1">
+    <row r="783" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="2"/>
     </row>
-    <row r="784" spans="1:2" ht="12.75" customHeight="1">
+    <row r="784" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="2"/>
     </row>
-    <row r="785" spans="1:2" ht="12.75" customHeight="1">
+    <row r="785" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="2"/>
     </row>
-    <row r="786" spans="1:2" ht="12.75" customHeight="1">
+    <row r="786" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="2"/>
     </row>
-    <row r="787" spans="1:2" ht="12.75" customHeight="1">
+    <row r="787" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="2"/>
     </row>
-    <row r="788" spans="1:2" ht="12.75" customHeight="1">
+    <row r="788" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="2"/>
     </row>
-    <row r="789" spans="1:2" ht="12.75" customHeight="1">
+    <row r="789" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="2"/>
     </row>
-    <row r="790" spans="1:2" ht="12.75" customHeight="1">
+    <row r="790" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="2"/>
     </row>
-    <row r="791" spans="1:2" ht="12.75" customHeight="1">
+    <row r="791" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="2"/>
     </row>
-    <row r="792" spans="1:2" ht="12.75" customHeight="1">
+    <row r="792" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="2"/>
     </row>
-    <row r="793" spans="1:2" ht="12.75" customHeight="1">
+    <row r="793" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="2"/>
     </row>
-    <row r="794" spans="1:2" ht="12.75" customHeight="1">
+    <row r="794" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="2"/>
     </row>
-    <row r="795" spans="1:2" ht="12.75" customHeight="1">
+    <row r="795" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="2"/>
     </row>
-    <row r="796" spans="1:2" ht="12.75" customHeight="1">
+    <row r="796" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="2"/>
     </row>
-    <row r="797" spans="1:2" ht="12.75" customHeight="1">
+    <row r="797" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="2"/>
     </row>
-    <row r="798" spans="1:2" ht="12.75" customHeight="1">
+    <row r="798" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="2"/>
     </row>
-    <row r="799" spans="1:2" ht="12.75" customHeight="1">
+    <row r="799" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="2"/>
     </row>
-    <row r="800" spans="1:2" ht="12.75" customHeight="1">
+    <row r="800" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="2"/>
     </row>
-    <row r="801" spans="1:2" ht="12.75" customHeight="1">
+    <row r="801" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="2"/>
     </row>
-    <row r="802" spans="1:2" ht="12.75" customHeight="1">
+    <row r="802" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="2"/>
     </row>
-    <row r="803" spans="1:2" ht="12.75" customHeight="1">
+    <row r="803" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="2"/>
     </row>
-    <row r="804" spans="1:2" ht="12.75" customHeight="1">
+    <row r="804" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="2"/>
     </row>
-    <row r="805" spans="1:2" ht="12.75" customHeight="1">
+    <row r="805" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="2"/>
     </row>
-    <row r="806" spans="1:2" ht="12.75" customHeight="1">
+    <row r="806" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="2"/>
     </row>
-    <row r="807" spans="1:2" ht="12.75" customHeight="1">
+    <row r="807" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="2"/>
     </row>
-    <row r="808" spans="1:2" ht="12.75" customHeight="1">
+    <row r="808" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="2"/>
     </row>
-    <row r="809" spans="1:2" ht="12.75" customHeight="1">
+    <row r="809" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="2"/>
     </row>
-    <row r="810" spans="1:2" ht="12.75" customHeight="1">
+    <row r="810" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="2"/>
     </row>
-    <row r="811" spans="1:2" ht="12.75" customHeight="1">
+    <row r="811" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="2"/>
     </row>
-    <row r="812" spans="1:2" ht="12.75" customHeight="1">
+    <row r="812" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="2"/>
     </row>
-    <row r="813" spans="1:2" ht="12.75" customHeight="1">
+    <row r="813" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="2"/>
     </row>
-    <row r="814" spans="1:2" ht="12.75" customHeight="1">
+    <row r="814" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="2"/>
     </row>
-    <row r="815" spans="1:2" ht="12.75" customHeight="1">
+    <row r="815" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="2"/>
     </row>
-    <row r="816" spans="1:2" ht="12.75" customHeight="1">
+    <row r="816" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="2"/>
     </row>
-    <row r="817" spans="1:2" ht="12.75" customHeight="1">
+    <row r="817" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="2"/>
     </row>
-    <row r="818" spans="1:2" ht="12.75" customHeight="1">
+    <row r="818" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="2"/>
     </row>
-    <row r="819" spans="1:2" ht="12.75" customHeight="1">
+    <row r="819" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="2"/>
     </row>
-    <row r="820" spans="1:2" ht="12.75" customHeight="1">
+    <row r="820" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="2"/>
     </row>
-    <row r="821" spans="1:2" ht="12.75" customHeight="1">
+    <row r="821" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="2"/>
     </row>
-    <row r="822" spans="1:2" ht="12.75" customHeight="1">
+    <row r="822" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="2"/>
     </row>
-    <row r="823" spans="1:2" ht="12.75" customHeight="1">
+    <row r="823" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="2"/>
     </row>
-    <row r="824" spans="1:2" ht="12.75" customHeight="1">
+    <row r="824" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="2"/>
     </row>
-    <row r="825" spans="1:2" ht="12.75" customHeight="1">
+    <row r="825" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="2"/>
     </row>
-    <row r="826" spans="1:2" ht="12.75" customHeight="1">
+    <row r="826" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="2"/>
     </row>
-    <row r="827" spans="1:2" ht="12.75" customHeight="1">
+    <row r="827" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="2"/>
     </row>
-    <row r="828" spans="1:2" ht="12.75" customHeight="1">
+    <row r="828" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="2"/>
     </row>
-    <row r="829" spans="1:2" ht="12.75" customHeight="1">
+    <row r="829" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="2"/>
     </row>
-    <row r="830" spans="1:2" ht="12.75" customHeight="1">
+    <row r="830" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="2"/>
     </row>
-    <row r="831" spans="1:2" ht="12.75" customHeight="1">
+    <row r="831" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="2"/>
     </row>
-    <row r="832" spans="1:2" ht="12.75" customHeight="1">
+    <row r="832" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="2"/>
     </row>
-    <row r="833" spans="1:2" ht="12.75" customHeight="1">
+    <row r="833" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="2"/>
     </row>
-    <row r="834" spans="1:2" ht="12.75" customHeight="1">
+    <row r="834" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="2"/>
     </row>
-    <row r="835" spans="1:2" ht="12.75" customHeight="1">
+    <row r="835" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="2"/>
     </row>
-    <row r="836" spans="1:2" ht="12.75" customHeight="1">
+    <row r="836" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="2"/>
     </row>
-    <row r="837" spans="1:2" ht="12.75" customHeight="1">
+    <row r="837" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="2"/>
     </row>
-    <row r="838" spans="1:2" ht="12.75" customHeight="1">
+    <row r="838" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="2"/>
     </row>
-    <row r="839" spans="1:2" ht="12.75" customHeight="1">
+    <row r="839" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="2"/>
     </row>
-    <row r="840" spans="1:2" ht="12.75" customHeight="1">
+    <row r="840" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="2"/>
     </row>
-    <row r="841" spans="1:2" ht="12.75" customHeight="1">
+    <row r="841" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="2"/>
     </row>
-    <row r="842" spans="1:2" ht="12.75" customHeight="1">
+    <row r="842" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="2"/>
     </row>
-    <row r="843" spans="1:2" ht="12.75" customHeight="1">
+    <row r="843" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="2"/>
     </row>
-    <row r="844" spans="1:2" ht="12.75" customHeight="1">
+    <row r="844" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="2"/>
     </row>
-    <row r="845" spans="1:2" ht="12.75" customHeight="1">
+    <row r="845" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="2"/>
     </row>
-    <row r="846" spans="1:2" ht="12.75" customHeight="1">
+    <row r="846" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="2"/>
     </row>
-    <row r="847" spans="1:2" ht="12.75" customHeight="1">
+    <row r="847" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="2"/>
     </row>
-    <row r="848" spans="1:2" ht="12.75" customHeight="1">
+    <row r="848" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="2"/>
     </row>
-    <row r="849" spans="1:2" ht="12.75" customHeight="1">
+    <row r="849" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="2"/>
     </row>
-    <row r="850" spans="1:2" ht="12.75" customHeight="1">
+    <row r="850" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="2"/>
     </row>
-    <row r="851" spans="1:2" ht="12.75" customHeight="1">
+    <row r="851" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="2"/>
     </row>
-    <row r="852" spans="1:2" ht="12.75" customHeight="1">
+    <row r="852" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="2"/>
     </row>
-    <row r="853" spans="1:2" ht="12.75" customHeight="1">
+    <row r="853" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="2"/>
     </row>
-    <row r="854" spans="1:2" ht="12.75" customHeight="1">
+    <row r="854" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="2"/>
     </row>
-    <row r="855" spans="1:2" ht="12.75" customHeight="1">
+    <row r="855" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="2"/>
     </row>
-    <row r="856" spans="1:2" ht="12.75" customHeight="1">
+    <row r="856" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="2"/>
     </row>
-    <row r="857" spans="1:2" ht="12.75" customHeight="1">
+    <row r="857" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="2"/>
     </row>
-    <row r="858" spans="1:2" ht="12.75" customHeight="1">
+    <row r="858" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="2"/>
     </row>
-    <row r="859" spans="1:2" ht="12.75" customHeight="1">
+    <row r="859" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="2"/>
     </row>
-    <row r="860" spans="1:2" ht="12.75" customHeight="1">
+    <row r="860" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="2"/>
     </row>
-    <row r="861" spans="1:2" ht="12.75" customHeight="1">
+    <row r="861" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="2"/>
     </row>
-    <row r="862" spans="1:2" ht="12.75" customHeight="1">
+    <row r="862" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="2"/>
     </row>
-    <row r="863" spans="1:2" ht="12.75" customHeight="1">
+    <row r="863" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="2"/>
     </row>
-    <row r="864" spans="1:2" ht="12.75" customHeight="1">
+    <row r="864" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="2"/>
     </row>
-    <row r="865" spans="1:2" ht="12.75" customHeight="1">
+    <row r="865" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="2"/>
     </row>
-    <row r="866" spans="1:2" ht="12.75" customHeight="1">
+    <row r="866" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="2"/>
     </row>
-    <row r="867" spans="1:2" ht="12.75" customHeight="1">
+    <row r="867" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="2"/>
     </row>
-    <row r="868" spans="1:2" ht="12.75" customHeight="1">
+    <row r="868" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="2"/>
     </row>
-    <row r="869" spans="1:2" ht="12.75" customHeight="1">
+    <row r="869" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="2"/>
     </row>
-    <row r="870" spans="1:2" ht="12.75" customHeight="1">
+    <row r="870" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="2"/>
     </row>
-    <row r="871" spans="1:2" ht="12.75" customHeight="1">
+    <row r="871" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="2"/>
     </row>
-    <row r="872" spans="1:2" ht="12.75" customHeight="1">
+    <row r="872" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="2"/>
     </row>
-    <row r="873" spans="1:2" ht="12.75" customHeight="1">
+    <row r="873" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="2"/>
     </row>
-    <row r="874" spans="1:2" ht="12.75" customHeight="1">
+    <row r="874" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="2"/>
     </row>
-    <row r="875" spans="1:2" ht="12.75" customHeight="1">
+    <row r="875" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="2"/>
     </row>
-    <row r="876" spans="1:2" ht="12.75" customHeight="1">
+    <row r="876" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="2"/>
     </row>
-    <row r="877" spans="1:2" ht="12.75" customHeight="1">
+    <row r="877" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="2"/>
     </row>
-    <row r="878" spans="1:2" ht="12.75" customHeight="1">
+    <row r="878" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="2"/>
     </row>
-    <row r="879" spans="1:2" ht="12.75" customHeight="1">
+    <row r="879" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="2"/>
     </row>
-    <row r="880" spans="1:2" ht="12.75" customHeight="1">
+    <row r="880" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="2"/>
     </row>
-    <row r="881" spans="1:2" ht="12.75" customHeight="1">
+    <row r="881" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="2"/>
     </row>
-    <row r="882" spans="1:2" ht="12.75" customHeight="1">
+    <row r="882" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="2"/>
     </row>
-    <row r="883" spans="1:2" ht="12.75" customHeight="1">
+    <row r="883" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="2"/>
     </row>
-    <row r="884" spans="1:2" ht="12.75" customHeight="1">
+    <row r="884" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="2"/>
     </row>
-    <row r="885" spans="1:2" ht="12.75" customHeight="1">
+    <row r="885" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="2"/>
     </row>
-    <row r="886" spans="1:2" ht="12.75" customHeight="1">
+    <row r="886" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="2"/>
     </row>
-    <row r="887" spans="1:2" ht="12.75" customHeight="1">
+    <row r="887" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="2"/>
     </row>
-    <row r="888" spans="1:2" ht="12.75" customHeight="1">
+    <row r="888" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="2"/>
     </row>
-    <row r="889" spans="1:2" ht="12.75" customHeight="1">
+    <row r="889" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="2"/>
     </row>
-    <row r="890" spans="1:2" ht="12.75" customHeight="1">
+    <row r="890" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="2"/>
     </row>
-    <row r="891" spans="1:2" ht="12.75" customHeight="1">
+    <row r="891" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="2"/>
     </row>
-    <row r="892" spans="1:2" ht="12.75" customHeight="1">
+    <row r="892" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="2"/>
     </row>
-    <row r="893" spans="1:2" ht="12.75" customHeight="1">
+    <row r="893" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="2"/>
     </row>
-    <row r="894" spans="1:2" ht="12.75" customHeight="1">
+    <row r="894" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="2"/>
     </row>
-    <row r="895" spans="1:2" ht="12.75" customHeight="1">
+    <row r="895" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="2"/>
     </row>
-    <row r="896" spans="1:2" ht="12.75" customHeight="1">
+    <row r="896" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="2"/>
     </row>
-    <row r="897" spans="1:2" ht="12.75" customHeight="1">
+    <row r="897" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="2"/>
     </row>
-    <row r="898" spans="1:2" ht="12.75" customHeight="1">
+    <row r="898" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="2"/>
     </row>
-    <row r="899" spans="1:2" ht="12.75" customHeight="1">
+    <row r="899" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="2"/>
     </row>
-    <row r="900" spans="1:2" ht="12.75" customHeight="1">
+    <row r="900" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="2"/>
     </row>
-    <row r="901" spans="1:2" ht="12.75" customHeight="1">
+    <row r="901" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="2"/>
     </row>
-    <row r="902" spans="1:2" ht="12.75" customHeight="1">
+    <row r="902" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="2"/>
     </row>
-    <row r="903" spans="1:2" ht="12.75" customHeight="1">
+    <row r="903" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="2"/>
     </row>
-    <row r="904" spans="1:2" ht="12.75" customHeight="1">
+    <row r="904" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="2"/>
     </row>
-    <row r="905" spans="1:2" ht="12.75" customHeight="1">
+    <row r="905" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="2"/>
     </row>
-    <row r="906" spans="1:2" ht="12.75" customHeight="1">
+    <row r="906" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="2"/>
     </row>
-    <row r="907" spans="1:2" ht="12.75" customHeight="1">
+    <row r="907" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="2"/>
     </row>
-    <row r="908" spans="1:2" ht="12.75" customHeight="1">
+    <row r="908" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="2"/>
     </row>
-    <row r="909" spans="1:2" ht="12.75" customHeight="1">
+    <row r="909" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="2"/>
     </row>
-    <row r="910" spans="1:2" ht="12.75" customHeight="1">
+    <row r="910" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="2"/>
     </row>
-    <row r="911" spans="1:2" ht="12.75" customHeight="1">
+    <row r="911" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="2"/>
     </row>
-    <row r="912" spans="1:2" ht="12.75" customHeight="1">
+    <row r="912" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="2"/>
     </row>
-    <row r="913" spans="1:2" ht="12.75" customHeight="1">
+    <row r="913" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="2"/>
     </row>
-    <row r="914" spans="1:2" ht="12.75" customHeight="1">
+    <row r="914" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="2"/>
     </row>
-    <row r="915" spans="1:2" ht="12.75" customHeight="1">
+    <row r="915" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="2"/>
     </row>
-    <row r="916" spans="1:2" ht="12.75" customHeight="1">
+    <row r="916" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="2"/>
     </row>
-    <row r="917" spans="1:2" ht="12.75" customHeight="1">
+    <row r="917" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="2"/>
     </row>
-    <row r="918" spans="1:2" ht="12.75" customHeight="1">
+    <row r="918" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="2"/>
     </row>
-    <row r="919" spans="1:2" ht="12.75" customHeight="1">
+    <row r="919" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="2"/>
     </row>
-    <row r="920" spans="1:2" ht="12.75" customHeight="1">
+    <row r="920" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="2"/>
     </row>
-    <row r="921" spans="1:2" ht="12.75" customHeight="1">
+    <row r="921" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="2"/>
     </row>
-    <row r="922" spans="1:2" ht="12.75" customHeight="1">
+    <row r="922" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="2"/>
     </row>
-    <row r="923" spans="1:2" ht="12.75" customHeight="1">
+    <row r="923" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="2"/>
     </row>
-    <row r="924" spans="1:2" ht="12.75" customHeight="1">
+    <row r="924" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="2"/>
     </row>
-    <row r="925" spans="1:2" ht="12.75" customHeight="1">
+    <row r="925" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="2"/>
     </row>
-    <row r="926" spans="1:2" ht="12.75" customHeight="1">
+    <row r="926" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="2"/>
     </row>
-    <row r="927" spans="1:2" ht="12.75" customHeight="1">
+    <row r="927" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="2"/>
     </row>
-    <row r="928" spans="1:2" ht="12.75" customHeight="1">
+    <row r="928" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="2"/>
     </row>
-    <row r="929" spans="1:2" ht="12.75" customHeight="1">
+    <row r="929" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="2"/>
     </row>
-    <row r="930" spans="1:2" ht="12.75" customHeight="1">
+    <row r="930" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="2"/>
     </row>
-    <row r="931" spans="1:2" ht="12.75" customHeight="1">
+    <row r="931" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="2"/>
     </row>
-    <row r="932" spans="1:2" ht="12.75" customHeight="1">
+    <row r="932" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="2"/>
     </row>
-    <row r="933" spans="1:2" ht="12.75" customHeight="1">
+    <row r="933" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="2"/>
     </row>
-    <row r="934" spans="1:2" ht="12.75" customHeight="1">
+    <row r="934" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="2"/>
     </row>
-    <row r="935" spans="1:2" ht="12.75" customHeight="1">
+    <row r="935" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="2"/>
     </row>
-    <row r="936" spans="1:2" ht="12.75" customHeight="1">
+    <row r="936" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="2"/>
     </row>
-    <row r="937" spans="1:2" ht="12.75" customHeight="1">
+    <row r="937" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="2"/>
     </row>
-    <row r="938" spans="1:2" ht="12.75" customHeight="1">
+    <row r="938" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="2"/>
     </row>
-    <row r="939" spans="1:2" ht="12.75" customHeight="1">
+    <row r="939" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="2"/>
     </row>
-    <row r="940" spans="1:2" ht="12.75" customHeight="1">
+    <row r="940" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="2"/>
     </row>
-    <row r="941" spans="1:2" ht="12.75" customHeight="1">
+    <row r="941" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="2"/>
     </row>
-    <row r="942" spans="1:2" ht="12.75" customHeight="1">
+    <row r="942" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="2"/>
     </row>
-    <row r="943" spans="1:2" ht="12.75" customHeight="1">
+    <row r="943" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="2"/>
     </row>
-    <row r="944" spans="1:2" ht="12.75" customHeight="1">
+    <row r="944" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="2"/>
     </row>
-    <row r="945" spans="1:2" ht="12.75" customHeight="1">
+    <row r="945" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="2"/>
     </row>
-    <row r="946" spans="1:2" ht="12.75" customHeight="1">
+    <row r="946" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="2"/>
     </row>
-    <row r="947" spans="1:2" ht="12.75" customHeight="1">
+    <row r="947" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="2"/>
     </row>
-    <row r="948" spans="1:2" ht="12.75" customHeight="1">
+    <row r="948" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="2"/>
     </row>
-    <row r="949" spans="1:2" ht="12.75" customHeight="1">
+    <row r="949" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="2"/>
     </row>
-    <row r="950" spans="1:2" ht="12.75" customHeight="1">
+    <row r="950" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="2"/>
     </row>
-    <row r="951" spans="1:2" ht="12.75" customHeight="1">
+    <row r="951" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="2"/>
     </row>
-    <row r="952" spans="1:2" ht="12.75" customHeight="1">
+    <row r="952" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="2"/>
     </row>
-    <row r="953" spans="1:2" ht="12.75" customHeight="1">
+    <row r="953" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="2"/>
     </row>
-    <row r="954" spans="1:2" ht="12.75" customHeight="1">
+    <row r="954" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="2"/>
     </row>
-    <row r="955" spans="1:2" ht="12.75" customHeight="1">
+    <row r="955" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="2"/>
     </row>
-    <row r="956" spans="1:2" ht="12.75" customHeight="1">
+    <row r="956" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="2"/>
     </row>
-    <row r="957" spans="1:2" ht="12.75" customHeight="1">
+    <row r="957" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="2"/>
     </row>
-    <row r="958" spans="1:2" ht="12.75" customHeight="1">
+    <row r="958" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="2"/>
     </row>
-    <row r="959" spans="1:2" ht="12.75" customHeight="1">
+    <row r="959" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="2"/>
     </row>
-    <row r="960" spans="1:2" ht="12.75" customHeight="1">
+    <row r="960" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="2"/>
     </row>
-    <row r="961" spans="1:2" ht="12.75" customHeight="1">
+    <row r="961" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="2"/>
     </row>
-    <row r="962" spans="1:2" ht="12.75" customHeight="1">
+    <row r="962" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="2"/>
     </row>
-    <row r="963" spans="1:2" ht="12.75" customHeight="1">
+    <row r="963" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="2"/>
     </row>
-    <row r="964" spans="1:2" ht="12.75" customHeight="1">
+    <row r="964" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="2"/>
     </row>
-    <row r="965" spans="1:2" ht="12.75" customHeight="1">
+    <row r="965" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="2"/>
     </row>
-    <row r="966" spans="1:2" ht="12.75" customHeight="1">
+    <row r="966" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="2"/>
     </row>
-    <row r="967" spans="1:2" ht="12.75" customHeight="1">
+    <row r="967" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="2"/>
     </row>
-    <row r="968" spans="1:2" ht="12.75" customHeight="1">
+    <row r="968" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="2"/>
     </row>
-    <row r="969" spans="1:2" ht="12.75" customHeight="1">
+    <row r="969" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="2"/>
     </row>
-    <row r="970" spans="1:2" ht="12.75" customHeight="1">
+    <row r="970" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="2"/>
     </row>
-    <row r="971" spans="1:2" ht="12.75" customHeight="1">
+    <row r="971" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="2"/>
     </row>
-    <row r="972" spans="1:2" ht="12.75" customHeight="1">
+    <row r="972" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="2"/>
     </row>
-    <row r="973" spans="1:2" ht="12.75" customHeight="1">
+    <row r="973" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="2"/>
     </row>
-    <row r="974" spans="1:2" ht="12.75" customHeight="1">
+    <row r="974" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="2"/>
     </row>
-    <row r="975" spans="1:2" ht="12.75" customHeight="1">
+    <row r="975" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="2"/>
     </row>
-    <row r="976" spans="1:2" ht="12.75" customHeight="1">
+    <row r="976" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="2"/>
     </row>
-    <row r="977" spans="1:2" ht="12.75" customHeight="1">
+    <row r="977" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="2"/>
     </row>
-    <row r="978" spans="1:2" ht="12.75" customHeight="1">
+    <row r="978" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="2"/>
     </row>
-    <row r="979" spans="1:2" ht="12.75" customHeight="1">
+    <row r="979" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="2"/>
     </row>
-    <row r="980" spans="1:2" ht="12.75" customHeight="1">
+    <row r="980" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="2"/>
     </row>
-    <row r="981" spans="1:2" ht="12.75" customHeight="1">
+    <row r="981" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="2"/>
     </row>
-    <row r="982" spans="1:2" ht="12.75" customHeight="1">
+    <row r="982" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="2"/>
     </row>
-    <row r="983" spans="1:2" ht="12.75" customHeight="1">
+    <row r="983" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="2"/>
     </row>
-    <row r="984" spans="1:2" ht="12.75" customHeight="1">
+    <row r="984" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="2"/>
     </row>
-    <row r="985" spans="1:2" ht="12.75" customHeight="1">
+    <row r="985" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="2"/>
     </row>
-    <row r="986" spans="1:2" ht="12.75" customHeight="1">
+    <row r="986" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="2"/>
     </row>
-    <row r="987" spans="1:2" ht="12.75" customHeight="1">
+    <row r="987" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="2"/>
     </row>
-    <row r="988" spans="1:2" ht="12.75" customHeight="1">
+    <row r="988" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="2"/>
     </row>
-    <row r="989" spans="1:2" ht="12.75" customHeight="1">
+    <row r="989" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="2"/>
     </row>
-    <row r="990" spans="1:2" ht="12.75" customHeight="1">
+    <row r="990" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="2"/>
     </row>
-    <row r="991" spans="1:2" ht="12.75" customHeight="1">
+    <row r="991" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="2"/>
     </row>
-    <row r="992" spans="1:2" ht="12.75" customHeight="1">
+    <row r="992" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="2"/>
     </row>
-    <row r="993" spans="1:2" ht="12.75" customHeight="1">
+    <row r="993" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="2"/>
     </row>
-    <row r="994" spans="1:2" ht="12.75" customHeight="1">
+    <row r="994" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="2"/>
     </row>
-    <row r="995" spans="1:2" ht="12.75" customHeight="1">
+    <row r="995" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="2"/>
     </row>
-    <row r="996" spans="1:2" ht="12.75" customHeight="1">
+    <row r="996" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="2"/>
     </row>
-    <row r="997" spans="1:2" ht="12.75" customHeight="1">
+    <row r="997" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="2"/>
     </row>
-    <row r="998" spans="1:2" ht="12.75" customHeight="1">
+    <row r="998" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="2"/>
     </row>
-    <row r="999" spans="1:2" ht="12.75" customHeight="1">
+    <row r="999" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="2"/>
     </row>
@@ -5480,21 +5638,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9F4327-3FAA-42D9-B6A2-ACDDC1A9CD15}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="54.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="54.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25">
+    <row r="1" spans="1:9" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
@@ -5523,325 +5681,325 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="31">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="39">
         <v>1</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="41">
         <v>1</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="42" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34">
+    <row r="3" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41">
         <v>2</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34">
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41">
         <v>3</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34">
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41">
         <v>4</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" spans="1:9" s="36" customFormat="1" ht="30">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34">
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41">
         <v>5</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34">
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41">
         <v>6</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34">
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41">
         <v>7</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34">
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41">
         <v>8</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34">
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41">
         <v>9</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34">
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41">
         <v>10</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34">
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41">
         <v>11</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34">
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41">
         <v>12</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" s="36" customFormat="1" ht="30">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34">
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41">
         <v>13</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35" t="s">
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:9" s="36" customFormat="1" ht="15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="30">
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="31">
         <v>2</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="41">
         <v>1</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="28"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="28"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="4">
         <v>3</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="4">
         <v>4</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="30"/>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="4">
         <v>5</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9" ht="15">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="30">
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="31">
         <v>3</v>
       </c>
       <c r="E22" s="29" t="s">
@@ -5850,947 +6008,947 @@
       <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" ht="15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="29"/>
       <c r="F23" s="4">
         <v>2</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" ht="15">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="29"/>
       <c r="F24" s="4">
         <v>3</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:9" ht="15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="29"/>
       <c r="F25" s="4">
         <v>4</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" ht="15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="29"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" ht="15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="30">
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="31">
         <v>4</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="30" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" ht="15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="28"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="4">
         <v>2</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" ht="15">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="28"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="4">
         <v>3</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="30"/>
-    </row>
-    <row r="30" spans="1:9" ht="15">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="28"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="4">
         <v>4</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:9" ht="15">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="28"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="4">
         <v>5</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" ht="15">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="28"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="4">
         <v>6</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="1:9" ht="15">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="28"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="30"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="24"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30">
+    <row r="35" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31">
         <v>2</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="33">
         <v>1</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="26">
         <v>1</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="27" t="s">
         <v>59</v>
       </c>
       <c r="H35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
+    <row r="36" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="4">
+      <c r="D36" s="33"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="26">
         <v>2</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="28"/>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="1:9" ht="15">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="4">
+      <c r="D37" s="33"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="26">
         <v>3</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="30"/>
-    </row>
-    <row r="38" spans="1:9" ht="15">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="4">
+      <c r="D38" s="33"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="26">
         <v>4</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="30"/>
-    </row>
-    <row r="39" spans="1:9" ht="15">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="4">
+      <c r="D39" s="33"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="26">
         <v>5</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="28"/>
-      <c r="I39" s="30"/>
-    </row>
-    <row r="40" spans="1:9" ht="30">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="4">
+      <c r="D40" s="33"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="26">
         <v>6</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="30"/>
-    </row>
-    <row r="41" spans="1:9" ht="15">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="4">
+      <c r="D41" s="33"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="26">
         <v>7</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="30"/>
-    </row>
-    <row r="42" spans="1:9" ht="15">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="4">
+      <c r="D42" s="33"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="26">
         <v>8</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="30"/>
-    </row>
-    <row r="43" spans="1:9" ht="15">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="4">
+      <c r="D43" s="33"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="26">
         <v>9</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="30"/>
-    </row>
-    <row r="44" spans="1:9" ht="15">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="23" t="s">
+      <c r="D44" s="33"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="28"/>
-      <c r="I44" s="30"/>
-    </row>
-    <row r="45" spans="1:9" ht="15">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="29"/>
-      <c r="D45" s="30">
+      <c r="D45" s="33">
         <v>2</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="26">
         <v>1</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="30"/>
-    </row>
-    <row r="46" spans="1:9" ht="15">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="4">
+      <c r="D46" s="33"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="26">
         <v>2</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="28"/>
-      <c r="I46" s="30"/>
-    </row>
-    <row r="47" spans="1:9" ht="15">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="31"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="4">
+      <c r="D47" s="33"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="26">
         <v>3</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H47" s="28"/>
-      <c r="I47" s="30"/>
-    </row>
-    <row r="48" spans="1:9" ht="15">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="23" t="s">
+      <c r="D48" s="33"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="28"/>
-      <c r="I48" s="30"/>
-    </row>
-    <row r="49" spans="1:9" ht="15">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="31"/>
+    </row>
+    <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="29"/>
-      <c r="D49" s="30">
+      <c r="D49" s="33">
         <v>3</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="26">
         <v>1</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H49" s="28"/>
-      <c r="I49" s="30"/>
-    </row>
-    <row r="50" spans="1:9" ht="15">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
+    </row>
+    <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="4">
+      <c r="D50" s="33"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="26">
         <v>2</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="H50" s="28"/>
-      <c r="I50" s="30"/>
-    </row>
-    <row r="51" spans="1:9" ht="15">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="4">
+      <c r="D51" s="33"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="26">
         <v>3</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="30"/>
-    </row>
-    <row r="52" spans="1:9" ht="15">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="31"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="23" t="s">
+      <c r="D52" s="33"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="28"/>
-      <c r="I52" s="30"/>
-    </row>
-    <row r="53" spans="1:9" ht="45" customHeight="1">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="31"/>
+    </row>
+    <row r="53" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="29"/>
-      <c r="D53" s="30">
+      <c r="D53" s="33">
         <v>4</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="26">
         <v>1</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="H53" s="28"/>
-      <c r="I53" s="30"/>
-    </row>
-    <row r="54" spans="1:9" ht="15">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="4">
+      <c r="D54" s="33"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="26">
         <v>2</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="H54" s="28"/>
-      <c r="I54" s="30"/>
-    </row>
-    <row r="55" spans="1:9" ht="15">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="31"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="4">
+      <c r="D55" s="33"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="26">
         <v>3</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="H55" s="28"/>
-      <c r="I55" s="30"/>
-    </row>
-    <row r="56" spans="1:9" ht="15">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="4">
+      <c r="D56" s="33"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="26">
         <v>4</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H56" s="28"/>
-      <c r="I56" s="30"/>
-    </row>
-    <row r="57" spans="1:9" ht="15">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="29"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="23" t="s">
+      <c r="D57" s="33"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="28"/>
-      <c r="I57" s="30"/>
-    </row>
-    <row r="58" spans="1:9" ht="15">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="29"/>
-      <c r="D58" s="30">
+      <c r="D58" s="33">
         <v>5</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="26">
         <v>1</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="28"/>
-      <c r="I58" s="30"/>
-    </row>
-    <row r="59" spans="1:9" ht="15">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="4">
+      <c r="D59" s="33"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="26">
         <v>2</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H59" s="28"/>
-      <c r="I59" s="30"/>
-    </row>
-    <row r="60" spans="1:9" ht="15">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="31"/>
+    </row>
+    <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="4">
+      <c r="D60" s="33"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="26">
         <v>3</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H60" s="28"/>
-      <c r="I60" s="30"/>
-    </row>
-    <row r="61" spans="1:9" ht="15">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="4">
+      <c r="D61" s="33"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="26">
         <v>4</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="G61" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H61" s="28"/>
-      <c r="I61" s="30"/>
-    </row>
-    <row r="62" spans="1:9" ht="15">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="31"/>
+    </row>
+    <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="29"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="4">
+      <c r="D62" s="33"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="26">
         <v>5</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="G62" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H62" s="28"/>
-      <c r="I62" s="30"/>
-    </row>
-    <row r="63" spans="1:9" ht="15">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="31"/>
+    </row>
+    <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="29"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="23" t="s">
+      <c r="D63" s="33"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H63" s="28"/>
-      <c r="I63" s="30"/>
-    </row>
-    <row r="64" spans="1:9" ht="15">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="31"/>
+    </row>
+    <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="29"/>
-      <c r="D64" s="30">
+      <c r="D64" s="33">
         <v>6</v>
       </c>
-      <c r="E64" s="28" t="s">
+      <c r="E64" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="26">
         <v>1</v>
       </c>
-      <c r="G64" s="23" t="s">
+      <c r="G64" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H64" s="28"/>
-      <c r="I64" s="30"/>
-    </row>
-    <row r="65" spans="1:9" ht="15">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="31"/>
+    </row>
+    <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="29"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="4">
+      <c r="D65" s="33"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="26">
         <v>2</v>
       </c>
-      <c r="G65" s="23" t="s">
+      <c r="G65" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H65" s="28"/>
-      <c r="I65" s="30"/>
-    </row>
-    <row r="66" spans="1:9" ht="15">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="31"/>
+    </row>
+    <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="29"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="4">
+      <c r="D66" s="33"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="26">
         <v>3</v>
       </c>
-      <c r="G66" s="23" t="s">
+      <c r="G66" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H66" s="28"/>
-      <c r="I66" s="30"/>
-    </row>
-    <row r="67" spans="1:9" ht="15">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="31"/>
+    </row>
+    <row r="67" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="29"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="4">
+      <c r="D67" s="33"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="26">
         <v>4</v>
       </c>
-      <c r="G67" s="23" t="s">
+      <c r="G67" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="H67" s="28"/>
-      <c r="I67" s="30"/>
-    </row>
-    <row r="68" spans="1:9" ht="15">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="31"/>
+    </row>
+    <row r="68" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="29"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="23" t="s">
+      <c r="D68" s="33"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H68" s="28"/>
-      <c r="I68" s="30"/>
-    </row>
-    <row r="69" spans="1:9" ht="15">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="31"/>
+    </row>
+    <row r="69" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="29"/>
-      <c r="D69" s="30">
+      <c r="D69" s="33">
         <v>7</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="26">
         <v>1</v>
       </c>
-      <c r="G69" s="23" t="s">
+      <c r="G69" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="H69" s="28"/>
-      <c r="I69" s="30"/>
-    </row>
-    <row r="70" spans="1:9" ht="30">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="31"/>
+    </row>
+    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="29"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="4">
+      <c r="D70" s="33"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="26">
         <v>2</v>
       </c>
-      <c r="G70" s="23" t="s">
+      <c r="G70" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H70" s="28"/>
-      <c r="I70" s="30"/>
-    </row>
-    <row r="71" spans="1:9" ht="15">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="31"/>
+    </row>
+    <row r="71" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="29"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="23" t="s">
+      <c r="D71" s="33"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H71" s="28"/>
-      <c r="I71" s="30"/>
-    </row>
-    <row r="72" spans="1:9" ht="15">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="31"/>
+    </row>
+    <row r="72" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="29"/>
-      <c r="D72" s="22">
+      <c r="D72" s="25">
         <v>8</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="E72" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="26">
         <v>1</v>
       </c>
-      <c r="G72" s="23" t="s">
+      <c r="G72" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="H72" s="28"/>
-      <c r="I72" s="30"/>
-    </row>
-    <row r="73" spans="1:9" ht="15">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="31"/>
+    </row>
+    <row r="73" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="29"/>
-      <c r="D73" s="30">
+      <c r="D73" s="33">
         <v>9</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="E73" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="26">
         <v>1</v>
       </c>
-      <c r="G73" s="23" t="s">
+      <c r="G73" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="H73" s="28"/>
-      <c r="I73" s="30"/>
-    </row>
-    <row r="74" spans="1:9" ht="15">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="31"/>
+    </row>
+    <row r="74" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="29"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="23" t="s">
+      <c r="D74" s="33"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H74" s="28"/>
-      <c r="I74" s="30"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="31"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="24"/>
+      <c r="G75" s="23"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" ht="15">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30">
+    <row r="76" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="31"/>
+      <c r="B76" s="31">
         <v>3</v>
       </c>
       <c r="C76" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="30">
+      <c r="D76" s="31">
         <v>1</v>
       </c>
-      <c r="E76" s="28" t="s">
+      <c r="E76" s="30" t="s">
         <v>97</v>
       </c>
       <c r="F76" s="4">
         <v>1</v>
       </c>
-      <c r="G76" s="23" t="s">
+      <c r="G76" s="22" t="s">
         <v>98</v>
       </c>
       <c r="H76" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="I76" s="30">
+      <c r="I76" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
+    <row r="77" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="29"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="28"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="30"/>
       <c r="F77" s="4">
         <v>2</v>
       </c>
-      <c r="G77" s="23" t="s">
+      <c r="G77" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H77" s="28"/>
-      <c r="I77" s="30"/>
-    </row>
-    <row r="78" spans="1:9" ht="30">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="31"/>
+    </row>
+    <row r="78" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="28"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="30"/>
       <c r="F78" s="4">
         <v>3</v>
       </c>
-      <c r="G78" s="23" t="s">
+      <c r="G78" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="H78" s="28"/>
-      <c r="I78" s="30"/>
-    </row>
-    <row r="79" spans="1:9" ht="15">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="31"/>
+    </row>
+    <row r="79" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="29"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="28"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="30"/>
       <c r="F79" s="4">
         <v>4</v>
       </c>
-      <c r="G79" s="23" t="s">
+      <c r="G79" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H79" s="28"/>
-      <c r="I79" s="30"/>
-    </row>
-    <row r="80" spans="1:9" ht="15">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="31"/>
+    </row>
+    <row r="80" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="29"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="28"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="30"/>
       <c r="F80" s="4">
         <v>5</v>
       </c>
-      <c r="G80" s="23" t="s">
+      <c r="G80" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H80" s="28"/>
-      <c r="I80" s="30"/>
-    </row>
-    <row r="81" spans="1:9" ht="15">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="31"/>
+    </row>
+    <row r="81" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="31"/>
+      <c r="B81" s="31"/>
       <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="28"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="30"/>
       <c r="F81" s="4">
         <v>6</v>
       </c>
-      <c r="G81" s="23" t="s">
+      <c r="G81" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H81" s="28"/>
-      <c r="I81" s="30"/>
-    </row>
-    <row r="82" spans="1:9" ht="15">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="31"/>
+    </row>
+    <row r="82" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="31"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="28"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="30"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="23" t="s">
+      <c r="G82" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="28"/>
-      <c r="I82" s="30"/>
-    </row>
-    <row r="83" spans="1:9" ht="15">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="31"/>
+    </row>
+    <row r="83" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="29"/>
-      <c r="D83" s="30">
+      <c r="D83" s="31">
         <v>2</v>
       </c>
       <c r="E83" s="29" t="s">
@@ -6799,45 +6957,45 @@
       <c r="F83" s="4">
         <v>1</v>
       </c>
-      <c r="G83" s="23" t="s">
+      <c r="G83" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="H83" s="28"/>
-      <c r="I83" s="30"/>
-    </row>
-    <row r="84" spans="1:9" ht="15">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="31"/>
+    </row>
+    <row r="84" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="31"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="29"/>
-      <c r="D84" s="30"/>
+      <c r="D84" s="31"/>
       <c r="E84" s="29"/>
       <c r="F84" s="4">
         <v>2</v>
       </c>
-      <c r="G84" s="23" t="s">
+      <c r="G84" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H84" s="28"/>
-      <c r="I84" s="30"/>
-    </row>
-    <row r="85" spans="1:9" ht="15">
-      <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="31"/>
+    </row>
+    <row r="85" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="31"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="29"/>
-      <c r="D85" s="30"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="29"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="23" t="s">
+      <c r="G85" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="28"/>
-      <c r="I85" s="30"/>
-    </row>
-    <row r="86" spans="1:9" ht="15">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="31"/>
+    </row>
+    <row r="86" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="31"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="29"/>
-      <c r="D86" s="30">
+      <c r="D86" s="31">
         <v>3</v>
       </c>
       <c r="E86" s="29" t="s">
@@ -6846,90 +7004,90 @@
       <c r="F86" s="4">
         <v>1</v>
       </c>
-      <c r="G86" s="23" t="s">
+      <c r="G86" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="H86" s="28"/>
-      <c r="I86" s="30"/>
-    </row>
-    <row r="87" spans="1:9" ht="15">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="31"/>
+    </row>
+    <row r="87" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="29"/>
-      <c r="D87" s="30"/>
+      <c r="D87" s="31"/>
       <c r="E87" s="29"/>
       <c r="F87" s="4">
         <v>2</v>
       </c>
-      <c r="G87" s="23" t="s">
+      <c r="G87" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="H87" s="28"/>
-      <c r="I87" s="30"/>
-    </row>
-    <row r="88" spans="1:9" ht="30">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="31"/>
+    </row>
+    <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="31"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="29"/>
-      <c r="D88" s="30"/>
+      <c r="D88" s="31"/>
       <c r="E88" s="29"/>
       <c r="F88" s="4">
         <v>3</v>
       </c>
-      <c r="G88" s="23" t="s">
+      <c r="G88" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H88" s="28"/>
-      <c r="I88" s="30"/>
-    </row>
-    <row r="89" spans="1:9" ht="15">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="31"/>
+    </row>
+    <row r="89" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="31"/>
+      <c r="B89" s="31"/>
       <c r="C89" s="29"/>
-      <c r="D89" s="30"/>
+      <c r="D89" s="31"/>
       <c r="E89" s="29"/>
       <c r="F89" s="4">
         <v>4</v>
       </c>
-      <c r="G89" s="23" t="s">
+      <c r="G89" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H89" s="28"/>
-      <c r="I89" s="30"/>
-    </row>
-    <row r="90" spans="1:9" ht="15">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="31"/>
+    </row>
+    <row r="90" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="31"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="29"/>
-      <c r="D90" s="30"/>
+      <c r="D90" s="31"/>
       <c r="E90" s="29"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="23" t="s">
+      <c r="G90" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="28"/>
-      <c r="I90" s="30"/>
-    </row>
-    <row r="91" spans="1:9" ht="30">
-      <c r="A91" s="30"/>
-      <c r="B91" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="31"/>
+    </row>
+    <row r="91" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="31"/>
+      <c r="B91" s="31"/>
       <c r="C91" s="29"/>
-      <c r="D91" s="30"/>
+      <c r="D91" s="31"/>
       <c r="E91" s="29"/>
       <c r="F91" s="4">
         <v>5</v>
       </c>
-      <c r="G91" s="23" t="s">
+      <c r="G91" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="H91" s="28"/>
-      <c r="I91" s="30"/>
-    </row>
-    <row r="92" spans="1:9" ht="15">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="31"/>
+    </row>
+    <row r="92" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="31"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="29"/>
-      <c r="D92" s="30">
+      <c r="D92" s="31">
         <v>4</v>
       </c>
       <c r="E92" s="29" t="s">
@@ -6938,45 +7096,45 @@
       <c r="F92" s="4">
         <v>1</v>
       </c>
-      <c r="G92" s="23" t="s">
+      <c r="G92" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="H92" s="28"/>
-      <c r="I92" s="30"/>
-    </row>
-    <row r="93" spans="1:9" ht="30">
-      <c r="A93" s="30"/>
-      <c r="B93" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="31"/>
+    </row>
+    <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
       <c r="C93" s="29"/>
-      <c r="D93" s="30"/>
+      <c r="D93" s="31"/>
       <c r="E93" s="29"/>
       <c r="F93" s="4">
         <v>2</v>
       </c>
-      <c r="G93" s="23" t="s">
+      <c r="G93" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H93" s="28"/>
-      <c r="I93" s="30"/>
-    </row>
-    <row r="94" spans="1:9" ht="15">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="31"/>
+    </row>
+    <row r="94" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="31"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="29"/>
-      <c r="D94" s="30"/>
+      <c r="D94" s="31"/>
       <c r="E94" s="29"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="23" t="s">
+      <c r="G94" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="28"/>
-      <c r="I94" s="30"/>
-    </row>
-    <row r="95" spans="1:9" ht="15">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="31"/>
+    </row>
+    <row r="95" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="31"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="29"/>
-      <c r="D95" s="30">
+      <c r="D95" s="31">
         <v>5</v>
       </c>
       <c r="E95" s="29" t="s">
@@ -6985,150 +7143,150 @@
       <c r="F95" s="4">
         <v>1</v>
       </c>
-      <c r="G95" s="23" t="s">
+      <c r="G95" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="H95" s="28"/>
-      <c r="I95" s="30"/>
-    </row>
-    <row r="96" spans="1:9" ht="15">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="31"/>
+    </row>
+    <row r="96" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
       <c r="C96" s="29"/>
-      <c r="D96" s="30"/>
+      <c r="D96" s="31"/>
       <c r="E96" s="29"/>
       <c r="F96" s="4">
         <v>2</v>
       </c>
-      <c r="G96" s="23" t="s">
+      <c r="G96" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H96" s="28"/>
-      <c r="I96" s="30"/>
-    </row>
-    <row r="97" spans="1:9" ht="15">
-      <c r="A97" s="30"/>
-      <c r="B97" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="31"/>
+    </row>
+    <row r="97" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="31"/>
+      <c r="B97" s="31"/>
       <c r="C97" s="29"/>
-      <c r="D97" s="30"/>
+      <c r="D97" s="31"/>
       <c r="E97" s="29"/>
       <c r="F97" s="4">
         <v>3</v>
       </c>
-      <c r="G97" s="23" t="s">
+      <c r="G97" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H97" s="28"/>
-      <c r="I97" s="30"/>
-    </row>
-    <row r="98" spans="1:9" ht="15">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="31"/>
+    </row>
+    <row r="98" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="31"/>
+      <c r="B98" s="31"/>
       <c r="C98" s="29"/>
-      <c r="D98" s="30"/>
+      <c r="D98" s="31"/>
       <c r="E98" s="29"/>
       <c r="F98" s="4">
         <v>4</v>
       </c>
-      <c r="G98" s="23" t="s">
+      <c r="G98" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="H98" s="28"/>
-      <c r="I98" s="30"/>
-    </row>
-    <row r="99" spans="1:9" ht="30">
-      <c r="A99" s="30"/>
-      <c r="B99" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="31"/>
+    </row>
+    <row r="99" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="31"/>
+      <c r="B99" s="31"/>
       <c r="C99" s="29"/>
-      <c r="D99" s="30"/>
+      <c r="D99" s="31"/>
       <c r="E99" s="29"/>
       <c r="F99" s="4">
         <v>5</v>
       </c>
-      <c r="G99" s="23" t="s">
+      <c r="G99" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H99" s="28"/>
-      <c r="I99" s="30"/>
-    </row>
-    <row r="100" spans="1:9" ht="15">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="31"/>
+    </row>
+    <row r="100" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A100" s="31"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="29"/>
-      <c r="D100" s="30"/>
+      <c r="D100" s="31"/>
       <c r="E100" s="29"/>
       <c r="F100" s="4">
         <v>6</v>
       </c>
-      <c r="G100" s="23" t="s">
+      <c r="G100" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H100" s="28"/>
-      <c r="I100" s="30"/>
-    </row>
-    <row r="101" spans="1:9" ht="15">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="31"/>
+    </row>
+    <row r="101" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="31"/>
+      <c r="B101" s="31"/>
       <c r="C101" s="29"/>
-      <c r="D101" s="30"/>
+      <c r="D101" s="31"/>
       <c r="E101" s="29"/>
       <c r="F101" s="4">
         <v>7</v>
       </c>
-      <c r="G101" s="23" t="s">
+      <c r="G101" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H101" s="28"/>
-      <c r="I101" s="30"/>
-    </row>
-    <row r="102" spans="1:9" ht="15">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="31"/>
+    </row>
+    <row r="102" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="31"/>
+      <c r="B102" s="31"/>
       <c r="C102" s="29"/>
-      <c r="D102" s="30"/>
+      <c r="D102" s="31"/>
       <c r="E102" s="29"/>
       <c r="F102" s="4">
         <v>8</v>
       </c>
-      <c r="G102" s="23" t="s">
+      <c r="G102" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="H102" s="28"/>
-      <c r="I102" s="30"/>
-    </row>
-    <row r="103" spans="1:9" ht="15">
-      <c r="A103" s="30"/>
-      <c r="B103" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="31"/>
+    </row>
+    <row r="103" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="31"/>
+      <c r="B103" s="31"/>
       <c r="C103" s="29"/>
-      <c r="D103" s="30"/>
+      <c r="D103" s="31"/>
       <c r="E103" s="29"/>
       <c r="F103" s="4">
         <v>9</v>
       </c>
-      <c r="G103" s="23" t="s">
+      <c r="G103" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H103" s="28"/>
-      <c r="I103" s="30"/>
-    </row>
-    <row r="104" spans="1:9" ht="15">
-      <c r="A104" s="30"/>
-      <c r="B104" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="31"/>
+    </row>
+    <row r="104" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A104" s="31"/>
+      <c r="B104" s="31"/>
       <c r="C104" s="29"/>
-      <c r="D104" s="30"/>
+      <c r="D104" s="31"/>
       <c r="E104" s="29"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="23" t="s">
+      <c r="G104" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H104" s="28"/>
-      <c r="I104" s="30"/>
-    </row>
-    <row r="105" spans="1:9" ht="15">
-      <c r="A105" s="30"/>
-      <c r="B105" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="31"/>
+    </row>
+    <row r="105" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A105" s="31"/>
+      <c r="B105" s="31"/>
       <c r="C105" s="29"/>
-      <c r="D105" s="30">
+      <c r="D105" s="31">
         <v>6</v>
       </c>
       <c r="E105" s="29" t="s">
@@ -7137,90 +7295,90 @@
       <c r="F105" s="4">
         <v>1</v>
       </c>
-      <c r="G105" s="23" t="s">
+      <c r="G105" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="H105" s="28"/>
-      <c r="I105" s="30"/>
-    </row>
-    <row r="106" spans="1:9" ht="15">
-      <c r="A106" s="30"/>
-      <c r="B106" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="31"/>
+    </row>
+    <row r="106" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A106" s="31"/>
+      <c r="B106" s="31"/>
       <c r="C106" s="29"/>
-      <c r="D106" s="30"/>
+      <c r="D106" s="31"/>
       <c r="E106" s="29"/>
       <c r="F106" s="4">
         <v>2</v>
       </c>
-      <c r="G106" s="23" t="s">
+      <c r="G106" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H106" s="28"/>
-      <c r="I106" s="30"/>
-    </row>
-    <row r="107" spans="1:9" ht="15">
-      <c r="A107" s="30"/>
-      <c r="B107" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="31"/>
+    </row>
+    <row r="107" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="31"/>
+      <c r="B107" s="31"/>
       <c r="C107" s="29"/>
-      <c r="D107" s="30"/>
+      <c r="D107" s="31"/>
       <c r="E107" s="29"/>
       <c r="F107" s="4">
         <v>3</v>
       </c>
-      <c r="G107" s="23" t="s">
+      <c r="G107" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H107" s="28"/>
-      <c r="I107" s="30"/>
-    </row>
-    <row r="108" spans="1:9" ht="15">
-      <c r="A108" s="30"/>
-      <c r="B108" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="31"/>
+    </row>
+    <row r="108" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A108" s="31"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="29"/>
-      <c r="D108" s="30"/>
+      <c r="D108" s="31"/>
       <c r="E108" s="29"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="23" t="s">
+      <c r="G108" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H108" s="28"/>
-      <c r="I108" s="30"/>
-    </row>
-    <row r="109" spans="1:9" ht="15">
-      <c r="A109" s="30"/>
-      <c r="B109" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="31"/>
+    </row>
+    <row r="109" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A109" s="31"/>
+      <c r="B109" s="31"/>
       <c r="C109" s="29"/>
-      <c r="D109" s="30"/>
+      <c r="D109" s="31"/>
       <c r="E109" s="29"/>
       <c r="F109" s="4">
         <v>4</v>
       </c>
-      <c r="G109" s="23" t="s">
+      <c r="G109" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H109" s="28"/>
-      <c r="I109" s="30"/>
-    </row>
-    <row r="110" spans="1:9" ht="15">
-      <c r="A110" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="31"/>
+    </row>
+    <row r="110" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A110" s="31"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="25"/>
+      <c r="E110" s="24"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="23"/>
+      <c r="G110" s="22"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
-      <c r="A111" s="30"/>
-      <c r="B111" s="30">
+    <row r="111" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A111" s="31"/>
+      <c r="B111" s="31">
         <v>4</v>
       </c>
       <c r="C111" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D111" s="30">
+      <c r="D111" s="31">
         <v>1</v>
       </c>
       <c r="E111" s="29" t="s">
@@ -7229,66 +7387,66 @@
       <c r="F111" s="4">
         <v>1</v>
       </c>
-      <c r="G111" s="23" t="s">
+      <c r="G111" s="22" t="s">
         <v>133</v>
       </c>
       <c r="H111" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I111" s="30">
+      <c r="I111" s="31">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="30">
-      <c r="A112" s="30"/>
-      <c r="B112" s="30"/>
+    <row r="112" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="31"/>
+      <c r="B112" s="31"/>
       <c r="C112" s="29"/>
-      <c r="D112" s="30"/>
+      <c r="D112" s="31"/>
       <c r="E112" s="29"/>
       <c r="F112" s="4">
         <v>2</v>
       </c>
-      <c r="G112" s="23" t="s">
+      <c r="G112" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="H112" s="28"/>
-      <c r="I112" s="30"/>
-    </row>
-    <row r="113" spans="1:9" ht="30">
-      <c r="A113" s="30"/>
-      <c r="B113" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="31"/>
+    </row>
+    <row r="113" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="31"/>
+      <c r="B113" s="31"/>
       <c r="C113" s="29"/>
-      <c r="D113" s="30"/>
+      <c r="D113" s="31"/>
       <c r="E113" s="29"/>
       <c r="F113" s="4">
         <v>3</v>
       </c>
-      <c r="G113" s="23" t="s">
+      <c r="G113" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="H113" s="28"/>
-      <c r="I113" s="30"/>
-    </row>
-    <row r="114" spans="1:9" ht="30">
-      <c r="A114" s="30"/>
-      <c r="B114" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="31"/>
+    </row>
+    <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="31"/>
+      <c r="B114" s="31"/>
       <c r="C114" s="29"/>
-      <c r="D114" s="30"/>
+      <c r="D114" s="31"/>
       <c r="E114" s="29"/>
       <c r="F114" s="4">
         <v>4</v>
       </c>
-      <c r="G114" s="23" t="s">
+      <c r="G114" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="H114" s="28"/>
-      <c r="I114" s="30"/>
-    </row>
-    <row r="115" spans="1:9" ht="15">
-      <c r="A115" s="30"/>
-      <c r="B115" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="31"/>
+    </row>
+    <row r="115" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A115" s="31"/>
+      <c r="B115" s="31"/>
       <c r="C115" s="29"/>
-      <c r="D115" s="30">
+      <c r="D115" s="31">
         <v>2</v>
       </c>
       <c r="E115" s="29" t="s">
@@ -7297,47 +7455,47 @@
       <c r="F115" s="4">
         <v>1</v>
       </c>
-      <c r="G115" s="23" t="s">
+      <c r="G115" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H115" s="28"/>
-      <c r="I115" s="30"/>
-    </row>
-    <row r="116" spans="1:9" ht="30">
-      <c r="A116" s="30"/>
-      <c r="B116" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="31"/>
+    </row>
+    <row r="116" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="31"/>
+      <c r="B116" s="31"/>
       <c r="C116" s="29"/>
-      <c r="D116" s="30"/>
+      <c r="D116" s="31"/>
       <c r="E116" s="29"/>
       <c r="F116" s="4">
         <v>2</v>
       </c>
-      <c r="G116" s="23" t="s">
+      <c r="G116" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="H116" s="28"/>
-      <c r="I116" s="30"/>
-    </row>
-    <row r="117" spans="1:9" ht="30">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="31"/>
+    </row>
+    <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="31"/>
+      <c r="B117" s="31"/>
       <c r="C117" s="29"/>
-      <c r="D117" s="30"/>
+      <c r="D117" s="31"/>
       <c r="E117" s="29"/>
       <c r="F117" s="4">
         <v>3</v>
       </c>
-      <c r="G117" s="23" t="s">
+      <c r="G117" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="H117" s="28"/>
-      <c r="I117" s="30"/>
-    </row>
-    <row r="118" spans="1:9" ht="30">
-      <c r="A118" s="30"/>
-      <c r="B118" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="31"/>
+    </row>
+    <row r="118" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A118" s="31"/>
+      <c r="B118" s="31"/>
       <c r="C118" s="29"/>
-      <c r="D118" s="30">
+      <c r="D118" s="31">
         <v>3</v>
       </c>
       <c r="E118" s="29" t="s">
@@ -7346,212 +7504,212 @@
       <c r="F118" s="4">
         <v>1</v>
       </c>
-      <c r="G118" s="23" t="s">
+      <c r="G118" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="H118" s="28"/>
-      <c r="I118" s="30"/>
-    </row>
-    <row r="119" spans="1:9" ht="15">
-      <c r="A119" s="30"/>
-      <c r="B119" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="31"/>
+    </row>
+    <row r="119" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="31"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="29"/>
-      <c r="D119" s="30"/>
+      <c r="D119" s="31"/>
       <c r="E119" s="29"/>
       <c r="F119" s="4">
         <v>2</v>
       </c>
-      <c r="G119" s="23" t="s">
+      <c r="G119" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H119" s="28"/>
-      <c r="I119" s="30"/>
-    </row>
-    <row r="120" spans="1:9" ht="15">
-      <c r="A120" s="30"/>
-      <c r="B120" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="31"/>
+    </row>
+    <row r="120" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A120" s="31"/>
+      <c r="B120" s="31"/>
       <c r="C120" s="29"/>
-      <c r="D120" s="30"/>
+      <c r="D120" s="31"/>
       <c r="E120" s="29"/>
       <c r="F120" s="4">
         <v>3</v>
       </c>
-      <c r="G120" s="23" t="s">
+      <c r="G120" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H120" s="28"/>
-      <c r="I120" s="30"/>
-    </row>
-    <row r="121" spans="1:9" ht="15">
-      <c r="A121" s="30"/>
-      <c r="B121" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="31"/>
+    </row>
+    <row r="121" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="31"/>
+      <c r="B121" s="31"/>
       <c r="C121" s="29"/>
-      <c r="D121" s="30"/>
+      <c r="D121" s="31"/>
       <c r="E121" s="29"/>
       <c r="F121" s="4">
         <v>4</v>
       </c>
-      <c r="G121" s="23" t="s">
+      <c r="G121" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="H121" s="28"/>
-      <c r="I121" s="30"/>
-    </row>
-    <row r="122" spans="1:9" ht="15">
-      <c r="A122" s="30"/>
-      <c r="B122" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="31"/>
+    </row>
+    <row r="122" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A122" s="31"/>
+      <c r="B122" s="31"/>
       <c r="C122" s="29"/>
-      <c r="D122" s="30"/>
+      <c r="D122" s="31"/>
       <c r="E122" s="29"/>
       <c r="F122" s="4">
         <v>5</v>
       </c>
-      <c r="G122" s="23" t="s">
+      <c r="G122" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="H122" s="28"/>
-      <c r="I122" s="30"/>
-    </row>
-    <row r="123" spans="1:9" ht="45">
-      <c r="A123" s="30"/>
-      <c r="B123" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="31"/>
+    </row>
+    <row r="123" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="31"/>
+      <c r="B123" s="31"/>
       <c r="C123" s="29"/>
-      <c r="D123" s="30"/>
+      <c r="D123" s="31"/>
       <c r="E123" s="29"/>
       <c r="F123" s="4">
         <v>6</v>
       </c>
-      <c r="G123" s="23" t="s">
+      <c r="G123" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="H123" s="28"/>
-      <c r="I123" s="30"/>
-    </row>
-    <row r="124" spans="1:9" ht="15">
-      <c r="A124" s="30"/>
-      <c r="B124" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="31"/>
+    </row>
+    <row r="124" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A124" s="31"/>
+      <c r="B124" s="31"/>
       <c r="C124" s="29"/>
-      <c r="D124" s="30"/>
+      <c r="D124" s="31"/>
       <c r="E124" s="29"/>
       <c r="F124" s="4">
         <v>7</v>
       </c>
-      <c r="G124" s="23" t="s">
+      <c r="G124" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="H124" s="28"/>
-      <c r="I124" s="30"/>
-    </row>
-    <row r="125" spans="1:9" ht="30">
-      <c r="A125" s="30"/>
-      <c r="B125" s="30"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="31"/>
+    </row>
+    <row r="125" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="31"/>
+      <c r="B125" s="31"/>
       <c r="C125" s="29"/>
-      <c r="D125" s="30"/>
+      <c r="D125" s="31"/>
       <c r="E125" s="29"/>
       <c r="F125" s="4">
         <v>8</v>
       </c>
-      <c r="G125" s="23" t="s">
+      <c r="G125" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="H125" s="28"/>
-      <c r="I125" s="30"/>
-    </row>
-    <row r="126" spans="1:9" ht="15">
-      <c r="A126" s="30"/>
-      <c r="B126" s="30"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="31"/>
+    </row>
+    <row r="126" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A126" s="31"/>
+      <c r="B126" s="31"/>
       <c r="C126" s="29"/>
-      <c r="D126" s="30"/>
+      <c r="D126" s="31"/>
       <c r="E126" s="29"/>
       <c r="F126" s="4">
         <v>9</v>
       </c>
-      <c r="G126" s="23" t="s">
+      <c r="G126" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="H126" s="28"/>
-      <c r="I126" s="30"/>
-    </row>
-    <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="30"/>
-      <c r="B127" s="30"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="31"/>
+    </row>
+    <row r="127" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="31"/>
+      <c r="B127" s="31"/>
       <c r="C127" s="29"/>
-      <c r="D127" s="30"/>
+      <c r="D127" s="31"/>
       <c r="E127" s="29"/>
       <c r="F127" s="4">
         <v>10</v>
       </c>
-      <c r="G127" s="23" t="s">
+      <c r="G127" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="H127" s="28"/>
-      <c r="I127" s="30"/>
-    </row>
-    <row r="128" spans="1:9" ht="15">
-      <c r="A128" s="30"/>
-      <c r="B128" s="30"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="31"/>
+    </row>
+    <row r="128" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A128" s="31"/>
+      <c r="B128" s="31"/>
       <c r="C128" s="29"/>
-      <c r="D128" s="30"/>
+      <c r="D128" s="31"/>
       <c r="E128" s="29"/>
       <c r="F128" s="4">
         <v>11</v>
       </c>
-      <c r="G128" s="23" t="s">
+      <c r="G128" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="H128" s="28"/>
-      <c r="I128" s="30"/>
-    </row>
-    <row r="129" spans="1:9" ht="30">
-      <c r="A129" s="30"/>
-      <c r="B129" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="31"/>
+    </row>
+    <row r="129" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="31"/>
+      <c r="B129" s="31"/>
       <c r="C129" s="29"/>
-      <c r="D129" s="30"/>
+      <c r="D129" s="31"/>
       <c r="E129" s="29"/>
       <c r="F129" s="4">
         <v>12</v>
       </c>
-      <c r="G129" s="23" t="s">
+      <c r="G129" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="H129" s="28"/>
-      <c r="I129" s="30"/>
-    </row>
-    <row r="130" spans="1:9" ht="15">
-      <c r="A130" s="30"/>
-      <c r="B130" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="31"/>
+    </row>
+    <row r="130" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A130" s="31"/>
+      <c r="B130" s="31"/>
       <c r="C130" s="29"/>
-      <c r="D130" s="30"/>
+      <c r="D130" s="31"/>
       <c r="E130" s="29"/>
       <c r="F130" s="4">
         <v>13</v>
       </c>
-      <c r="G130" s="23" t="s">
+      <c r="G130" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="H130" s="28"/>
-      <c r="I130" s="30"/>
-    </row>
-    <row r="131" spans="1:9" ht="30">
-      <c r="A131" s="30"/>
-      <c r="B131" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="31"/>
+    </row>
+    <row r="131" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="31"/>
+      <c r="B131" s="31"/>
       <c r="C131" s="29"/>
-      <c r="D131" s="30"/>
+      <c r="D131" s="31"/>
       <c r="E131" s="29"/>
       <c r="F131" s="4">
         <v>14</v>
       </c>
-      <c r="G131" s="23" t="s">
+      <c r="G131" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="H131" s="28"/>
-      <c r="I131" s="30"/>
-    </row>
-    <row r="132" spans="1:9" ht="15">
-      <c r="A132" s="30"/>
-      <c r="B132" s="30"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="31"/>
+    </row>
+    <row r="132" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A132" s="31"/>
+      <c r="B132" s="31"/>
       <c r="C132" s="29"/>
-      <c r="D132" s="30">
+      <c r="D132" s="31">
         <v>4</v>
       </c>
       <c r="E132" s="29" t="s">
@@ -7560,221 +7718,232 @@
       <c r="F132" s="4">
         <v>1</v>
       </c>
-      <c r="G132" s="23" t="s">
+      <c r="G132" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="H132" s="28"/>
-      <c r="I132" s="30"/>
-    </row>
-    <row r="133" spans="1:9" ht="15">
-      <c r="A133" s="30"/>
-      <c r="B133" s="30"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="31"/>
+    </row>
+    <row r="133" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A133" s="31"/>
+      <c r="B133" s="31"/>
       <c r="C133" s="29"/>
-      <c r="D133" s="30"/>
+      <c r="D133" s="31"/>
       <c r="E133" s="29"/>
       <c r="F133" s="4">
         <v>2</v>
       </c>
-      <c r="G133" s="23" t="s">
+      <c r="G133" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="H133" s="28"/>
-      <c r="I133" s="30"/>
-    </row>
-    <row r="134" spans="1:9" ht="30">
-      <c r="A134" s="30"/>
-      <c r="B134" s="30"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="31"/>
+    </row>
+    <row r="134" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="31"/>
+      <c r="B134" s="31"/>
       <c r="C134" s="29"/>
-      <c r="D134" s="30"/>
+      <c r="D134" s="31"/>
       <c r="E134" s="29"/>
       <c r="F134" s="4">
         <v>3</v>
       </c>
-      <c r="G134" s="23" t="s">
+      <c r="G134" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="H134" s="28"/>
-      <c r="I134" s="30"/>
-    </row>
-    <row r="135" spans="1:9" ht="15">
-      <c r="A135" s="30"/>
-      <c r="B135" s="30"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="31"/>
+    </row>
+    <row r="135" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A135" s="31"/>
+      <c r="B135" s="31"/>
       <c r="C135" s="29"/>
-      <c r="D135" s="30"/>
+      <c r="D135" s="31"/>
       <c r="E135" s="29"/>
       <c r="F135" s="4">
         <v>4</v>
       </c>
-      <c r="G135" s="23" t="s">
+      <c r="G135" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="H135" s="28"/>
-      <c r="I135" s="30"/>
-    </row>
-    <row r="136" spans="1:9" ht="15">
-      <c r="A136" s="30"/>
-      <c r="B136" s="30"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="31"/>
+    </row>
+    <row r="136" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A136" s="31"/>
+      <c r="B136" s="31"/>
       <c r="C136" s="29"/>
-      <c r="D136" s="30"/>
+      <c r="D136" s="31"/>
       <c r="E136" s="29"/>
       <c r="F136" s="4">
         <v>5</v>
       </c>
-      <c r="G136" s="23" t="s">
+      <c r="G136" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="H136" s="28"/>
-      <c r="I136" s="30"/>
-    </row>
-    <row r="137" spans="1:9" ht="15">
-      <c r="A137" s="30"/>
-      <c r="B137" s="30"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="31"/>
+    </row>
+    <row r="137" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A137" s="31"/>
+      <c r="B137" s="31"/>
       <c r="C137" s="29"/>
-      <c r="D137" s="30"/>
+      <c r="D137" s="31"/>
       <c r="E137" s="29"/>
       <c r="F137" s="4">
         <v>6</v>
       </c>
-      <c r="G137" s="23" t="s">
+      <c r="G137" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="H137" s="28"/>
-      <c r="I137" s="30"/>
-    </row>
-    <row r="138" spans="1:9" ht="30">
-      <c r="A138" s="30"/>
-      <c r="B138" s="30"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="31"/>
+    </row>
+    <row r="138" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="31"/>
+      <c r="B138" s="31"/>
       <c r="C138" s="29"/>
-      <c r="D138" s="30"/>
+      <c r="D138" s="31"/>
       <c r="E138" s="29"/>
       <c r="F138" s="4">
         <v>7</v>
       </c>
-      <c r="G138" s="23" t="s">
+      <c r="G138" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="H138" s="28"/>
-      <c r="I138" s="30"/>
-    </row>
-    <row r="139" spans="1:9" ht="15">
-      <c r="A139" s="30"/>
-      <c r="B139" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="31"/>
+    </row>
+    <row r="139" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A139" s="31"/>
+      <c r="B139" s="31"/>
       <c r="C139" s="29"/>
-      <c r="D139" s="30"/>
+      <c r="D139" s="31"/>
       <c r="E139" s="29"/>
       <c r="F139" s="4">
         <v>8</v>
       </c>
-      <c r="G139" s="23" t="s">
+      <c r="G139" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="H139" s="28"/>
-      <c r="I139" s="30"/>
-    </row>
-    <row r="140" spans="1:9" ht="15">
-      <c r="A140" s="30"/>
-      <c r="B140" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="31"/>
+    </row>
+    <row r="140" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A140" s="31"/>
+      <c r="B140" s="31"/>
       <c r="C140" s="29"/>
-      <c r="D140" s="30"/>
+      <c r="D140" s="31"/>
       <c r="E140" s="29"/>
       <c r="F140" s="4">
         <v>9</v>
       </c>
-      <c r="G140" s="23" t="s">
+      <c r="G140" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="H140" s="28"/>
-      <c r="I140" s="30"/>
-    </row>
-    <row r="141" spans="1:9" ht="15">
-      <c r="A141" s="30"/>
-      <c r="B141" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="31"/>
+    </row>
+    <row r="141" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A141" s="31"/>
+      <c r="B141" s="31"/>
       <c r="C141" s="29"/>
-      <c r="D141" s="30"/>
+      <c r="D141" s="31"/>
       <c r="E141" s="29"/>
       <c r="F141" s="4">
         <v>10</v>
       </c>
-      <c r="G141" s="23" t="s">
+      <c r="G141" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="H141" s="28"/>
-      <c r="I141" s="30"/>
-    </row>
-    <row r="142" spans="1:9" ht="15">
-      <c r="A142" s="30"/>
-      <c r="B142" s="30"/>
+      <c r="H141" s="30"/>
+      <c r="I141" s="31"/>
+    </row>
+    <row r="142" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A142" s="31"/>
+      <c r="B142" s="31"/>
       <c r="C142" s="29"/>
-      <c r="D142" s="30"/>
+      <c r="D142" s="31"/>
       <c r="E142" s="29"/>
       <c r="F142" s="4">
         <v>11</v>
       </c>
-      <c r="G142" s="23" t="s">
+      <c r="G142" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="H142" s="28"/>
-      <c r="I142" s="30"/>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="H142" s="30"/>
+      <c r="I142" s="31"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="24"/>
+      <c r="G143" s="23"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
-      <c r="A144" s="31" t="s">
+    <row r="144" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A144" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B144" s="31"/>
-      <c r="C144" s="31" t="s">
+      <c r="B144" s="32"/>
+      <c r="C144" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="D144" s="31"/>
-      <c r="E144" s="31"/>
-      <c r="F144" s="31"/>
-      <c r="G144" s="31"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
-      <c r="A145" s="31" t="s">
+    <row r="145" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A145" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="31"/>
-      <c r="F145" s="31"/>
-      <c r="G145" s="31"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="H111:H142"/>
-    <mergeCell ref="I111:I142"/>
-    <mergeCell ref="H2:H33"/>
-    <mergeCell ref="I2:I33"/>
-    <mergeCell ref="H35:H74"/>
-    <mergeCell ref="I35:I74"/>
-    <mergeCell ref="H76:H109"/>
-    <mergeCell ref="I76:I109"/>
-    <mergeCell ref="E105:E109"/>
-    <mergeCell ref="D95:D104"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E86:E91"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="E95:E104"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="C35:C74"/>
+    <mergeCell ref="E35:E44"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="E58:E63"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="D35:D44"/>
+    <mergeCell ref="C2:C33"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="A145:G145"/>
+    <mergeCell ref="A2:A142"/>
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="E118:E131"/>
+    <mergeCell ref="E132:E142"/>
+    <mergeCell ref="C111:C142"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="C76:C109"/>
     <mergeCell ref="B35:B74"/>
     <mergeCell ref="B76:B109"/>
     <mergeCell ref="B111:B142"/>
@@ -7791,36 +7960,319 @@
     <mergeCell ref="D86:D91"/>
     <mergeCell ref="D92:D94"/>
     <mergeCell ref="D118:D131"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:G144"/>
-    <mergeCell ref="A145:G145"/>
-    <mergeCell ref="A2:A142"/>
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="D2:D15"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="E118:E131"/>
-    <mergeCell ref="E132:E142"/>
-    <mergeCell ref="C111:C142"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="C76:C109"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="C35:C74"/>
-    <mergeCell ref="E35:E44"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="E58:E63"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="D35:D44"/>
-    <mergeCell ref="C2:C33"/>
-    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="E95:E104"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="D95:D104"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="H111:H142"/>
+    <mergeCell ref="I111:I142"/>
+    <mergeCell ref="H2:H33"/>
+    <mergeCell ref="I2:I33"/>
+    <mergeCell ref="H35:H74"/>
+    <mergeCell ref="I35:I74"/>
+    <mergeCell ref="H76:H109"/>
+    <mergeCell ref="I76:I109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F9BEE1-8844-450E-AA2A-A3266AAFC7D5}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="80" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AI_Literacy_ILT_Materials/Lesson_Plan_AI_Literacy.xlsx
+++ b/AI_Literacy_ILT_Materials/Lesson_Plan_AI_Literacy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29504"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2c4e04267d3dad2/Documents/OutoftheNormAi/Simplilearn/simplilearn-AGS/AI_Literacy_ILT_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{6F28CC9D-6B07-4777-A594-03FB25EB5460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{497177FB-3C06-4CA3-9AE7-E0240749EC0F}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{6F28CC9D-6B07-4777-A594-03FB25EB5460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DD7A367-B995-4A5A-A53B-9C1ABF38BF38}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Class Structure" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -845,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -907,59 +906,62 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,12 +1193,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -5638,8 +5640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9F4327-3FAA-42D9-B6A2-ACDDC1A9CD15}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:G74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76:G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5681,328 +5683,328 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="34">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="34">
         <v>1</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41">
+    <row r="3" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41">
+      <c r="H3" s="31"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41">
+      <c r="H4" s="31"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41">
+      <c r="H5" s="31"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41">
+      <c r="H6" s="31"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41">
+      <c r="H7" s="31"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="4">
         <v>7</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41">
+      <c r="H8" s="31"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="4">
         <v>8</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41">
+      <c r="H9" s="31"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="4">
         <v>9</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41">
+      <c r="H10" s="31"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="4">
         <v>10</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41">
+      <c r="H11" s="31"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="4">
         <v>11</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41">
+      <c r="H12" s="31"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="4">
         <v>12</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41">
+      <c r="H13" s="31"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="4">
         <v>13</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="1:9" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="31">
+      <c r="H15" s="31"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="34">
         <v>2</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="30"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="30"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="4">
         <v>3</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="4">
         <v>4</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="30"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="4">
         <v>5</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="30"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="4"/>
       <c r="G21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="31">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="34">
         <v>3</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="32" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="4">
@@ -6011,75 +6013,75 @@
       <c r="G22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="4">
         <v>2</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="4">
         <v>3</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="4">
         <v>4</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="4"/>
       <c r="G26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="31">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="34">
         <v>4</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="31" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="4">
@@ -6088,99 +6090,99 @@
       <c r="G27" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="30"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="4">
         <v>2</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="30"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="4">
         <v>3</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="30"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="4">
         <v>4</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="30"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="4">
         <v>5</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="30"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="4">
         <v>6</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="30"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="4"/>
       <c r="G33" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -6191,635 +6193,635 @@
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34">
         <v>2</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="40">
         <v>1</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="42">
         <v>1</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H35" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="26">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42">
         <v>2</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="26">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42">
         <v>3</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="26">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42">
         <v>4</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="26">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42">
         <v>5</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="26">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42">
         <v>6</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="26">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42">
         <v>7</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="26">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42">
         <v>8</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="26">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42">
         <v>9</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27" t="s">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="33">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="40">
         <v>2</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="42">
         <v>1</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="26">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42">
         <v>2</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="26">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="42">
         <v>3</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="33">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="40">
         <v>3</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F49" s="42">
         <v>1</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="26">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="42">
         <v>2</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H50" s="30"/>
-      <c r="I50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="26">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="42">
         <v>3</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G51" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="H51" s="30"/>
-      <c r="I51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="27" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="33">
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="40">
         <v>4</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F53" s="42">
         <v>1</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G53" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="H53" s="30"/>
-      <c r="I53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="26">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="42">
         <v>2</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G54" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="H54" s="30"/>
-      <c r="I54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="26">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="42">
         <v>3</v>
       </c>
-      <c r="G55" s="27" t="s">
+      <c r="G55" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="H55" s="30"/>
-      <c r="I55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="26">
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="42">
         <v>4</v>
       </c>
-      <c r="G56" s="27" t="s">
+      <c r="G56" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="H56" s="30"/>
-      <c r="I56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="27" t="s">
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="30"/>
-      <c r="I57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="33">
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="40">
         <v>5</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="E58" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F58" s="42">
         <v>1</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="G58" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="30"/>
-      <c r="I58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="34"/>
     </row>
     <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="26">
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42">
         <v>2</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="G59" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="H59" s="30"/>
-      <c r="I59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="26">
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="42">
         <v>3</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G60" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H60" s="30"/>
-      <c r="I60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="34"/>
     </row>
     <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="26">
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="42">
         <v>4</v>
       </c>
-      <c r="G61" s="27" t="s">
+      <c r="G61" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="H61" s="30"/>
-      <c r="I61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="34"/>
     </row>
     <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="26">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42">
         <v>5</v>
       </c>
-      <c r="G62" s="27" t="s">
+      <c r="G62" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="H62" s="30"/>
-      <c r="I62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="34"/>
     </row>
     <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="27" t="s">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H63" s="30"/>
-      <c r="I63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="34"/>
     </row>
     <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="33">
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="40">
         <v>6</v>
       </c>
       <c r="E64" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="F64" s="26">
+      <c r="F64" s="42">
         <v>1</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="G64" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="H64" s="30"/>
-      <c r="I64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="34"/>
     </row>
     <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="33"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="40"/>
       <c r="E65" s="44"/>
-      <c r="F65" s="26">
+      <c r="F65" s="42">
         <v>2</v>
       </c>
-      <c r="G65" s="27" t="s">
+      <c r="G65" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="H65" s="30"/>
-      <c r="I65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="34"/>
     </row>
     <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="33"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="40"/>
       <c r="E66" s="44"/>
-      <c r="F66" s="26">
+      <c r="F66" s="42">
         <v>3</v>
       </c>
-      <c r="G66" s="27" t="s">
+      <c r="G66" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="H66" s="30"/>
-      <c r="I66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="34"/>
     </row>
     <row r="67" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="33"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="40"/>
       <c r="E67" s="44"/>
-      <c r="F67" s="26">
+      <c r="F67" s="42">
         <v>4</v>
       </c>
-      <c r="G67" s="27" t="s">
+      <c r="G67" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H67" s="30"/>
-      <c r="I67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="34"/>
     </row>
     <row r="68" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="33"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="40"/>
       <c r="E68" s="44"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="27" t="s">
+      <c r="F68" s="42"/>
+      <c r="G68" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H68" s="30"/>
-      <c r="I68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="34"/>
     </row>
     <row r="69" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="33">
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="40">
         <v>7</v>
       </c>
-      <c r="E69" s="43" t="s">
+      <c r="E69" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="F69" s="26">
+      <c r="F69" s="42">
         <v>1</v>
       </c>
-      <c r="G69" s="27" t="s">
+      <c r="G69" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="H69" s="30"/>
-      <c r="I69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="34"/>
     </row>
     <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="26">
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="42">
         <v>2</v>
       </c>
-      <c r="G70" s="27" t="s">
+      <c r="G70" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="H70" s="30"/>
-      <c r="I70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="34"/>
     </row>
     <row r="71" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="27" t="s">
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H71" s="30"/>
-      <c r="I71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="34"/>
     </row>
     <row r="72" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="25">
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="45">
         <v>8</v>
       </c>
-      <c r="E72" s="45" t="s">
+      <c r="E72" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="F72" s="26">
+      <c r="F72" s="42">
         <v>1</v>
       </c>
-      <c r="G72" s="27" t="s">
+      <c r="G72" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="H72" s="30"/>
-      <c r="I72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="34"/>
     </row>
     <row r="73" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="33">
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="40">
         <v>9</v>
       </c>
-      <c r="E73" s="45" t="s">
+      <c r="E73" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="26">
+      <c r="F73" s="42">
         <v>1</v>
       </c>
-      <c r="G73" s="27" t="s">
+      <c r="G73" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="H73" s="30"/>
-      <c r="I73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="34"/>
     </row>
     <row r="74" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="27" t="s">
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H74" s="30"/>
-      <c r="I74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="34"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -6830,537 +6832,537 @@
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31">
+      <c r="A76" s="34"/>
+      <c r="B76" s="34">
         <v>3</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="31">
+      <c r="D76" s="35">
         <v>1</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="25">
         <v>1</v>
       </c>
-      <c r="G76" s="22" t="s">
+      <c r="G76" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H76" s="29" t="s">
+      <c r="H76" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="I76" s="31">
+      <c r="I76" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="4">
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="25">
         <v>2</v>
       </c>
-      <c r="G77" s="22" t="s">
+      <c r="G77" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H77" s="30"/>
-      <c r="I77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="34"/>
     </row>
     <row r="78" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="4">
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="25">
         <v>3</v>
       </c>
-      <c r="G78" s="22" t="s">
+      <c r="G78" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="H78" s="30"/>
-      <c r="I78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="34"/>
     </row>
     <row r="79" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="4">
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="25">
         <v>4</v>
       </c>
-      <c r="G79" s="22" t="s">
+      <c r="G79" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="H79" s="30"/>
-      <c r="I79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="34"/>
     </row>
     <row r="80" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="4">
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="25">
         <v>5</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G80" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H80" s="30"/>
-      <c r="I80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="34"/>
     </row>
     <row r="81" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="4">
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="25">
         <v>6</v>
       </c>
-      <c r="G81" s="22" t="s">
+      <c r="G81" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H81" s="30"/>
-      <c r="I81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="34"/>
     </row>
     <row r="82" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="22" t="s">
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="30"/>
-      <c r="I82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="34"/>
     </row>
     <row r="83" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="31">
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="35">
         <v>2</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="25">
         <v>1</v>
       </c>
-      <c r="G83" s="22" t="s">
+      <c r="G83" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="H83" s="30"/>
-      <c r="I83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="34"/>
     </row>
     <row r="84" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="4">
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="25">
         <v>2</v>
       </c>
-      <c r="G84" s="22" t="s">
+      <c r="G84" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H84" s="30"/>
-      <c r="I84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="34"/>
     </row>
     <row r="85" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="22" t="s">
+      <c r="A85" s="34"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="30"/>
-      <c r="I85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="34"/>
     </row>
     <row r="86" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="31">
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="35">
         <v>3</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="25">
         <v>1</v>
       </c>
-      <c r="G86" s="22" t="s">
+      <c r="G86" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="H86" s="30"/>
-      <c r="I86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="34"/>
     </row>
     <row r="87" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="4">
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="25">
         <v>2</v>
       </c>
-      <c r="G87" s="22" t="s">
+      <c r="G87" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="H87" s="30"/>
-      <c r="I87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="34"/>
     </row>
     <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="4">
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="25">
         <v>3</v>
       </c>
-      <c r="G88" s="22" t="s">
+      <c r="G88" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="H88" s="30"/>
-      <c r="I88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="34"/>
     </row>
     <row r="89" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A89" s="31"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="4">
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="25">
         <v>4</v>
       </c>
-      <c r="G89" s="22" t="s">
+      <c r="G89" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="H89" s="30"/>
-      <c r="I89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="34"/>
     </row>
     <row r="90" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="22" t="s">
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="30"/>
-      <c r="I90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="34"/>
     </row>
     <row r="91" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="31"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="4">
+      <c r="A91" s="34"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="25">
         <v>5</v>
       </c>
-      <c r="G91" s="22" t="s">
+      <c r="G91" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="H91" s="30"/>
-      <c r="I91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="34"/>
     </row>
     <row r="92" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A92" s="31"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="31">
+      <c r="A92" s="34"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="35">
         <v>4</v>
       </c>
-      <c r="E92" s="29" t="s">
+      <c r="E92" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="25">
         <v>1</v>
       </c>
-      <c r="G92" s="22" t="s">
+      <c r="G92" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="H92" s="30"/>
-      <c r="I92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="34"/>
     </row>
     <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="31"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="4">
+      <c r="A93" s="34"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="25">
         <v>2</v>
       </c>
-      <c r="G93" s="22" t="s">
+      <c r="G93" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="H93" s="30"/>
-      <c r="I93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="34"/>
     </row>
     <row r="94" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A94" s="31"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="22" t="s">
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="30"/>
-      <c r="I94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="34"/>
     </row>
     <row r="95" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="31">
+      <c r="A95" s="34"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="35">
         <v>5</v>
       </c>
-      <c r="E95" s="29" t="s">
+      <c r="E95" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="25">
         <v>1</v>
       </c>
-      <c r="G95" s="22" t="s">
+      <c r="G95" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="H95" s="30"/>
-      <c r="I95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="34"/>
     </row>
     <row r="96" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="4">
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="25">
         <v>2</v>
       </c>
-      <c r="G96" s="22" t="s">
+      <c r="G96" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="H96" s="30"/>
-      <c r="I96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="34"/>
     </row>
     <row r="97" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="31"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="4">
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="25">
         <v>3</v>
       </c>
-      <c r="G97" s="22" t="s">
+      <c r="G97" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="H97" s="30"/>
-      <c r="I97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="34"/>
     </row>
     <row r="98" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="31"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="4">
+      <c r="A98" s="34"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="25">
         <v>4</v>
       </c>
-      <c r="G98" s="22" t="s">
+      <c r="G98" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="H98" s="30"/>
-      <c r="I98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="34"/>
     </row>
     <row r="99" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="31"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="4">
+      <c r="A99" s="34"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="25">
         <v>5</v>
       </c>
-      <c r="G99" s="22" t="s">
+      <c r="G99" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="H99" s="30"/>
-      <c r="I99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="34"/>
     </row>
     <row r="100" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="31"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="4">
+      <c r="A100" s="34"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="25">
         <v>6</v>
       </c>
-      <c r="G100" s="22" t="s">
+      <c r="G100" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="H100" s="30"/>
-      <c r="I100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="34"/>
     </row>
     <row r="101" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="31"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="4">
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="25">
         <v>7</v>
       </c>
-      <c r="G101" s="22" t="s">
+      <c r="G101" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="H101" s="30"/>
-      <c r="I101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="34"/>
     </row>
     <row r="102" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="31"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="4">
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="25">
         <v>8</v>
       </c>
-      <c r="G102" s="22" t="s">
+      <c r="G102" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="H102" s="30"/>
-      <c r="I102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="34"/>
     </row>
     <row r="103" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="31"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="4">
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="25">
         <v>9</v>
       </c>
-      <c r="G103" s="22" t="s">
+      <c r="G103" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="H103" s="30"/>
-      <c r="I103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="34"/>
     </row>
     <row r="104" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="31"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="22" t="s">
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H104" s="30"/>
-      <c r="I104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="34"/>
     </row>
     <row r="105" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="31"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="31">
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="35">
         <v>6</v>
       </c>
-      <c r="E105" s="29" t="s">
+      <c r="E105" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="25">
         <v>1</v>
       </c>
-      <c r="G105" s="22" t="s">
+      <c r="G105" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H105" s="30"/>
-      <c r="I105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="34"/>
     </row>
     <row r="106" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="31"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="4">
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="25">
         <v>2</v>
       </c>
-      <c r="G106" s="22" t="s">
+      <c r="G106" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="H106" s="30"/>
-      <c r="I106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="34"/>
     </row>
     <row r="107" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="31"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="4">
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="25">
         <v>3</v>
       </c>
-      <c r="G107" s="22" t="s">
+      <c r="G107" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H107" s="30"/>
-      <c r="I107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="34"/>
     </row>
     <row r="108" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A108" s="31"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="22" t="s">
+      <c r="A108" s="34"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H108" s="30"/>
-      <c r="I108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="34"/>
     </row>
     <row r="109" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="31"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="4">
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="25">
         <v>4</v>
       </c>
-      <c r="G109" s="22" t="s">
+      <c r="G109" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H109" s="30"/>
-      <c r="I109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="34"/>
     </row>
     <row r="110" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="31"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -7371,17 +7373,17 @@
       <c r="I110" s="4"/>
     </row>
     <row r="111" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="31"/>
-      <c r="B111" s="31">
+      <c r="A111" s="34"/>
+      <c r="B111" s="34">
         <v>4</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="D111" s="31">
+      <c r="D111" s="34">
         <v>1</v>
       </c>
-      <c r="E111" s="29" t="s">
+      <c r="E111" s="32" t="s">
         <v>132</v>
       </c>
       <c r="F111" s="4">
@@ -7390,66 +7392,66 @@
       <c r="G111" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="H111" s="29" t="s">
+      <c r="H111" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="I111" s="31">
+      <c r="I111" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="31"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="29"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="32"/>
       <c r="F112" s="4">
         <v>2</v>
       </c>
       <c r="G112" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="H112" s="30"/>
-      <c r="I112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="34"/>
     </row>
     <row r="113" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="31"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="29"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="32"/>
       <c r="F113" s="4">
         <v>3</v>
       </c>
       <c r="G113" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="H113" s="30"/>
-      <c r="I113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="34"/>
     </row>
     <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="31"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="29"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="32"/>
       <c r="F114" s="4">
         <v>4</v>
       </c>
       <c r="G114" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="H114" s="30"/>
-      <c r="I114" s="31"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="34"/>
     </row>
     <row r="115" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="31"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="31">
+      <c r="A115" s="34"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="34">
         <v>2</v>
       </c>
-      <c r="E115" s="29" t="s">
+      <c r="E115" s="32" t="s">
         <v>138</v>
       </c>
       <c r="F115" s="4">
@@ -7458,47 +7460,47 @@
       <c r="G115" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H115" s="30"/>
-      <c r="I115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="34"/>
     </row>
     <row r="116" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="31"/>
-      <c r="B116" s="31"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="29"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="32"/>
       <c r="F116" s="4">
         <v>2</v>
       </c>
       <c r="G116" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="H116" s="30"/>
-      <c r="I116" s="31"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="34"/>
     </row>
     <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="31"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="29"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="32"/>
       <c r="F117" s="4">
         <v>3</v>
       </c>
       <c r="G117" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="H117" s="30"/>
-      <c r="I117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="34"/>
     </row>
     <row r="118" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="31"/>
-      <c r="B118" s="31"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="31">
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="34">
         <v>3</v>
       </c>
-      <c r="E118" s="29" t="s">
+      <c r="E118" s="32" t="s">
         <v>141</v>
       </c>
       <c r="F118" s="4">
@@ -7507,212 +7509,212 @@
       <c r="G118" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="H118" s="30"/>
-      <c r="I118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="34"/>
     </row>
     <row r="119" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="31"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="29"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="32"/>
       <c r="F119" s="4">
         <v>2</v>
       </c>
       <c r="G119" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H119" s="30"/>
-      <c r="I119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="34"/>
     </row>
     <row r="120" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="31"/>
-      <c r="B120" s="31"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="29"/>
+      <c r="A120" s="34"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="32"/>
       <c r="F120" s="4">
         <v>3</v>
       </c>
       <c r="G120" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H120" s="30"/>
-      <c r="I120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="34"/>
     </row>
     <row r="121" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="31"/>
-      <c r="B121" s="31"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="29"/>
+      <c r="A121" s="34"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="32"/>
       <c r="F121" s="4">
         <v>4</v>
       </c>
       <c r="G121" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="H121" s="30"/>
-      <c r="I121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="34"/>
     </row>
     <row r="122" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="31"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="29"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="32"/>
       <c r="F122" s="4">
         <v>5</v>
       </c>
       <c r="G122" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="H122" s="30"/>
-      <c r="I122" s="31"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="34"/>
     </row>
     <row r="123" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A123" s="31"/>
-      <c r="B123" s="31"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="29"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="32"/>
       <c r="F123" s="4">
         <v>6</v>
       </c>
       <c r="G123" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="H123" s="30"/>
-      <c r="I123" s="31"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="34"/>
     </row>
     <row r="124" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A124" s="31"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="29"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="32"/>
       <c r="F124" s="4">
         <v>7</v>
       </c>
       <c r="G124" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="H124" s="30"/>
-      <c r="I124" s="31"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="34"/>
     </row>
     <row r="125" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="31"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="29"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="32"/>
       <c r="F125" s="4">
         <v>8</v>
       </c>
       <c r="G125" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="H125" s="30"/>
-      <c r="I125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="34"/>
     </row>
     <row r="126" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A126" s="31"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="29"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="32"/>
       <c r="F126" s="4">
         <v>9</v>
       </c>
       <c r="G126" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="H126" s="30"/>
-      <c r="I126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="34"/>
     </row>
     <row r="127" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="31"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="29"/>
+      <c r="A127" s="34"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="32"/>
       <c r="F127" s="4">
         <v>10</v>
       </c>
       <c r="G127" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="H127" s="30"/>
-      <c r="I127" s="31"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="34"/>
     </row>
     <row r="128" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A128" s="31"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="29"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="32"/>
       <c r="F128" s="4">
         <v>11</v>
       </c>
       <c r="G128" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="H128" s="30"/>
-      <c r="I128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="34"/>
     </row>
     <row r="129" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="31"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="31"/>
-      <c r="E129" s="29"/>
+      <c r="A129" s="34"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="32"/>
       <c r="F129" s="4">
         <v>12</v>
       </c>
       <c r="G129" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="H129" s="30"/>
-      <c r="I129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="34"/>
     </row>
     <row r="130" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A130" s="31"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="29"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="32"/>
       <c r="F130" s="4">
         <v>13</v>
       </c>
       <c r="G130" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="H130" s="30"/>
-      <c r="I130" s="31"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="34"/>
     </row>
     <row r="131" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="31"/>
-      <c r="B131" s="31"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="31"/>
-      <c r="E131" s="29"/>
+      <c r="A131" s="34"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="32"/>
       <c r="F131" s="4">
         <v>14</v>
       </c>
       <c r="G131" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="H131" s="30"/>
-      <c r="I131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="34"/>
     </row>
     <row r="132" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A132" s="31"/>
-      <c r="B132" s="31"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="31">
+      <c r="A132" s="34"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="34">
         <v>4</v>
       </c>
-      <c r="E132" s="29" t="s">
+      <c r="E132" s="32" t="s">
         <v>156</v>
       </c>
       <c r="F132" s="4">
@@ -7721,158 +7723,158 @@
       <c r="G132" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="H132" s="30"/>
-      <c r="I132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="34"/>
     </row>
     <row r="133" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A133" s="31"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="29"/>
+      <c r="A133" s="34"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="32"/>
       <c r="F133" s="4">
         <v>2</v>
       </c>
       <c r="G133" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="H133" s="30"/>
-      <c r="I133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="34"/>
     </row>
     <row r="134" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="31"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="29"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="32"/>
       <c r="F134" s="4">
         <v>3</v>
       </c>
       <c r="G134" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="H134" s="30"/>
-      <c r="I134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="34"/>
     </row>
     <row r="135" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A135" s="31"/>
-      <c r="B135" s="31"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="29"/>
+      <c r="A135" s="34"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="32"/>
       <c r="F135" s="4">
         <v>4</v>
       </c>
       <c r="G135" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="H135" s="30"/>
-      <c r="I135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="34"/>
     </row>
     <row r="136" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A136" s="31"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="29"/>
+      <c r="A136" s="34"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="32"/>
       <c r="F136" s="4">
         <v>5</v>
       </c>
       <c r="G136" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="H136" s="30"/>
-      <c r="I136" s="31"/>
+      <c r="H136" s="31"/>
+      <c r="I136" s="34"/>
     </row>
     <row r="137" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A137" s="31"/>
-      <c r="B137" s="31"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="29"/>
+      <c r="A137" s="34"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="32"/>
       <c r="F137" s="4">
         <v>6</v>
       </c>
       <c r="G137" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="H137" s="30"/>
-      <c r="I137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="34"/>
     </row>
     <row r="138" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="31"/>
-      <c r="B138" s="31"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="29"/>
+      <c r="A138" s="34"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="32"/>
       <c r="F138" s="4">
         <v>7</v>
       </c>
       <c r="G138" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="H138" s="30"/>
-      <c r="I138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="34"/>
     </row>
     <row r="139" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A139" s="31"/>
-      <c r="B139" s="31"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="29"/>
+      <c r="A139" s="34"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="32"/>
       <c r="F139" s="4">
         <v>8</v>
       </c>
       <c r="G139" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="H139" s="30"/>
-      <c r="I139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="34"/>
     </row>
     <row r="140" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A140" s="31"/>
-      <c r="B140" s="31"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="29"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="32"/>
       <c r="F140" s="4">
         <v>9</v>
       </c>
       <c r="G140" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="H140" s="30"/>
-      <c r="I140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="I140" s="34"/>
     </row>
     <row r="141" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A141" s="31"/>
-      <c r="B141" s="31"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="29"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="32"/>
       <c r="F141" s="4">
         <v>10</v>
       </c>
       <c r="G141" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="H141" s="30"/>
-      <c r="I141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="34"/>
     </row>
     <row r="142" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A142" s="31"/>
-      <c r="B142" s="31"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="29"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="32"/>
       <c r="F142" s="4">
         <v>11</v>
       </c>
       <c r="G142" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="H142" s="30"/>
-      <c r="I142" s="31"/>
+      <c r="H142" s="31"/>
+      <c r="I142" s="34"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
@@ -7886,48 +7888,69 @@
       <c r="I143" s="4"/>
     </row>
     <row r="144" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A144" s="32" t="s">
+      <c r="A144" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="B144" s="32"/>
-      <c r="C144" s="32" t="s">
+      <c r="B144" s="36"/>
+      <c r="C144" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D144" s="32"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="32"/>
-      <c r="G144" s="32"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="36"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
     </row>
     <row r="145" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A145" s="32" t="s">
+      <c r="A145" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="B145" s="32"/>
-      <c r="C145" s="32"/>
-      <c r="D145" s="32"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="C35:C74"/>
-    <mergeCell ref="E35:E44"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="E58:E63"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="D35:D44"/>
-    <mergeCell ref="C2:C33"/>
-    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="H111:H142"/>
+    <mergeCell ref="I111:I142"/>
+    <mergeCell ref="H2:H33"/>
+    <mergeCell ref="I2:I33"/>
+    <mergeCell ref="H35:H74"/>
+    <mergeCell ref="I35:I74"/>
+    <mergeCell ref="H76:H109"/>
+    <mergeCell ref="I76:I109"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="D95:D104"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="E95:E104"/>
+    <mergeCell ref="B35:B74"/>
+    <mergeCell ref="B76:B109"/>
+    <mergeCell ref="B111:B142"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="D132:D142"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D118:D131"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:G144"/>
     <mergeCell ref="A145:G145"/>
@@ -7944,40 +7967,19 @@
     <mergeCell ref="E64:E68"/>
     <mergeCell ref="E69:E71"/>
     <mergeCell ref="C76:C109"/>
-    <mergeCell ref="B35:B74"/>
-    <mergeCell ref="B76:B109"/>
-    <mergeCell ref="B111:B142"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="D132:D142"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="D118:D131"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E86:E91"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="E95:E104"/>
-    <mergeCell ref="E105:E109"/>
-    <mergeCell ref="D95:D104"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="H111:H142"/>
-    <mergeCell ref="I111:I142"/>
-    <mergeCell ref="H2:H33"/>
-    <mergeCell ref="I2:I33"/>
-    <mergeCell ref="H35:H74"/>
-    <mergeCell ref="I35:I74"/>
-    <mergeCell ref="H76:H109"/>
-    <mergeCell ref="I76:I109"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="C35:C74"/>
+    <mergeCell ref="E35:E44"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="E58:E63"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="D35:D44"/>
+    <mergeCell ref="C2:C33"/>
+    <mergeCell ref="E53:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8001,274 +8003,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="28" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="29" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="29" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="29" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="29" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="29" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="29" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="29" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="29" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="29" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="29" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="29" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="29" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="29" t="s">
         <v>204</v>
       </c>
     </row>

--- a/AI_Literacy_ILT_Materials/Lesson_Plan_AI_Literacy.xlsx
+++ b/AI_Literacy_ILT_Materials/Lesson_Plan_AI_Literacy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2c4e04267d3dad2/Documents/OutoftheNormAi/Simplilearn/simplilearn-AGS/AI_Literacy_ILT_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{6F28CC9D-6B07-4777-A594-03FB25EB5460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DD7A367-B995-4A5A-A53B-9C1ABF38BF38}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{6F28CC9D-6B07-4777-A594-03FB25EB5460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED6B8E9F-F2FF-41CD-9793-4F8D922F5266}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -917,6 +917,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -926,17 +929,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -945,23 +948,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1193,12 +1179,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -5640,8 +5626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9F4327-3FAA-42D9-B6A2-ACDDC1A9CD15}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76:G109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5690,13 +5676,13 @@
       <c r="B2" s="34">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="4">
@@ -5705,7 +5691,7 @@
       <c r="G2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="33" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="34">
@@ -5715,204 +5701,204 @@
     <row r="3" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
-      <c r="C3" s="30"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="34"/>
-      <c r="E3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="31"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
-      <c r="C4" s="30"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="34"/>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="4">
         <v>3</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="30"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="34"/>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="4">
         <v>4</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="30"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="34"/>
-      <c r="E6" s="30"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4">
         <v>5</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="30"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="4">
         <v>6</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="30"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="34"/>
-      <c r="E8" s="30"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="4">
         <v>7</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="30"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="34"/>
-      <c r="E9" s="30"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="4">
         <v>8</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="30"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="4">
         <v>9</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="30"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="34"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="4">
         <v>10</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="31"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="30"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="4">
         <v>11</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="30"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="4">
         <v>12</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="30"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="30"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="4">
         <v>13</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="30"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="4"/>
       <c r="G15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" s="34"/>
-      <c r="C16" s="30"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="34">
         <v>2</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="32" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="4">
@@ -5921,90 +5907,90 @@
       <c r="G16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="30"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="31"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="30"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="4">
         <v>3</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="30"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="4">
         <v>4</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="30"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="4">
         <v>5</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="30"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="31"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="4"/>
       <c r="G21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="34"/>
       <c r="B22" s="34"/>
-      <c r="C22" s="30"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="34">
         <v>3</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="33" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="4">
@@ -6013,75 +5999,75 @@
       <c r="G22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="31"/>
+      <c r="H22" s="32"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
-      <c r="C23" s="30"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="32"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="4">
         <v>2</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="34"/>
       <c r="B24" s="34"/>
-      <c r="C24" s="30"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="32"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="4">
         <v>3</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="34"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="30"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="32"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="4">
         <v>4</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
-      <c r="C26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="32"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="4"/>
       <c r="G26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="31"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="30"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="34">
         <v>4</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="4">
@@ -6090,95 +6076,95 @@
       <c r="G27" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="32"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="30"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="31"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="4">
         <v>2</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="31"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
-      <c r="C29" s="30"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="31"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="4">
         <v>3</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="31"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
-      <c r="C30" s="30"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="4">
         <v>4</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="31"/>
+      <c r="H30" s="32"/>
       <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
-      <c r="C31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="4">
         <v>5</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="31"/>
+      <c r="H31" s="32"/>
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
-      <c r="C32" s="30"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="32"/>
       <c r="F32" s="4">
         <v>6</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="31"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="30"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="4"/>
       <c r="G33" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="31"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -6197,22 +6183,22 @@
       <c r="B35" s="34">
         <v>2</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="34">
         <v>1</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="G35" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="33" t="s">
         <v>60</v>
       </c>
       <c r="I35" s="34">
@@ -6222,602 +6208,602 @@
     <row r="36" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42">
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="4">
         <v>2</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="31"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="34"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42">
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="4">
         <v>3</v>
       </c>
-      <c r="G37" s="43" t="s">
+      <c r="G37" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="31"/>
+      <c r="H37" s="32"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="34"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42">
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="4">
         <v>4</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="G38" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H38" s="31"/>
+      <c r="H38" s="32"/>
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="34"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42">
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="4">
         <v>5</v>
       </c>
-      <c r="G39" s="43" t="s">
+      <c r="G39" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="31"/>
+      <c r="H39" s="32"/>
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="34"/>
       <c r="B40" s="34"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42">
+      <c r="C40" s="33"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="4">
         <v>6</v>
       </c>
-      <c r="G40" s="43" t="s">
+      <c r="G40" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="31"/>
+      <c r="H40" s="32"/>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="34"/>
       <c r="B41" s="34"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42">
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="4">
         <v>7</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="G41" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="31"/>
+      <c r="H41" s="32"/>
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="34"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42">
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="4">
         <v>8</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="31"/>
+      <c r="H42" s="32"/>
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="34"/>
       <c r="B43" s="34"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42">
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="4">
         <v>9</v>
       </c>
-      <c r="G43" s="43" t="s">
+      <c r="G43" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="31"/>
+      <c r="H43" s="32"/>
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="34"/>
       <c r="B44" s="34"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="43" t="s">
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="31"/>
+      <c r="H44" s="32"/>
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="34"/>
       <c r="B45" s="34"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="40">
+      <c r="C45" s="33"/>
+      <c r="D45" s="34">
         <v>2</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="4">
         <v>1</v>
       </c>
-      <c r="G45" s="43" t="s">
+      <c r="G45" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="31"/>
+      <c r="H45" s="32"/>
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="34"/>
       <c r="B46" s="34"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="42">
+      <c r="C46" s="33"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="4">
         <v>2</v>
       </c>
-      <c r="G46" s="43" t="s">
+      <c r="G46" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="31"/>
+      <c r="H46" s="32"/>
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="34"/>
       <c r="B47" s="34"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="42">
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="4">
         <v>3</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="H47" s="31"/>
+      <c r="H47" s="32"/>
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="34"/>
       <c r="B48" s="34"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="43" t="s">
+      <c r="C48" s="33"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="31"/>
+      <c r="H48" s="32"/>
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="34"/>
       <c r="B49" s="34"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="40">
+      <c r="C49" s="33"/>
+      <c r="D49" s="34">
         <v>3</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="G49" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H49" s="31"/>
+      <c r="H49" s="32"/>
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="34"/>
       <c r="B50" s="34"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="42">
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="4">
         <v>2</v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H50" s="31"/>
+      <c r="H50" s="32"/>
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="34"/>
       <c r="B51" s="34"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42">
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="4">
         <v>3</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="G51" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H51" s="31"/>
+      <c r="H51" s="32"/>
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="34"/>
       <c r="B52" s="34"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="43" t="s">
+      <c r="C52" s="33"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="31"/>
+      <c r="H52" s="32"/>
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="40">
+      <c r="C53" s="33"/>
+      <c r="D53" s="34">
         <v>4</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F53" s="4">
         <v>1</v>
       </c>
-      <c r="G53" s="43" t="s">
+      <c r="G53" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="H53" s="31"/>
+      <c r="H53" s="32"/>
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="34"/>
       <c r="B54" s="34"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42">
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="4">
         <v>2</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="H54" s="31"/>
+      <c r="H54" s="32"/>
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="34"/>
       <c r="B55" s="34"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="42">
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="4">
         <v>3</v>
       </c>
-      <c r="G55" s="43" t="s">
+      <c r="G55" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H55" s="31"/>
+      <c r="H55" s="32"/>
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
       <c r="B56" s="34"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="42">
+      <c r="C56" s="33"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="4">
         <v>4</v>
       </c>
-      <c r="G56" s="43" t="s">
+      <c r="G56" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H56" s="31"/>
+      <c r="H56" s="32"/>
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="43" t="s">
+      <c r="C57" s="33"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="31"/>
+      <c r="H57" s="32"/>
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="34"/>
       <c r="B58" s="34"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="40">
+      <c r="C58" s="33"/>
+      <c r="D58" s="34">
         <v>5</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="E58" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F58" s="42">
+      <c r="F58" s="4">
         <v>1</v>
       </c>
-      <c r="G58" s="43" t="s">
+      <c r="G58" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H58" s="31"/>
+      <c r="H58" s="32"/>
       <c r="I58" s="34"/>
     </row>
     <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="34"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="42">
+      <c r="C59" s="33"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="4">
         <v>2</v>
       </c>
-      <c r="G59" s="43" t="s">
+      <c r="G59" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H59" s="31"/>
+      <c r="H59" s="32"/>
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="42">
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="4">
         <v>3</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="H60" s="31"/>
+      <c r="H60" s="32"/>
       <c r="I60" s="34"/>
     </row>
     <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="42">
+      <c r="C61" s="33"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="4">
         <v>4</v>
       </c>
-      <c r="G61" s="43" t="s">
+      <c r="G61" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H61" s="31"/>
+      <c r="H61" s="32"/>
       <c r="I61" s="34"/>
     </row>
     <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="42">
+      <c r="C62" s="33"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="4">
         <v>5</v>
       </c>
-      <c r="G62" s="43" t="s">
+      <c r="G62" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="H62" s="31"/>
+      <c r="H62" s="32"/>
       <c r="I62" s="34"/>
     </row>
     <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="43" t="s">
+      <c r="C63" s="33"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H63" s="31"/>
+      <c r="H63" s="32"/>
       <c r="I63" s="34"/>
     </row>
     <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="40">
+      <c r="C64" s="33"/>
+      <c r="D64" s="34">
         <v>6</v>
       </c>
-      <c r="E64" s="44" t="s">
+      <c r="E64" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F64" s="42">
+      <c r="F64" s="4">
         <v>1</v>
       </c>
-      <c r="G64" s="43" t="s">
+      <c r="G64" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H64" s="31"/>
+      <c r="H64" s="32"/>
       <c r="I64" s="34"/>
     </row>
     <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="42">
+      <c r="C65" s="33"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="4">
         <v>2</v>
       </c>
-      <c r="G65" s="43" t="s">
+      <c r="G65" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H65" s="31"/>
+      <c r="H65" s="32"/>
       <c r="I65" s="34"/>
     </row>
     <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="42">
+      <c r="C66" s="33"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="4">
         <v>3</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H66" s="31"/>
+      <c r="H66" s="32"/>
       <c r="I66" s="34"/>
     </row>
     <row r="67" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="34"/>
       <c r="B67" s="34"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="42">
+      <c r="C67" s="33"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="4">
         <v>4</v>
       </c>
-      <c r="G67" s="43" t="s">
+      <c r="G67" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H67" s="31"/>
+      <c r="H67" s="32"/>
       <c r="I67" s="34"/>
     </row>
     <row r="68" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="34"/>
       <c r="B68" s="34"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="43" t="s">
+      <c r="C68" s="33"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H68" s="31"/>
+      <c r="H68" s="32"/>
       <c r="I68" s="34"/>
     </row>
     <row r="69" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="40">
+      <c r="C69" s="33"/>
+      <c r="D69" s="34">
         <v>7</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F69" s="42">
+      <c r="F69" s="4">
         <v>1</v>
       </c>
-      <c r="G69" s="43" t="s">
+      <c r="G69" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H69" s="31"/>
+      <c r="H69" s="32"/>
       <c r="I69" s="34"/>
     </row>
     <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="34"/>
       <c r="B70" s="34"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="42">
+      <c r="C70" s="33"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="4">
         <v>2</v>
       </c>
-      <c r="G70" s="43" t="s">
+      <c r="G70" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H70" s="31"/>
+      <c r="H70" s="32"/>
       <c r="I70" s="34"/>
     </row>
     <row r="71" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="34"/>
       <c r="B71" s="34"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="43" t="s">
+      <c r="C71" s="33"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H71" s="31"/>
+      <c r="H71" s="32"/>
       <c r="I71" s="34"/>
     </row>
     <row r="72" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="34"/>
       <c r="B72" s="34"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="45">
+      <c r="C72" s="33"/>
+      <c r="D72" s="30">
         <v>8</v>
       </c>
-      <c r="E72" s="46" t="s">
+      <c r="E72" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F72" s="42">
+      <c r="F72" s="4">
         <v>1</v>
       </c>
-      <c r="G72" s="43" t="s">
+      <c r="G72" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H72" s="31"/>
+      <c r="H72" s="32"/>
       <c r="I72" s="34"/>
     </row>
     <row r="73" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="34"/>
       <c r="B73" s="34"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="40">
+      <c r="C73" s="33"/>
+      <c r="D73" s="34">
         <v>9</v>
       </c>
-      <c r="E73" s="46" t="s">
+      <c r="E73" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F73" s="4">
         <v>1</v>
       </c>
-      <c r="G73" s="43" t="s">
+      <c r="G73" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H73" s="31"/>
+      <c r="H73" s="32"/>
       <c r="I73" s="34"/>
     </row>
     <row r="74" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="34"/>
       <c r="B74" s="34"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="43" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H74" s="31"/>
+      <c r="H74" s="32"/>
       <c r="I74" s="34"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -6836,13 +6822,13 @@
       <c r="B76" s="34">
         <v>3</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="35">
+      <c r="D76" s="37">
         <v>1</v>
       </c>
-      <c r="E76" s="37" t="s">
+      <c r="E76" s="38" t="s">
         <v>97</v>
       </c>
       <c r="F76" s="25">
@@ -6851,7 +6837,7 @@
       <c r="G76" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H76" s="32" t="s">
+      <c r="H76" s="33" t="s">
         <v>99</v>
       </c>
       <c r="I76" s="34">
@@ -6861,99 +6847,99 @@
     <row r="77" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="34"/>
       <c r="B77" s="34"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="37"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="38"/>
       <c r="F77" s="25">
         <v>2</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H77" s="31"/>
+      <c r="H77" s="32"/>
       <c r="I77" s="34"/>
     </row>
     <row r="78" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="34"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="37"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="38"/>
       <c r="F78" s="25">
         <v>3</v>
       </c>
       <c r="G78" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="H78" s="31"/>
+      <c r="H78" s="32"/>
       <c r="I78" s="34"/>
     </row>
     <row r="79" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="34"/>
       <c r="B79" s="34"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="37"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="38"/>
       <c r="F79" s="25">
         <v>4</v>
       </c>
       <c r="G79" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="H79" s="31"/>
+      <c r="H79" s="32"/>
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="34"/>
       <c r="B80" s="34"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="37"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="38"/>
       <c r="F80" s="25">
         <v>5</v>
       </c>
       <c r="G80" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H80" s="31"/>
+      <c r="H80" s="32"/>
       <c r="I80" s="34"/>
     </row>
     <row r="81" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="34"/>
       <c r="B81" s="34"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="37"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="38"/>
       <c r="F81" s="25">
         <v>6</v>
       </c>
       <c r="G81" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H81" s="31"/>
+      <c r="H81" s="32"/>
       <c r="I81" s="34"/>
     </row>
     <row r="82" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="34"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="37"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="38"/>
       <c r="F82" s="25"/>
       <c r="G82" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="31"/>
+      <c r="H82" s="32"/>
       <c r="I82" s="34"/>
     </row>
     <row r="83" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="34"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="35">
+      <c r="C83" s="33"/>
+      <c r="D83" s="37">
         <v>2</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="E83" s="36" t="s">
         <v>105</v>
       </c>
       <c r="F83" s="25">
@@ -6962,45 +6948,45 @@
       <c r="G83" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="H83" s="31"/>
+      <c r="H83" s="32"/>
       <c r="I83" s="34"/>
     </row>
     <row r="84" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="34"/>
       <c r="B84" s="34"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="36"/>
       <c r="F84" s="25">
         <v>2</v>
       </c>
       <c r="G84" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H84" s="31"/>
+      <c r="H84" s="32"/>
       <c r="I84" s="34"/>
     </row>
     <row r="85" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="34"/>
       <c r="B85" s="34"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="36"/>
       <c r="F85" s="25"/>
       <c r="G85" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="31"/>
+      <c r="H85" s="32"/>
       <c r="I85" s="34"/>
     </row>
     <row r="86" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="34"/>
       <c r="B86" s="34"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="35">
+      <c r="C86" s="33"/>
+      <c r="D86" s="37">
         <v>3</v>
       </c>
-      <c r="E86" s="33" t="s">
+      <c r="E86" s="36" t="s">
         <v>108</v>
       </c>
       <c r="F86" s="25">
@@ -7009,90 +6995,90 @@
       <c r="G86" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="H86" s="31"/>
+      <c r="H86" s="32"/>
       <c r="I86" s="34"/>
     </row>
     <row r="87" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="34"/>
       <c r="B87" s="34"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="36"/>
       <c r="F87" s="25">
         <v>2</v>
       </c>
       <c r="G87" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="H87" s="31"/>
+      <c r="H87" s="32"/>
       <c r="I87" s="34"/>
     </row>
     <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="34"/>
       <c r="B88" s="34"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="36"/>
       <c r="F88" s="25">
         <v>3</v>
       </c>
       <c r="G88" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="H88" s="31"/>
+      <c r="H88" s="32"/>
       <c r="I88" s="34"/>
     </row>
     <row r="89" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="34"/>
       <c r="B89" s="34"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="36"/>
       <c r="F89" s="25">
         <v>4</v>
       </c>
       <c r="G89" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="H89" s="31"/>
+      <c r="H89" s="32"/>
       <c r="I89" s="34"/>
     </row>
     <row r="90" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="34"/>
       <c r="B90" s="34"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="36"/>
       <c r="F90" s="25"/>
       <c r="G90" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="31"/>
+      <c r="H90" s="32"/>
       <c r="I90" s="34"/>
     </row>
     <row r="91" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="34"/>
       <c r="B91" s="34"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="36"/>
       <c r="F91" s="25">
         <v>5</v>
       </c>
       <c r="G91" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="H91" s="31"/>
+      <c r="H91" s="32"/>
       <c r="I91" s="34"/>
     </row>
     <row r="92" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="34"/>
       <c r="B92" s="34"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="35">
+      <c r="C92" s="33"/>
+      <c r="D92" s="37">
         <v>4</v>
       </c>
-      <c r="E92" s="33" t="s">
+      <c r="E92" s="36" t="s">
         <v>114</v>
       </c>
       <c r="F92" s="25">
@@ -7101,45 +7087,45 @@
       <c r="G92" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="H92" s="31"/>
+      <c r="H92" s="32"/>
       <c r="I92" s="34"/>
     </row>
     <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="34"/>
       <c r="B93" s="34"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="36"/>
       <c r="F93" s="25">
         <v>2</v>
       </c>
       <c r="G93" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="H93" s="31"/>
+      <c r="H93" s="32"/>
       <c r="I93" s="34"/>
     </row>
     <row r="94" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="34"/>
       <c r="B94" s="34"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="36"/>
       <c r="F94" s="25"/>
       <c r="G94" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="31"/>
+      <c r="H94" s="32"/>
       <c r="I94" s="34"/>
     </row>
     <row r="95" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="34"/>
       <c r="B95" s="34"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="35">
+      <c r="C95" s="33"/>
+      <c r="D95" s="37">
         <v>5</v>
       </c>
-      <c r="E95" s="33" t="s">
+      <c r="E95" s="36" t="s">
         <v>117</v>
       </c>
       <c r="F95" s="25">
@@ -7148,150 +7134,150 @@
       <c r="G95" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="H95" s="31"/>
+      <c r="H95" s="32"/>
       <c r="I95" s="34"/>
     </row>
     <row r="96" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="34"/>
       <c r="B96" s="34"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="36"/>
       <c r="F96" s="25">
         <v>2</v>
       </c>
       <c r="G96" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="H96" s="31"/>
+      <c r="H96" s="32"/>
       <c r="I96" s="34"/>
     </row>
     <row r="97" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="34"/>
       <c r="B97" s="34"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="36"/>
       <c r="F97" s="25">
         <v>3</v>
       </c>
       <c r="G97" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="H97" s="31"/>
+      <c r="H97" s="32"/>
       <c r="I97" s="34"/>
     </row>
     <row r="98" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="34"/>
       <c r="B98" s="34"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="36"/>
       <c r="F98" s="25">
         <v>4</v>
       </c>
       <c r="G98" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="H98" s="31"/>
+      <c r="H98" s="32"/>
       <c r="I98" s="34"/>
     </row>
     <row r="99" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="34"/>
       <c r="B99" s="34"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="36"/>
       <c r="F99" s="25">
         <v>5</v>
       </c>
       <c r="G99" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="H99" s="31"/>
+      <c r="H99" s="32"/>
       <c r="I99" s="34"/>
     </row>
     <row r="100" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="34"/>
       <c r="B100" s="34"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="36"/>
       <c r="F100" s="25">
         <v>6</v>
       </c>
       <c r="G100" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="H100" s="31"/>
+      <c r="H100" s="32"/>
       <c r="I100" s="34"/>
     </row>
     <row r="101" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="34"/>
       <c r="B101" s="34"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="36"/>
       <c r="F101" s="25">
         <v>7</v>
       </c>
       <c r="G101" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="H101" s="31"/>
+      <c r="H101" s="32"/>
       <c r="I101" s="34"/>
     </row>
     <row r="102" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="34"/>
       <c r="B102" s="34"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="36"/>
       <c r="F102" s="25">
         <v>8</v>
       </c>
       <c r="G102" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="H102" s="31"/>
+      <c r="H102" s="32"/>
       <c r="I102" s="34"/>
     </row>
     <row r="103" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="34"/>
       <c r="B103" s="34"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="36"/>
       <c r="F103" s="25">
         <v>9</v>
       </c>
       <c r="G103" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="H103" s="31"/>
+      <c r="H103" s="32"/>
       <c r="I103" s="34"/>
     </row>
     <row r="104" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="34"/>
       <c r="B104" s="34"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="36"/>
       <c r="F104" s="25"/>
       <c r="G104" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H104" s="31"/>
+      <c r="H104" s="32"/>
       <c r="I104" s="34"/>
     </row>
     <row r="105" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="35">
+      <c r="C105" s="33"/>
+      <c r="D105" s="37">
         <v>6</v>
       </c>
-      <c r="E105" s="33" t="s">
+      <c r="E105" s="36" t="s">
         <v>127</v>
       </c>
       <c r="F105" s="25">
@@ -7300,65 +7286,65 @@
       <c r="G105" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H105" s="31"/>
+      <c r="H105" s="32"/>
       <c r="I105" s="34"/>
     </row>
     <row r="106" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="34"/>
       <c r="B106" s="34"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="36"/>
       <c r="F106" s="25">
         <v>2</v>
       </c>
       <c r="G106" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="H106" s="31"/>
+      <c r="H106" s="32"/>
       <c r="I106" s="34"/>
     </row>
     <row r="107" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="34"/>
       <c r="B107" s="34"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="36"/>
       <c r="F107" s="25">
         <v>3</v>
       </c>
       <c r="G107" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H107" s="31"/>
+      <c r="H107" s="32"/>
       <c r="I107" s="34"/>
     </row>
     <row r="108" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="34"/>
       <c r="B108" s="34"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="36"/>
       <c r="F108" s="25"/>
       <c r="G108" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H108" s="31"/>
+      <c r="H108" s="32"/>
       <c r="I108" s="34"/>
     </row>
     <row r="109" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="34"/>
       <c r="B109" s="34"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="36"/>
       <c r="F109" s="25">
         <v>4</v>
       </c>
       <c r="G109" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H109" s="31"/>
+      <c r="H109" s="32"/>
       <c r="I109" s="34"/>
     </row>
     <row r="110" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -7377,22 +7363,22 @@
       <c r="B111" s="34">
         <v>4</v>
       </c>
-      <c r="C111" s="32" t="s">
+      <c r="C111" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D111" s="34">
+      <c r="D111" s="37">
         <v>1</v>
       </c>
-      <c r="E111" s="32" t="s">
+      <c r="E111" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="25">
         <v>1</v>
       </c>
-      <c r="G111" s="22" t="s">
+      <c r="G111" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="H111" s="32" t="s">
+      <c r="H111" s="33" t="s">
         <v>134</v>
       </c>
       <c r="I111" s="34">
@@ -7402,478 +7388,478 @@
     <row r="112" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="34"/>
       <c r="B112" s="34"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="4">
+      <c r="C112" s="33"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="25">
         <v>2</v>
       </c>
-      <c r="G112" s="22" t="s">
+      <c r="G112" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="H112" s="31"/>
+      <c r="H112" s="32"/>
       <c r="I112" s="34"/>
     </row>
     <row r="113" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="34"/>
       <c r="B113" s="34"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="4">
+      <c r="C113" s="33"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="25">
         <v>3</v>
       </c>
-      <c r="G113" s="22" t="s">
+      <c r="G113" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="H113" s="31"/>
+      <c r="H113" s="32"/>
       <c r="I113" s="34"/>
     </row>
     <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="34"/>
       <c r="B114" s="34"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="4">
+      <c r="C114" s="33"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="25">
         <v>4</v>
       </c>
-      <c r="G114" s="22" t="s">
+      <c r="G114" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="H114" s="31"/>
+      <c r="H114" s="32"/>
       <c r="I114" s="34"/>
     </row>
     <row r="115" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="34"/>
       <c r="B115" s="34"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="34">
+      <c r="C115" s="33"/>
+      <c r="D115" s="37">
         <v>2</v>
       </c>
-      <c r="E115" s="32" t="s">
+      <c r="E115" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="25">
         <v>1</v>
       </c>
-      <c r="G115" s="22" t="s">
+      <c r="G115" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="H115" s="31"/>
+      <c r="H115" s="32"/>
       <c r="I115" s="34"/>
     </row>
     <row r="116" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="34"/>
       <c r="B116" s="34"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="4">
+      <c r="C116" s="33"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="25">
         <v>2</v>
       </c>
-      <c r="G116" s="22" t="s">
+      <c r="G116" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="H116" s="31"/>
+      <c r="H116" s="32"/>
       <c r="I116" s="34"/>
     </row>
     <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="34"/>
       <c r="B117" s="34"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="4">
+      <c r="C117" s="33"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="25">
         <v>3</v>
       </c>
-      <c r="G117" s="22" t="s">
+      <c r="G117" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="H117" s="31"/>
+      <c r="H117" s="32"/>
       <c r="I117" s="34"/>
     </row>
     <row r="118" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="34"/>
       <c r="B118" s="34"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="34">
+      <c r="C118" s="33"/>
+      <c r="D118" s="37">
         <v>3</v>
       </c>
-      <c r="E118" s="32" t="s">
+      <c r="E118" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="F118" s="4">
+      <c r="F118" s="25">
         <v>1</v>
       </c>
-      <c r="G118" s="22" t="s">
+      <c r="G118" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="H118" s="31"/>
+      <c r="H118" s="32"/>
       <c r="I118" s="34"/>
     </row>
     <row r="119" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="34"/>
       <c r="B119" s="34"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="4">
+      <c r="C119" s="33"/>
+      <c r="D119" s="37"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="25">
         <v>2</v>
       </c>
-      <c r="G119" s="22" t="s">
+      <c r="G119" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="H119" s="31"/>
+      <c r="H119" s="32"/>
       <c r="I119" s="34"/>
     </row>
     <row r="120" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="34"/>
       <c r="B120" s="34"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="4">
+      <c r="C120" s="33"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="25">
         <v>3</v>
       </c>
-      <c r="G120" s="22" t="s">
+      <c r="G120" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="H120" s="31"/>
+      <c r="H120" s="32"/>
       <c r="I120" s="34"/>
     </row>
     <row r="121" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="34"/>
       <c r="B121" s="34"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="4">
+      <c r="C121" s="33"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="25">
         <v>4</v>
       </c>
-      <c r="G121" s="22" t="s">
+      <c r="G121" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="H121" s="31"/>
+      <c r="H121" s="32"/>
       <c r="I121" s="34"/>
     </row>
     <row r="122" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="34"/>
       <c r="B122" s="34"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="4">
+      <c r="C122" s="33"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="25">
         <v>5</v>
       </c>
-      <c r="G122" s="22" t="s">
+      <c r="G122" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="H122" s="31"/>
+      <c r="H122" s="32"/>
       <c r="I122" s="34"/>
     </row>
     <row r="123" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="34"/>
       <c r="B123" s="34"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="4">
+      <c r="C123" s="33"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="25">
         <v>6</v>
       </c>
-      <c r="G123" s="22" t="s">
+      <c r="G123" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="H123" s="31"/>
+      <c r="H123" s="32"/>
       <c r="I123" s="34"/>
     </row>
     <row r="124" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="34"/>
       <c r="B124" s="34"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="4">
+      <c r="C124" s="33"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="25">
         <v>7</v>
       </c>
-      <c r="G124" s="22" t="s">
+      <c r="G124" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="H124" s="31"/>
+      <c r="H124" s="32"/>
       <c r="I124" s="34"/>
     </row>
     <row r="125" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="34"/>
       <c r="B125" s="34"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="4">
+      <c r="C125" s="33"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="25">
         <v>8</v>
       </c>
-      <c r="G125" s="22" t="s">
+      <c r="G125" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="H125" s="31"/>
+      <c r="H125" s="32"/>
       <c r="I125" s="34"/>
     </row>
     <row r="126" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="34"/>
       <c r="B126" s="34"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="4">
+      <c r="C126" s="33"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="25">
         <v>9</v>
       </c>
-      <c r="G126" s="22" t="s">
+      <c r="G126" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="H126" s="31"/>
+      <c r="H126" s="32"/>
       <c r="I126" s="34"/>
     </row>
     <row r="127" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="34"/>
       <c r="B127" s="34"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="4">
+      <c r="C127" s="33"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="25">
         <v>10</v>
       </c>
-      <c r="G127" s="22" t="s">
+      <c r="G127" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="H127" s="31"/>
+      <c r="H127" s="32"/>
       <c r="I127" s="34"/>
     </row>
     <row r="128" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="34"/>
       <c r="B128" s="34"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="4">
+      <c r="C128" s="33"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="25">
         <v>11</v>
       </c>
-      <c r="G128" s="22" t="s">
+      <c r="G128" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="H128" s="31"/>
+      <c r="H128" s="32"/>
       <c r="I128" s="34"/>
     </row>
     <row r="129" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="34"/>
       <c r="B129" s="34"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="4">
+      <c r="C129" s="33"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="25">
         <v>12</v>
       </c>
-      <c r="G129" s="22" t="s">
+      <c r="G129" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="H129" s="31"/>
+      <c r="H129" s="32"/>
       <c r="I129" s="34"/>
     </row>
     <row r="130" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="34"/>
       <c r="B130" s="34"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="4">
+      <c r="C130" s="33"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="25">
         <v>13</v>
       </c>
-      <c r="G130" s="22" t="s">
+      <c r="G130" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="H130" s="31"/>
+      <c r="H130" s="32"/>
       <c r="I130" s="34"/>
     </row>
     <row r="131" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="34"/>
       <c r="B131" s="34"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="4">
+      <c r="C131" s="33"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="25">
         <v>14</v>
       </c>
-      <c r="G131" s="22" t="s">
+      <c r="G131" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="H131" s="31"/>
+      <c r="H131" s="32"/>
       <c r="I131" s="34"/>
     </row>
     <row r="132" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="34"/>
       <c r="B132" s="34"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="34">
+      <c r="C132" s="33"/>
+      <c r="D132" s="37">
         <v>4</v>
       </c>
-      <c r="E132" s="32" t="s">
+      <c r="E132" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="F132" s="4">
+      <c r="F132" s="25">
         <v>1</v>
       </c>
-      <c r="G132" s="22" t="s">
+      <c r="G132" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="H132" s="31"/>
+      <c r="H132" s="32"/>
       <c r="I132" s="34"/>
     </row>
     <row r="133" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="34"/>
       <c r="B133" s="34"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="4">
+      <c r="C133" s="33"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="25">
         <v>2</v>
       </c>
-      <c r="G133" s="22" t="s">
+      <c r="G133" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="H133" s="31"/>
+      <c r="H133" s="32"/>
       <c r="I133" s="34"/>
     </row>
     <row r="134" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="34"/>
       <c r="B134" s="34"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="4">
+      <c r="C134" s="33"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="25">
         <v>3</v>
       </c>
-      <c r="G134" s="22" t="s">
+      <c r="G134" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="H134" s="31"/>
+      <c r="H134" s="32"/>
       <c r="I134" s="34"/>
     </row>
     <row r="135" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="34"/>
       <c r="B135" s="34"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="4">
+      <c r="C135" s="33"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="36"/>
+      <c r="F135" s="25">
         <v>4</v>
       </c>
-      <c r="G135" s="22" t="s">
+      <c r="G135" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="H135" s="31"/>
+      <c r="H135" s="32"/>
       <c r="I135" s="34"/>
     </row>
     <row r="136" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="34"/>
       <c r="B136" s="34"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="4">
+      <c r="C136" s="33"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="25">
         <v>5</v>
       </c>
-      <c r="G136" s="22" t="s">
+      <c r="G136" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="H136" s="31"/>
+      <c r="H136" s="32"/>
       <c r="I136" s="34"/>
     </row>
     <row r="137" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="34"/>
       <c r="B137" s="34"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="4">
+      <c r="C137" s="33"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="25">
         <v>6</v>
       </c>
-      <c r="G137" s="22" t="s">
+      <c r="G137" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="H137" s="31"/>
+      <c r="H137" s="32"/>
       <c r="I137" s="34"/>
     </row>
     <row r="138" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="34"/>
       <c r="B138" s="34"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="4">
+      <c r="C138" s="33"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="25">
         <v>7</v>
       </c>
-      <c r="G138" s="22" t="s">
+      <c r="G138" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H138" s="31"/>
+      <c r="H138" s="32"/>
       <c r="I138" s="34"/>
     </row>
     <row r="139" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="34"/>
       <c r="B139" s="34"/>
-      <c r="C139" s="32"/>
-      <c r="D139" s="34"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="4">
+      <c r="C139" s="33"/>
+      <c r="D139" s="37"/>
+      <c r="E139" s="36"/>
+      <c r="F139" s="25">
         <v>8</v>
       </c>
-      <c r="G139" s="22" t="s">
+      <c r="G139" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="H139" s="31"/>
+      <c r="H139" s="32"/>
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="34"/>
       <c r="B140" s="34"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="4">
+      <c r="C140" s="33"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="25">
         <v>9</v>
       </c>
-      <c r="G140" s="22" t="s">
+      <c r="G140" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="H140" s="31"/>
+      <c r="H140" s="32"/>
       <c r="I140" s="34"/>
     </row>
     <row r="141" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="34"/>
       <c r="B141" s="34"/>
-      <c r="C141" s="32"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="4">
+      <c r="C141" s="33"/>
+      <c r="D141" s="37"/>
+      <c r="E141" s="36"/>
+      <c r="F141" s="25">
         <v>10</v>
       </c>
-      <c r="G141" s="22" t="s">
+      <c r="G141" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="H141" s="31"/>
+      <c r="H141" s="32"/>
       <c r="I141" s="34"/>
     </row>
     <row r="142" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="34"/>
       <c r="B142" s="34"/>
-      <c r="C142" s="32"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="4">
+      <c r="C142" s="33"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="25">
         <v>11</v>
       </c>
-      <c r="G142" s="22" t="s">
+      <c r="G142" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="H142" s="31"/>
+      <c r="H142" s="32"/>
       <c r="I142" s="34"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -7888,30 +7874,30 @@
       <c r="I143" s="4"/>
     </row>
     <row r="144" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A144" s="36" t="s">
+      <c r="A144" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="B144" s="36"/>
-      <c r="C144" s="36" t="s">
+      <c r="B144" s="35"/>
+      <c r="C144" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D144" s="36"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="36"/>
-      <c r="G144" s="36"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="35"/>
+      <c r="G144" s="35"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
     </row>
     <row r="145" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A145" s="36" t="s">
+      <c r="A145" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B145" s="36"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="36"/>
-      <c r="G145" s="36"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="35"/>
+      <c r="F145" s="35"/>
+      <c r="G145" s="35"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
     </row>
